--- a/JupyterNotebooks/AvgHW/Alpha1F-HW30.xlsx
+++ b/JupyterNotebooks/AvgHW/Alpha1F-HW30.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
   <si>
     <t>HKL</t>
   </si>
@@ -58,6 +58,18 @@
     <t>OffsetATD</t>
   </si>
   <si>
+    <t>Holden2.5</t>
+  </si>
+  <si>
+    <t>Holden5</t>
+  </si>
+  <si>
+    <t>Holden10</t>
+  </si>
+  <si>
+    <t>Holden15</t>
+  </si>
+  <si>
     <t>HexGrid-90degTilt2.5degRes</t>
   </si>
   <si>
@@ -70,28 +82,28 @@
     <t>HexGrid-90degTilt15degRes</t>
   </si>
   <si>
+    <t>[2, 0, 0]</t>
+  </si>
+  <si>
+    <t>[2, 2, 0]</t>
+  </si>
+  <si>
+    <t>[4, 0, 0]</t>
+  </si>
+  <si>
+    <t>[2, 1, 1]</t>
+  </si>
+  <si>
+    <t>[3, 2, 1]</t>
+  </si>
+  <si>
+    <t>[3, 1, 0]</t>
+  </si>
+  <si>
+    <t>[2, 2, 2]</t>
+  </si>
+  <si>
     <t>[1, 1, 0]</t>
-  </si>
-  <si>
-    <t>[2, 0, 0]</t>
-  </si>
-  <si>
-    <t>[2, 1, 1]</t>
-  </si>
-  <si>
-    <t>[2, 2, 0]</t>
-  </si>
-  <si>
-    <t>[2, 2, 2]</t>
-  </si>
-  <si>
-    <t>[3, 1, 0]</t>
-  </si>
-  <si>
-    <t>[3, 2, 1]</t>
-  </si>
-  <si>
-    <t>[4, 0, 0]</t>
   </si>
   <si>
     <t>1Pair-A</t>
@@ -479,13 +491,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AD19"/>
+  <dimension ref="A1:T23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:30">
+    <row r="1" spans="1:20">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -543,38 +555,8 @@
       <c r="T1" s="1">
         <v>18</v>
       </c>
-      <c r="U1" s="1">
-        <v>19</v>
-      </c>
-      <c r="V1" s="1">
-        <v>20</v>
-      </c>
-      <c r="W1" s="1">
-        <v>21</v>
-      </c>
-      <c r="X1" s="1">
-        <v>22</v>
-      </c>
-      <c r="Y1" s="1">
-        <v>23</v>
-      </c>
-      <c r="Z1" s="1">
-        <v>24</v>
-      </c>
-      <c r="AA1" s="1">
-        <v>25</v>
-      </c>
-      <c r="AB1" s="1">
-        <v>26</v>
-      </c>
-      <c r="AC1" s="1">
-        <v>27</v>
-      </c>
-      <c r="AD1" s="1">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="2" spans="1:30">
+    </row>
+    <row r="2" spans="1:20">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -582,91 +564,61 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="D2" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="E2" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="F2" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="G2" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="H2" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="I2" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="J2" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="K2" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="L2" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="M2" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="N2" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="O2" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="P2" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="Q2" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="R2" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="S2" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="T2" t="s">
-        <v>35</v>
-      </c>
-      <c r="U2" t="s">
-        <v>26</v>
-      </c>
-      <c r="V2" t="s">
-        <v>27</v>
-      </c>
-      <c r="W2" t="s">
-        <v>28</v>
-      </c>
-      <c r="X2" t="s">
-        <v>29</v>
-      </c>
-      <c r="Y2" t="s">
-        <v>30</v>
-      </c>
-      <c r="Z2" t="s">
-        <v>31</v>
-      </c>
-      <c r="AA2" t="s">
-        <v>32</v>
-      </c>
-      <c r="AB2" t="s">
-        <v>33</v>
-      </c>
-      <c r="AC2" t="s">
-        <v>34</v>
-      </c>
-      <c r="AD2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="3" spans="1:30">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -674,28 +626,28 @@
         <v>1</v>
       </c>
       <c r="C3">
+        <v>1.008386975987148</v>
+      </c>
+      <c r="D3">
         <v>0.9980962656429758</v>
       </c>
-      <c r="D3">
+      <c r="E3">
         <v>1.008386975987148</v>
       </c>
-      <c r="E3">
+      <c r="F3">
         <v>0.997795887522625</v>
       </c>
-      <c r="F3">
-        <v>0.9980962656429758</v>
-      </c>
       <c r="G3">
-        <v>0.9940644007378312</v>
+        <v>0.9978834580553518</v>
       </c>
       <c r="H3">
         <v>1.004682768220944</v>
       </c>
       <c r="I3">
-        <v>0.9978834580553518</v>
+        <v>0.9940644007378312</v>
       </c>
       <c r="J3">
-        <v>1.008386975987148</v>
+        <v>0.9980962656429758</v>
       </c>
       <c r="K3">
         <v>0.9980962656429758</v>
@@ -728,7 +680,7 @@
         <v>1.000151626027813</v>
       </c>
     </row>
-    <row r="4" spans="1:30">
+    <row r="4" spans="1:20">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -736,28 +688,28 @@
         <v>2</v>
       </c>
       <c r="C4">
+        <v>1.016187275119469</v>
+      </c>
+      <c r="D4">
         <v>0.9963308609201554</v>
       </c>
-      <c r="D4">
+      <c r="E4">
         <v>1.016187275119469</v>
       </c>
-      <c r="E4">
+      <c r="F4">
         <v>0.9957430860309134</v>
       </c>
-      <c r="F4">
-        <v>0.9963308609201554</v>
-      </c>
       <c r="G4">
-        <v>0.9885348394887286</v>
+        <v>0.9959144436439981</v>
       </c>
       <c r="H4">
         <v>1.009039825702461</v>
       </c>
       <c r="I4">
-        <v>0.9959144436439981</v>
+        <v>0.9885348394887286</v>
       </c>
       <c r="J4">
-        <v>1.016187275119469</v>
+        <v>0.9963308609201554</v>
       </c>
       <c r="K4">
         <v>0.9963308609201554</v>
@@ -790,7 +742,7 @@
         <v>1.000291721817621</v>
       </c>
     </row>
-    <row r="5" spans="1:30">
+    <row r="5" spans="1:20">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -798,28 +750,28 @@
         <v>3</v>
       </c>
       <c r="C5">
+        <v>1.031054576361758</v>
+      </c>
+      <c r="D5">
         <v>0.9929137770560438</v>
       </c>
-      <c r="D5">
+      <c r="E5">
         <v>1.031054576361758</v>
       </c>
-      <c r="E5">
+      <c r="F5">
         <v>0.9918594754970862</v>
       </c>
-      <c r="F5">
-        <v>0.9929137770560438</v>
-      </c>
       <c r="G5">
-        <v>0.9780883203980439</v>
+        <v>0.9921668459349107</v>
       </c>
       <c r="H5">
         <v>1.017325570051867</v>
       </c>
       <c r="I5">
-        <v>0.9921668459349107</v>
+        <v>0.9780883203980437</v>
       </c>
       <c r="J5">
-        <v>1.031054576361758</v>
+        <v>0.9929137770560438</v>
       </c>
       <c r="K5">
         <v>0.9929137770560438</v>
@@ -852,7 +804,7 @@
         <v>1.000568094216618</v>
       </c>
     </row>
-    <row r="6" spans="1:30">
+    <row r="6" spans="1:20">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -860,28 +812,28 @@
         <v>4</v>
       </c>
       <c r="C6">
+        <v>1.045563393992905</v>
+      </c>
+      <c r="D6">
         <v>0.9895805418991376</v>
       </c>
-      <c r="D6">
+      <c r="E6">
         <v>1.045563393992905</v>
       </c>
-      <c r="E6">
+      <c r="F6">
         <v>0.98806871800281</v>
       </c>
-      <c r="F6">
-        <v>0.9895805418991376</v>
-      </c>
       <c r="G6">
-        <v>0.9678913014885043</v>
+        <v>0.9885094763022511</v>
       </c>
       <c r="H6">
         <v>1.025411974737376</v>
       </c>
       <c r="I6">
-        <v>0.9885094763022511</v>
+        <v>0.9678913014885043</v>
       </c>
       <c r="J6">
-        <v>1.045563393992905</v>
+        <v>0.9895805418991376</v>
       </c>
       <c r="K6">
         <v>0.9895805418991376</v>
@@ -914,7 +866,7 @@
         <v>1.000837567737164</v>
       </c>
     </row>
-    <row r="7" spans="1:30">
+    <row r="7" spans="1:20">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -922,28 +874,28 @@
         <v>5</v>
       </c>
       <c r="C7">
+        <v>1.000554700923606</v>
+      </c>
+      <c r="D7">
         <v>0.9998542399287877</v>
       </c>
-      <c r="D7">
+      <c r="E7">
         <v>1.000554700923606</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>0.9998653830055104</v>
       </c>
-      <c r="F7">
-        <v>0.9998542399287877</v>
-      </c>
       <c r="G7">
-        <v>0.9996437475702954</v>
+        <v>0.9998621313846108</v>
       </c>
       <c r="H7">
         <v>1.000302163463341</v>
       </c>
       <c r="I7">
-        <v>0.9998621313846106</v>
+        <v>0.9996437475702956</v>
       </c>
       <c r="J7">
-        <v>1.000554700923606</v>
+        <v>0.9998542399287877</v>
       </c>
       <c r="K7">
         <v>0.9998542399287877</v>
@@ -976,7 +928,7 @@
         <v>1.000013727712692</v>
       </c>
     </row>
-    <row r="8" spans="1:30">
+    <row r="8" spans="1:20">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -984,31 +936,31 @@
         <v>6</v>
       </c>
       <c r="C8">
-        <v>0.9996909552194728</v>
+        <v>1.001236316788594</v>
       </c>
       <c r="D8">
+        <v>0.9996909552194725</v>
+      </c>
+      <c r="E8">
         <v>1.001236316788594</v>
       </c>
-      <c r="E8">
+      <c r="F8">
         <v>0.9996914949849508</v>
       </c>
-      <c r="F8">
-        <v>0.9996909552194728</v>
-      </c>
       <c r="G8">
-        <v>0.9991804490201133</v>
+        <v>0.9996913346253671</v>
       </c>
       <c r="H8">
         <v>1.000678150066386</v>
       </c>
       <c r="I8">
-        <v>0.9996913346253671</v>
+        <v>0.999180449020113</v>
       </c>
       <c r="J8">
-        <v>1.001236316788594</v>
+        <v>0.9996909552194725</v>
       </c>
       <c r="K8">
-        <v>0.9996909552194728</v>
+        <v>0.9996909552194725</v>
       </c>
       <c r="L8">
         <v>0.9996914949849508</v>
@@ -1029,16 +981,16 @@
         <v>1.000206255664339</v>
       </c>
       <c r="R8">
-        <v>1.000077430553123</v>
+        <v>1.000077430553122</v>
       </c>
       <c r="S8">
-        <v>1.000077430553123</v>
+        <v>1.000077430553122</v>
       </c>
       <c r="T8">
         <v>1.000028116784147</v>
       </c>
     </row>
-    <row r="9" spans="1:30">
+    <row r="9" spans="1:20">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -1046,28 +998,28 @@
         <v>7</v>
       </c>
       <c r="C9">
+        <v>1.001616917591653</v>
+      </c>
+      <c r="D9">
         <v>0.9996329280209784</v>
       </c>
-      <c r="D9">
+      <c r="E9">
         <v>1.001616917591653</v>
       </c>
-      <c r="E9">
+      <c r="F9">
         <v>0.9995762086825183</v>
       </c>
-      <c r="F9">
-        <v>0.9996329280209784</v>
-      </c>
       <c r="G9">
-        <v>0.9988646209624356</v>
+        <v>0.9995927419575047</v>
       </c>
       <c r="H9">
         <v>1.000899327548291</v>
       </c>
       <c r="I9">
-        <v>0.9995927419575047</v>
+        <v>0.9988646209624356</v>
       </c>
       <c r="J9">
-        <v>1.001616917591653</v>
+        <v>0.9996329280209784</v>
       </c>
       <c r="K9">
         <v>0.9996329280209784</v>
@@ -1100,7 +1052,7 @@
         <v>1.000030457460563</v>
       </c>
     </row>
-    <row r="10" spans="1:30">
+    <row r="10" spans="1:20">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -1108,28 +1060,28 @@
         <v>8</v>
       </c>
       <c r="C10">
+        <v>1.003607632566301</v>
+      </c>
+      <c r="D10">
         <v>0.9991317512354265</v>
       </c>
-      <c r="D10">
+      <c r="E10">
         <v>1.003607632566301</v>
       </c>
-      <c r="E10">
+      <c r="F10">
         <v>0.9990811746467734</v>
       </c>
-      <c r="F10">
-        <v>0.9991317512354265</v>
-      </c>
       <c r="G10">
-        <v>0.9975493227540198</v>
+        <v>0.999095918319166</v>
       </c>
       <c r="H10">
         <v>1.001990773915516</v>
       </c>
       <c r="I10">
-        <v>0.999095918319166</v>
+        <v>0.9975493227540195</v>
       </c>
       <c r="J10">
-        <v>1.003607632566301</v>
+        <v>0.9991317512354265</v>
       </c>
       <c r="K10">
         <v>0.9991317512354265</v>
@@ -1162,7 +1114,7 @@
         <v>1.000076095572867</v>
       </c>
     </row>
-    <row r="11" spans="1:30">
+    <row r="11" spans="1:20">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -1170,28 +1122,28 @@
         <v>9</v>
       </c>
       <c r="C11">
+        <v>1.00561799013218</v>
+      </c>
+      <c r="D11">
         <v>0.9987736669553302</v>
       </c>
-      <c r="D11">
+      <c r="E11">
         <v>1.00561799013218</v>
       </c>
-      <c r="E11">
+      <c r="F11">
         <v>0.9985009399727625</v>
       </c>
-      <c r="F11">
-        <v>0.9987736669553302</v>
-      </c>
       <c r="G11">
-        <v>0.9959732421331577</v>
+        <v>0.9985804512571164</v>
       </c>
       <c r="H11">
         <v>1.003140303581234</v>
       </c>
       <c r="I11">
-        <v>0.9985804512571164</v>
+        <v>0.9959732421331577</v>
       </c>
       <c r="J11">
-        <v>1.00561799013218</v>
+        <v>0.9987736669553302</v>
       </c>
       <c r="K11">
         <v>0.9987736669553302</v>
@@ -1224,7 +1176,7 @@
         <v>1.000097765671964</v>
       </c>
     </row>
-    <row r="12" spans="1:30">
+    <row r="12" spans="1:20">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -1232,28 +1184,28 @@
         <v>10</v>
       </c>
       <c r="C12">
+        <v>0.9599247910191417</v>
+      </c>
+      <c r="D12">
         <v>1.024822124234009</v>
       </c>
-      <c r="D12">
+      <c r="E12">
         <v>0.9599247910191417</v>
       </c>
-      <c r="E12">
+      <c r="F12">
         <v>1.001801925666435</v>
       </c>
-      <c r="F12">
-        <v>1.024822124234009</v>
-      </c>
       <c r="G12">
-        <v>1.00045725893741</v>
+        <v>1.008513345175049</v>
       </c>
       <c r="H12">
         <v>0.9832654825769027</v>
       </c>
       <c r="I12">
-        <v>1.008513345175049</v>
+        <v>1.00045725893741</v>
       </c>
       <c r="J12">
-        <v>0.9599247910191417</v>
+        <v>1.024822124234009</v>
       </c>
       <c r="K12">
         <v>1.024822124234009</v>
@@ -1286,7 +1238,7 @@
         <v>0.9964641546014912</v>
       </c>
     </row>
-    <row r="13" spans="1:30">
+    <row r="13" spans="1:20">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1294,28 +1246,28 @@
         <v>11</v>
       </c>
       <c r="C13">
+        <v>0.9970022412372574</v>
+      </c>
+      <c r="D13">
         <v>0.9945144354984666</v>
       </c>
-      <c r="D13">
+      <c r="E13">
         <v>0.9970022412372574</v>
       </c>
-      <c r="E13">
+      <c r="F13">
         <v>1.00420463466407</v>
       </c>
-      <c r="F13">
-        <v>0.9945144354984666</v>
-      </c>
       <c r="G13">
-        <v>1.013013387683863</v>
+        <v>1.001379500856453</v>
       </c>
       <c r="H13">
         <v>0.9961336832803341</v>
       </c>
       <c r="I13">
-        <v>1.001379500856453</v>
+        <v>1.013013387683863</v>
       </c>
       <c r="J13">
-        <v>0.9970022412372574</v>
+        <v>0.9945144354984666</v>
       </c>
       <c r="K13">
         <v>0.9945144354984666</v>
@@ -1348,7 +1300,7 @@
         <v>1.001041313870074</v>
       </c>
     </row>
-    <row r="14" spans="1:30">
+    <row r="14" spans="1:20">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1356,61 +1308,61 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <v>0.9864277544158572</v>
+        <v>0.9700302987427654</v>
       </c>
       <c r="D14">
+        <v>0.9864277544158573</v>
+      </c>
+      <c r="E14">
         <v>0.9700302987427654</v>
       </c>
-      <c r="E14">
+      <c r="F14">
         <v>1.019192854047593</v>
       </c>
-      <c r="F14">
-        <v>0.9864277544158572</v>
-      </c>
       <c r="G14">
-        <v>1.057410745746827</v>
+        <v>1.009640330591291</v>
       </c>
       <c r="H14">
         <v>0.9759401366091729</v>
       </c>
       <c r="I14">
-        <v>1.009640330591291</v>
+        <v>1.057410745746827</v>
       </c>
       <c r="J14">
-        <v>0.9700302987427654</v>
+        <v>0.9864277544158573</v>
       </c>
       <c r="K14">
-        <v>0.9864277544158572</v>
+        <v>0.9864277544158573</v>
       </c>
       <c r="L14">
         <v>1.019192854047593</v>
       </c>
       <c r="M14">
-        <v>0.9946115763951791</v>
+        <v>0.9946115763951792</v>
       </c>
       <c r="N14">
-        <v>0.9946115763951791</v>
+        <v>0.9946115763951792</v>
       </c>
       <c r="O14">
-        <v>0.988387763133177</v>
+        <v>0.9883877631331771</v>
       </c>
       <c r="P14">
-        <v>0.9918836357354052</v>
+        <v>0.9918836357354053</v>
       </c>
       <c r="Q14">
-        <v>0.9918836357354049</v>
+        <v>0.9918836357354053</v>
       </c>
       <c r="R14">
-        <v>0.9905196654055181</v>
+        <v>0.9905196654055183</v>
       </c>
       <c r="S14">
-        <v>0.9905196654055181</v>
+        <v>0.9905196654055183</v>
       </c>
       <c r="T14">
         <v>1.003107020025584</v>
       </c>
     </row>
-    <row r="15" spans="1:30">
+    <row r="15" spans="1:20">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1418,28 +1370,28 @@
         <v>13</v>
       </c>
       <c r="C15">
+        <v>0.9825145013590952</v>
+      </c>
+      <c r="D15">
         <v>1.013054072656479</v>
       </c>
-      <c r="D15">
+      <c r="E15">
         <v>0.9825145013590952</v>
       </c>
-      <c r="E15">
+      <c r="F15">
         <v>0.9995533493921123</v>
       </c>
-      <c r="F15">
-        <v>1.013054072656479</v>
-      </c>
       <c r="G15">
-        <v>0.9962665858300779</v>
+        <v>1.003489414092796</v>
       </c>
       <c r="H15">
         <v>0.993491053930485</v>
       </c>
       <c r="I15">
-        <v>1.003489414092796</v>
+        <v>0.9962665858300779</v>
       </c>
       <c r="J15">
-        <v>0.9825145013590952</v>
+        <v>1.013054072656479</v>
       </c>
       <c r="K15">
         <v>1.013054072656479</v>
@@ -1472,7 +1424,7 @@
         <v>0.9980614962101741</v>
       </c>
     </row>
-    <row r="16" spans="1:30">
+    <row r="16" spans="1:20">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1480,58 +1432,58 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>0.9999277268812724</v>
+        <v>1.163906667096092</v>
       </c>
       <c r="D16">
-        <v>1.000074598703861</v>
+        <v>0.9623013669341572</v>
       </c>
       <c r="E16">
-        <v>1.000011217276898</v>
+        <v>1.163906667096092</v>
       </c>
       <c r="F16">
-        <v>0.9999277268812724</v>
+        <v>0.9571997664758103</v>
       </c>
       <c r="G16">
-        <v>1.000046181721953</v>
+        <v>0.9586871057155558</v>
       </c>
       <c r="H16">
-        <v>1.000021497045691</v>
+        <v>1.091336347839424</v>
       </c>
       <c r="I16">
-        <v>0.9999868730001432</v>
+        <v>0.884881752292531</v>
       </c>
       <c r="J16">
-        <v>1.000074598703861</v>
+        <v>0.9623013669341572</v>
       </c>
       <c r="K16">
-        <v>0.9999277268812724</v>
+        <v>0.9623013669341572</v>
       </c>
       <c r="L16">
-        <v>1.000011217276898</v>
+        <v>0.9571997664758103</v>
       </c>
       <c r="M16">
-        <v>1.000042907990379</v>
+        <v>1.060553216785951</v>
       </c>
       <c r="N16">
-        <v>1.000042907990379</v>
+        <v>1.060553216785951</v>
       </c>
       <c r="O16">
-        <v>1.000035771008817</v>
+        <v>1.070814260470442</v>
       </c>
       <c r="P16">
-        <v>1.000004514287344</v>
+        <v>1.027802600168686</v>
       </c>
       <c r="Q16">
-        <v>1.000004514287344</v>
+        <v>1.027802600168686</v>
       </c>
       <c r="R16">
-        <v>0.999985317435826</v>
+        <v>1.011427291860054</v>
       </c>
       <c r="S16">
-        <v>0.999985317435826</v>
+        <v>1.011427291860054</v>
       </c>
       <c r="T16">
-        <v>1.00001134910497</v>
+        <v>1.003052167725595</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1542,58 +1494,58 @@
         <v>15</v>
       </c>
       <c r="C17">
-        <v>0.999874194202896</v>
+        <v>1.134726191715441</v>
       </c>
       <c r="D17">
-        <v>1.000707993193457</v>
+        <v>0.9680095964733069</v>
       </c>
       <c r="E17">
-        <v>0.9997944562122064</v>
+        <v>1.134726191715441</v>
       </c>
       <c r="F17">
-        <v>0.999874194202896</v>
+        <v>0.9653772888127421</v>
       </c>
       <c r="G17">
-        <v>0.999436128231462</v>
+        <v>0.9661447193488729</v>
       </c>
       <c r="H17">
-        <v>1.00040816290219</v>
+        <v>1.074713323034426</v>
       </c>
       <c r="I17">
-        <v>0.9998177005128078</v>
+        <v>0.9071629270153455</v>
       </c>
       <c r="J17">
-        <v>1.000707993193457</v>
+        <v>0.9680095964733069</v>
       </c>
       <c r="K17">
-        <v>0.999874194202896</v>
+        <v>0.9680095964733069</v>
       </c>
       <c r="L17">
-        <v>0.9997944562122064</v>
+        <v>0.9653772888127421</v>
       </c>
       <c r="M17">
-        <v>1.000251224702832</v>
+        <v>1.050051740264091</v>
       </c>
       <c r="N17">
-        <v>1.000251224702832</v>
+        <v>1.050051740264091</v>
       </c>
       <c r="O17">
-        <v>1.000303537435951</v>
+        <v>1.058272267854203</v>
       </c>
       <c r="P17">
-        <v>1.00012554786952</v>
+        <v>1.022704359000497</v>
       </c>
       <c r="Q17">
-        <v>1.00012554786952</v>
+        <v>1.022704359000497</v>
       </c>
       <c r="R17">
-        <v>1.000062709452864</v>
+        <v>1.009030668368699</v>
       </c>
       <c r="S17">
-        <v>1.000062709452864</v>
+        <v>1.009030668368699</v>
       </c>
       <c r="T17">
-        <v>1.00000643920917</v>
+        <v>1.002689007733356</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1604,58 +1556,58 @@
         <v>16</v>
       </c>
       <c r="C18">
-        <v>0.999261564253627</v>
+        <v>1.075763389221832</v>
       </c>
       <c r="D18">
-        <v>1.0026769688307</v>
+        <v>0.9796437027798641</v>
       </c>
       <c r="E18">
-        <v>0.9993693730325173</v>
+        <v>1.075763389221832</v>
       </c>
       <c r="F18">
-        <v>0.999261564253627</v>
+        <v>0.9818459942321943</v>
       </c>
       <c r="G18">
-        <v>0.998339752940678</v>
+        <v>0.981203922654095</v>
       </c>
       <c r="H18">
-        <v>1.00144688204732</v>
+        <v>1.041158816304402</v>
       </c>
       <c r="I18">
-        <v>0.9993379413566184</v>
+        <v>0.952011254942784</v>
       </c>
       <c r="J18">
-        <v>1.0026769688307</v>
+        <v>0.9796437027798641</v>
       </c>
       <c r="K18">
-        <v>0.999261564253627</v>
+        <v>0.9796437027798641</v>
       </c>
       <c r="L18">
-        <v>0.9993693730325173</v>
+        <v>0.9818459942321943</v>
       </c>
       <c r="M18">
-        <v>1.001023170931608</v>
+        <v>1.028804691727013</v>
       </c>
       <c r="N18">
-        <v>1.001023170931608</v>
+        <v>1.028804691727013</v>
       </c>
       <c r="O18">
-        <v>1.001164407970179</v>
+        <v>1.032922733252809</v>
       </c>
       <c r="P18">
-        <v>1.000435968705615</v>
+        <v>1.012417695411297</v>
       </c>
       <c r="Q18">
-        <v>1.000435968705615</v>
+        <v>1.012417695411297</v>
       </c>
       <c r="R18">
-        <v>1.000142367592618</v>
+        <v>1.004224197253439</v>
       </c>
       <c r="S18">
-        <v>1.000142367592618</v>
+        <v>1.004224197253439</v>
       </c>
       <c r="T18">
-        <v>1.000072080410243</v>
+        <v>1.001937846689195</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1666,57 +1618,305 @@
         <v>17</v>
       </c>
       <c r="C19">
+        <v>1.082856629240261</v>
+      </c>
+      <c r="D19">
+        <v>0.977005714038612</v>
+      </c>
+      <c r="E19">
+        <v>1.082856629240261</v>
+      </c>
+      <c r="F19">
+        <v>0.9805514571121436</v>
+      </c>
+      <c r="G19">
+        <v>0.9795177100363391</v>
+      </c>
+      <c r="H19">
+        <v>1.044753812218916</v>
+      </c>
+      <c r="I19">
+        <v>0.9488067811618497</v>
+      </c>
+      <c r="J19">
+        <v>0.977005714038612</v>
+      </c>
+      <c r="K19">
+        <v>0.977005714038612</v>
+      </c>
+      <c r="L19">
+        <v>0.9805514571121436</v>
+      </c>
+      <c r="M19">
+        <v>1.031704043176202</v>
+      </c>
+      <c r="N19">
+        <v>1.031704043176202</v>
+      </c>
+      <c r="O19">
+        <v>1.03605396619044</v>
+      </c>
+      <c r="P19">
+        <v>1.013471266797006</v>
+      </c>
+      <c r="Q19">
+        <v>1.013471266797006</v>
+      </c>
+      <c r="R19">
+        <v>1.004354878607407</v>
+      </c>
+      <c r="S19">
+        <v>1.004354878607407</v>
+      </c>
+      <c r="T19">
+        <v>1.00224868396802</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
+        <v>18</v>
+      </c>
+      <c r="C20">
+        <v>1.000074598703861</v>
+      </c>
+      <c r="D20">
+        <v>0.9999277268812724</v>
+      </c>
+      <c r="E20">
+        <v>1.000074598703861</v>
+      </c>
+      <c r="F20">
+        <v>1.000011217276898</v>
+      </c>
+      <c r="G20">
+        <v>0.9999868730001429</v>
+      </c>
+      <c r="H20">
+        <v>1.000021497045691</v>
+      </c>
+      <c r="I20">
+        <v>1.000046181721953</v>
+      </c>
+      <c r="J20">
+        <v>0.9999277268812724</v>
+      </c>
+      <c r="K20">
+        <v>0.9999277268812724</v>
+      </c>
+      <c r="L20">
+        <v>1.000011217276898</v>
+      </c>
+      <c r="M20">
+        <v>1.00004290799038</v>
+      </c>
+      <c r="N20">
+        <v>1.00004290799038</v>
+      </c>
+      <c r="O20">
+        <v>1.000035771008817</v>
+      </c>
+      <c r="P20">
+        <v>1.000004514287344</v>
+      </c>
+      <c r="Q20">
+        <v>1.000004514287344</v>
+      </c>
+      <c r="R20">
+        <v>0.9999853174358261</v>
+      </c>
+      <c r="S20">
+        <v>0.9999853174358261</v>
+      </c>
+      <c r="T20">
+        <v>1.00001134910497</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
+        <v>19</v>
+      </c>
+      <c r="C21">
+        <v>1.000707993193457</v>
+      </c>
+      <c r="D21">
+        <v>0.999874194202896</v>
+      </c>
+      <c r="E21">
+        <v>1.000707993193457</v>
+      </c>
+      <c r="F21">
+        <v>0.9997944562122064</v>
+      </c>
+      <c r="G21">
+        <v>0.9998177005128078</v>
+      </c>
+      <c r="H21">
+        <v>1.00040816290219</v>
+      </c>
+      <c r="I21">
+        <v>0.9994361282314621</v>
+      </c>
+      <c r="J21">
+        <v>0.999874194202896</v>
+      </c>
+      <c r="K21">
+        <v>0.999874194202896</v>
+      </c>
+      <c r="L21">
+        <v>0.9997944562122064</v>
+      </c>
+      <c r="M21">
+        <v>1.000251224702832</v>
+      </c>
+      <c r="N21">
+        <v>1.000251224702832</v>
+      </c>
+      <c r="O21">
+        <v>1.000303537435951</v>
+      </c>
+      <c r="P21">
+        <v>1.00012554786952</v>
+      </c>
+      <c r="Q21">
+        <v>1.00012554786952</v>
+      </c>
+      <c r="R21">
+        <v>1.000062709452864</v>
+      </c>
+      <c r="S21">
+        <v>1.000062709452864</v>
+      </c>
+      <c r="T21">
+        <v>1.00000643920917</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" s="1">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
+        <v>20</v>
+      </c>
+      <c r="C22">
+        <v>1.0026769688307</v>
+      </c>
+      <c r="D22">
+        <v>0.999261564253627</v>
+      </c>
+      <c r="E22">
+        <v>1.0026769688307</v>
+      </c>
+      <c r="F22">
+        <v>0.999369373032517</v>
+      </c>
+      <c r="G22">
+        <v>0.9993379413566182</v>
+      </c>
+      <c r="H22">
+        <v>1.00144688204732</v>
+      </c>
+      <c r="I22">
+        <v>0.998339752940678</v>
+      </c>
+      <c r="J22">
+        <v>0.999261564253627</v>
+      </c>
+      <c r="K22">
+        <v>0.999261564253627</v>
+      </c>
+      <c r="L22">
+        <v>0.999369373032517</v>
+      </c>
+      <c r="M22">
+        <v>1.001023170931608</v>
+      </c>
+      <c r="N22">
+        <v>1.001023170931608</v>
+      </c>
+      <c r="O22">
+        <v>1.001164407970179</v>
+      </c>
+      <c r="P22">
+        <v>1.000435968705615</v>
+      </c>
+      <c r="Q22">
+        <v>1.000435968705615</v>
+      </c>
+      <c r="R22">
+        <v>1.000142367592618</v>
+      </c>
+      <c r="S22">
+        <v>1.000142367592618</v>
+      </c>
+      <c r="T22">
+        <v>1.000072080410243</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" s="1">
+        <v>21</v>
+      </c>
+      <c r="B23" t="s">
+        <v>21</v>
+      </c>
+      <c r="C23">
+        <v>1.006364294873917</v>
+      </c>
+      <c r="D23">
         <v>0.9981220168318269</v>
       </c>
-      <c r="D19">
+      <c r="E23">
         <v>1.006364294873917</v>
       </c>
-      <c r="E19">
+      <c r="F23">
         <v>0.9985691457185338</v>
       </c>
-      <c r="F19">
+      <c r="G23">
+        <v>0.9984387823900861</v>
+      </c>
+      <c r="H23">
+        <v>1.003394524773729</v>
+      </c>
+      <c r="I23">
+        <v>0.9962737519097526</v>
+      </c>
+      <c r="J23">
         <v>0.9981220168318269</v>
       </c>
-      <c r="G19">
-        <v>0.9962737519097526</v>
-      </c>
-      <c r="H19">
-        <v>1.003394524773729</v>
-      </c>
-      <c r="I19">
-        <v>0.9984387823900861</v>
-      </c>
-      <c r="J19">
-        <v>1.006364294873917</v>
-      </c>
-      <c r="K19">
+      <c r="K23">
         <v>0.9981220168318269</v>
       </c>
-      <c r="L19">
+      <c r="L23">
         <v>0.9985691457185338</v>
       </c>
-      <c r="M19">
+      <c r="M23">
         <v>1.002466720296225</v>
       </c>
-      <c r="N19">
+      <c r="N23">
         <v>1.002466720296225</v>
       </c>
-      <c r="O19">
+      <c r="O23">
         <v>1.002775988455393</v>
       </c>
-      <c r="P19">
+      <c r="P23">
         <v>1.001018485808092</v>
       </c>
-      <c r="Q19">
+      <c r="Q23">
         <v>1.001018485808092</v>
       </c>
-      <c r="R19">
+      <c r="R23">
         <v>1.000294368564026</v>
       </c>
-      <c r="S19">
+      <c r="S23">
         <v>1.000294368564026</v>
       </c>
-      <c r="T19">
+      <c r="T23">
         <v>1.000193752749641</v>
       </c>
     </row>

--- a/JupyterNotebooks/AvgHW/Alpha1F-HW30.xlsx
+++ b/JupyterNotebooks/AvgHW/Alpha1F-HW30.xlsx
@@ -14,11 +14,47 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="59">
   <si>
     <t>HKL</t>
   </si>
   <si>
+    <t>EA_5</t>
+  </si>
+  <si>
+    <t>EA_2.5</t>
+  </si>
+  <si>
+    <t>EA_10</t>
+  </si>
+  <si>
+    <t>EA_15</t>
+  </si>
+  <si>
+    <t>RizzieSpiral_2.5</t>
+  </si>
+  <si>
+    <t>RizzieSpiral_5</t>
+  </si>
+  <si>
+    <t>RizzieSpiral_10</t>
+  </si>
+  <si>
+    <t>RizzieSpiral_15</t>
+  </si>
+  <si>
+    <t>CLR_5</t>
+  </si>
+  <si>
+    <t>CLR_2.5</t>
+  </si>
+  <si>
+    <t>CLR_10</t>
+  </si>
+  <si>
+    <t>CLR_15</t>
+  </si>
+  <si>
     <t>BT8Hex_2.5</t>
   </si>
   <si>
@@ -70,6 +106,18 @@
     <t>Holden15</t>
   </si>
   <si>
+    <t>Ring Perpendicular to ND</t>
+  </si>
+  <si>
+    <t>Ring Perpendicular to RD</t>
+  </si>
+  <si>
+    <t>Ring Perpendicular to TD</t>
+  </si>
+  <si>
+    <t>Rotation-90detTilt</t>
+  </si>
+  <si>
     <t>HexGrid-90degTilt2.5degRes</t>
   </si>
   <si>
@@ -80,6 +128,15 @@
   </si>
   <si>
     <t>HexGrid-90degTilt15degRes</t>
+  </si>
+  <si>
+    <t>RotRing Axis-Y Res-5.0 Theta-2.84623415 OmegaMax-90</t>
+  </si>
+  <si>
+    <t>RotRing Axis-Y Res-5.0 Theta-2.84623415 OmegaMax-60 Weighted</t>
+  </si>
+  <si>
+    <t>RotRing Axis-Y Res-5.0 Theta-2.84623415 OmegaMax-30</t>
   </si>
   <si>
     <t>[2, 0, 0]</t>
@@ -491,7 +548,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T23"/>
+  <dimension ref="A1:T42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -564,58 +621,58 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>41</v>
       </c>
       <c r="D2" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
       <c r="E2" t="s">
-        <v>24</v>
+        <v>43</v>
       </c>
       <c r="F2" t="s">
-        <v>25</v>
+        <v>44</v>
       </c>
       <c r="G2" t="s">
-        <v>26</v>
+        <v>45</v>
       </c>
       <c r="H2" t="s">
-        <v>27</v>
+        <v>46</v>
       </c>
       <c r="I2" t="s">
-        <v>28</v>
+        <v>47</v>
       </c>
       <c r="J2" t="s">
-        <v>29</v>
+        <v>48</v>
       </c>
       <c r="K2" t="s">
-        <v>30</v>
+        <v>49</v>
       </c>
       <c r="L2" t="s">
-        <v>31</v>
+        <v>50</v>
       </c>
       <c r="M2" t="s">
-        <v>32</v>
+        <v>51</v>
       </c>
       <c r="N2" t="s">
-        <v>33</v>
+        <v>52</v>
       </c>
       <c r="O2" t="s">
-        <v>34</v>
+        <v>53</v>
       </c>
       <c r="P2" t="s">
-        <v>35</v>
+        <v>54</v>
       </c>
       <c r="Q2" t="s">
-        <v>36</v>
+        <v>55</v>
       </c>
       <c r="R2" t="s">
-        <v>37</v>
+        <v>56</v>
       </c>
       <c r="S2" t="s">
-        <v>38</v>
+        <v>57</v>
       </c>
       <c r="T2" t="s">
-        <v>39</v>
+        <v>58</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -626,58 +683,58 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>1.008386975987148</v>
+        <v>1.087753613270896</v>
       </c>
       <c r="D3">
-        <v>0.9980962656429758</v>
+        <v>0.9763467314193082</v>
       </c>
       <c r="E3">
-        <v>1.008386975987148</v>
+        <v>1.087753613270896</v>
       </c>
       <c r="F3">
-        <v>0.997795887522625</v>
+        <v>0.9790150322046075</v>
       </c>
       <c r="G3">
-        <v>0.9978834580553518</v>
+        <v>0.9782370990994205</v>
       </c>
       <c r="H3">
-        <v>1.004682768220944</v>
+        <v>1.047644866880408</v>
       </c>
       <c r="I3">
-        <v>0.9940644007378312</v>
+        <v>0.9445520795172929</v>
       </c>
       <c r="J3">
-        <v>0.9980962656429758</v>
+        <v>0.9763467314193082</v>
       </c>
       <c r="K3">
-        <v>0.9980962656429758</v>
+        <v>0.9763467314193082</v>
       </c>
       <c r="L3">
-        <v>0.997795887522625</v>
+        <v>0.9790150322046075</v>
       </c>
       <c r="M3">
-        <v>1.003091431754886</v>
+        <v>1.033384322737751</v>
       </c>
       <c r="N3">
-        <v>1.003091431754886</v>
+        <v>1.033384322737751</v>
       </c>
       <c r="O3">
-        <v>1.003621877243572</v>
+        <v>1.038137837451971</v>
       </c>
       <c r="P3">
-        <v>1.00142637638425</v>
+        <v>1.01437179229827</v>
       </c>
       <c r="Q3">
-        <v>1.00142637638425</v>
+        <v>1.01437179229827</v>
       </c>
       <c r="R3">
-        <v>1.000593848698931</v>
+        <v>1.00486552707853</v>
       </c>
       <c r="S3">
-        <v>1.000593848698931</v>
+        <v>1.00486552707853</v>
       </c>
       <c r="T3">
-        <v>1.000151626027813</v>
+        <v>1.002258237065322</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -688,58 +745,58 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <v>1.016187275119469</v>
+        <v>1.081457626298908</v>
       </c>
       <c r="D4">
-        <v>0.9963308609201554</v>
+        <v>0.978009661535593</v>
       </c>
       <c r="E4">
-        <v>1.016187275119469</v>
+        <v>1.081457626298908</v>
       </c>
       <c r="F4">
-        <v>0.9957430860309134</v>
+        <v>0.9805387841334319</v>
       </c>
       <c r="G4">
-        <v>0.9959144436439981</v>
+        <v>0.9798014278689848</v>
       </c>
       <c r="H4">
-        <v>1.009039825702461</v>
+        <v>1.044216694144611</v>
       </c>
       <c r="I4">
-        <v>0.9885348394887286</v>
+        <v>0.9485846013837123</v>
       </c>
       <c r="J4">
-        <v>0.9963308609201554</v>
+        <v>0.978009661535593</v>
       </c>
       <c r="K4">
-        <v>0.9963308609201554</v>
+        <v>0.978009661535593</v>
       </c>
       <c r="L4">
-        <v>0.9957430860309134</v>
+        <v>0.9805387841334319</v>
       </c>
       <c r="M4">
-        <v>1.005965180575191</v>
+        <v>1.03099820521617</v>
       </c>
       <c r="N4">
-        <v>1.005965180575191</v>
+        <v>1.03099820521617</v>
       </c>
       <c r="O4">
-        <v>1.006990062284281</v>
+        <v>1.035404368192317</v>
       </c>
       <c r="P4">
-        <v>1.002753740690179</v>
+        <v>1.013335357322644</v>
       </c>
       <c r="Q4">
-        <v>1.002753740690179</v>
+        <v>1.013335357322644</v>
       </c>
       <c r="R4">
-        <v>1.001148020747673</v>
+        <v>1.004503933375881</v>
       </c>
       <c r="S4">
-        <v>1.001148020747673</v>
+        <v>1.004503933375881</v>
       </c>
       <c r="T4">
-        <v>1.000291721817621</v>
+        <v>1.002101465894207</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -750,58 +807,58 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>1.031054576361758</v>
+        <v>1.09964887</v>
       </c>
       <c r="D5">
-        <v>0.9929137770560438</v>
+        <v>0.9732241899730447</v>
       </c>
       <c r="E5">
-        <v>1.031054576361758</v>
+        <v>1.09964887</v>
       </c>
       <c r="F5">
-        <v>0.9918594754970862</v>
+        <v>0.9761257859029644</v>
       </c>
       <c r="G5">
-        <v>0.9921668459349107</v>
+        <v>0.9752798340161726</v>
       </c>
       <c r="H5">
-        <v>1.017325570051867</v>
+        <v>1.054127682533692</v>
       </c>
       <c r="I5">
-        <v>0.9780883203980437</v>
+        <v>0.9369018409703489</v>
       </c>
       <c r="J5">
-        <v>0.9929137770560438</v>
+        <v>0.9732241899730447</v>
       </c>
       <c r="K5">
-        <v>0.9929137770560438</v>
+        <v>0.9732241899730447</v>
       </c>
       <c r="L5">
-        <v>0.9918594754970862</v>
+        <v>0.9761257859029644</v>
       </c>
       <c r="M5">
-        <v>1.011457025929422</v>
+        <v>1.037887327951482</v>
       </c>
       <c r="N5">
-        <v>1.011457025929422</v>
+        <v>1.037887327951482</v>
       </c>
       <c r="O5">
-        <v>1.01341320730357</v>
+        <v>1.043300779478885</v>
       </c>
       <c r="P5">
-        <v>1.005275942971629</v>
+        <v>1.016332948625336</v>
       </c>
       <c r="Q5">
-        <v>1.005275942971629</v>
+        <v>1.016332948625336</v>
       </c>
       <c r="R5">
-        <v>1.002185401492733</v>
+        <v>1.005555758962263</v>
       </c>
       <c r="S5">
-        <v>1.002185401492733</v>
+        <v>1.005555758962263</v>
       </c>
       <c r="T5">
-        <v>1.000568094216618</v>
+        <v>1.002551367232704</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -812,58 +869,58 @@
         <v>4</v>
       </c>
       <c r="C6">
-        <v>1.045563393992905</v>
+        <v>1.1106822825</v>
       </c>
       <c r="D6">
-        <v>0.9895805418991376</v>
+        <v>0.9703509485227272</v>
       </c>
       <c r="E6">
-        <v>1.045563393992905</v>
+        <v>1.1106822825</v>
       </c>
       <c r="F6">
-        <v>0.98806871800281</v>
+        <v>0.9734334894318183</v>
       </c>
       <c r="G6">
-        <v>0.9885094763022511</v>
+        <v>0.9725347825568178</v>
       </c>
       <c r="H6">
-        <v>1.025411974737376</v>
+        <v>1.060147770170454</v>
       </c>
       <c r="I6">
-        <v>0.9678913014885043</v>
+        <v>0.9297683037499999</v>
       </c>
       <c r="J6">
-        <v>0.9895805418991376</v>
+        <v>0.9703509485227272</v>
       </c>
       <c r="K6">
-        <v>0.9895805418991376</v>
+        <v>0.9703509485227272</v>
       </c>
       <c r="L6">
-        <v>0.98806871800281</v>
+        <v>0.9734334894318183</v>
       </c>
       <c r="M6">
-        <v>1.016816055997858</v>
+        <v>1.042057885965909</v>
       </c>
       <c r="N6">
-        <v>1.016816055997858</v>
+        <v>1.042057885965909</v>
       </c>
       <c r="O6">
-        <v>1.019681362244364</v>
+        <v>1.048087847367424</v>
       </c>
       <c r="P6">
-        <v>1.007737551298284</v>
+        <v>1.018155573484848</v>
       </c>
       <c r="Q6">
-        <v>1.007737551298284</v>
+        <v>1.018155573484848</v>
       </c>
       <c r="R6">
-        <v>1.003198298948498</v>
+        <v>1.006204417244318</v>
       </c>
       <c r="S6">
-        <v>1.003198298948498</v>
+        <v>1.006204417244318</v>
       </c>
       <c r="T6">
-        <v>1.000837567737164</v>
+        <v>1.002819596155303</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -874,58 +931,58 @@
         <v>5</v>
       </c>
       <c r="C7">
-        <v>1.000554700923606</v>
+        <v>0.8397732890221469</v>
       </c>
       <c r="D7">
-        <v>0.9998542399287877</v>
+        <v>1.039619490499142</v>
       </c>
       <c r="E7">
-        <v>1.000554700923606</v>
+        <v>0.8397732890221469</v>
       </c>
       <c r="F7">
-        <v>0.9998653830055104</v>
+        <v>1.040432583714601</v>
       </c>
       <c r="G7">
-        <v>0.9998621313846108</v>
+        <v>1.04019552248257</v>
       </c>
       <c r="H7">
-        <v>1.000302163463341</v>
+        <v>0.9113041526605291</v>
       </c>
       <c r="I7">
-        <v>0.9996437475702956</v>
+        <v>1.108659239378528</v>
       </c>
       <c r="J7">
-        <v>0.9998542399287877</v>
+        <v>1.039619490499142</v>
       </c>
       <c r="K7">
-        <v>0.9998542399287877</v>
+        <v>1.039619490499142</v>
       </c>
       <c r="L7">
-        <v>0.9998653830055104</v>
+        <v>1.040432583714601</v>
       </c>
       <c r="M7">
-        <v>1.000210041964558</v>
+        <v>0.9401029363683742</v>
       </c>
       <c r="N7">
-        <v>1.000210041964558</v>
+        <v>0.9401029363683742</v>
       </c>
       <c r="O7">
-        <v>1.000240749130819</v>
+        <v>0.9305033417990924</v>
       </c>
       <c r="P7">
-        <v>1.000091441285968</v>
+        <v>0.9732751210786302</v>
       </c>
       <c r="Q7">
-        <v>1.000091441285968</v>
+        <v>0.9732751210786302</v>
       </c>
       <c r="R7">
-        <v>1.000032140946673</v>
+        <v>0.9898612134337583</v>
       </c>
       <c r="S7">
-        <v>1.000032140946673</v>
+        <v>0.9898612134337583</v>
       </c>
       <c r="T7">
-        <v>1.000013727712692</v>
+        <v>0.9966640462929196</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -936,58 +993,58 @@
         <v>6</v>
       </c>
       <c r="C8">
-        <v>1.001236316788594</v>
+        <v>0.842042086585212</v>
       </c>
       <c r="D8">
-        <v>0.9996909552194725</v>
+        <v>1.039110085013585</v>
       </c>
       <c r="E8">
-        <v>1.001236316788594</v>
+        <v>0.842042086585212</v>
       </c>
       <c r="F8">
-        <v>0.9996914949849508</v>
+        <v>1.039834356056666</v>
       </c>
       <c r="G8">
-        <v>0.9996913346253671</v>
+        <v>1.039623190562565</v>
       </c>
       <c r="H8">
-        <v>1.000678150066386</v>
+        <v>0.9125694395614324</v>
       </c>
       <c r="I8">
-        <v>0.999180449020113</v>
+        <v>1.107052598873971</v>
       </c>
       <c r="J8">
-        <v>0.9996909552194725</v>
+        <v>1.039110085013585</v>
       </c>
       <c r="K8">
-        <v>0.9996909552194725</v>
+        <v>1.039110085013585</v>
       </c>
       <c r="L8">
-        <v>0.9996914949849508</v>
+        <v>1.039834356056666</v>
       </c>
       <c r="M8">
-        <v>1.000463905886772</v>
+        <v>0.9409382213209392</v>
       </c>
       <c r="N8">
-        <v>1.000463905886772</v>
+        <v>0.9409382213209392</v>
       </c>
       <c r="O8">
-        <v>1.00053532061331</v>
+        <v>0.931481960734437</v>
       </c>
       <c r="P8">
-        <v>1.000206255664339</v>
+        <v>0.9736621758851544</v>
       </c>
       <c r="Q8">
-        <v>1.000206255664339</v>
+        <v>0.9736621758851544</v>
       </c>
       <c r="R8">
-        <v>1.000077430553122</v>
+        <v>0.9900241531672619</v>
       </c>
       <c r="S8">
-        <v>1.000077430553122</v>
+        <v>0.9900241531672619</v>
       </c>
       <c r="T8">
-        <v>1.000028116784147</v>
+        <v>0.9967052927755718</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -998,58 +1055,58 @@
         <v>7</v>
       </c>
       <c r="C9">
-        <v>1.001616917591653</v>
+        <v>0.8442806839324131</v>
       </c>
       <c r="D9">
-        <v>0.9996329280209784</v>
+        <v>1.038488638894258</v>
       </c>
       <c r="E9">
-        <v>1.001616917591653</v>
+        <v>0.8442806839324131</v>
       </c>
       <c r="F9">
-        <v>0.9995762086825183</v>
+        <v>1.039309411875897</v>
       </c>
       <c r="G9">
-        <v>0.9995927419575047</v>
+        <v>1.0390701117374</v>
       </c>
       <c r="H9">
-        <v>1.000899327548291</v>
+        <v>0.913777259379387</v>
       </c>
       <c r="I9">
-        <v>0.9988646209624356</v>
+        <v>1.105673050388129</v>
       </c>
       <c r="J9">
-        <v>0.9996329280209784</v>
+        <v>1.038488638894258</v>
       </c>
       <c r="K9">
-        <v>0.9996329280209784</v>
+        <v>1.038488638894258</v>
       </c>
       <c r="L9">
-        <v>0.9995762086825183</v>
+        <v>1.039309411875897</v>
       </c>
       <c r="M9">
-        <v>1.000596563137085</v>
+        <v>0.9417950479041549</v>
       </c>
       <c r="N9">
-        <v>1.000596563137085</v>
+        <v>0.9417950479041549</v>
       </c>
       <c r="O9">
-        <v>1.000697484607487</v>
+        <v>0.9324557850625657</v>
       </c>
       <c r="P9">
-        <v>1.000275351431716</v>
+        <v>0.974026244900856</v>
       </c>
       <c r="Q9">
-        <v>1.000275351431716</v>
+        <v>0.974026244900856</v>
       </c>
       <c r="R9">
-        <v>1.000114745579032</v>
+        <v>0.9901418433992066</v>
       </c>
       <c r="S9">
-        <v>1.000114745579032</v>
+        <v>0.9901418433992066</v>
       </c>
       <c r="T9">
-        <v>1.000030457460563</v>
+        <v>0.9967665260345807</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1060,58 +1117,58 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>1.003607632566301</v>
+        <v>0.8471274314155196</v>
       </c>
       <c r="D10">
-        <v>0.9991317512354265</v>
+        <v>1.038217706650692</v>
       </c>
       <c r="E10">
-        <v>1.003607632566301</v>
+        <v>0.8471274314155196</v>
       </c>
       <c r="F10">
-        <v>0.9990811746467734</v>
+        <v>1.038360354130601</v>
       </c>
       <c r="G10">
-        <v>0.999095918319166</v>
+        <v>1.038318758400951</v>
       </c>
       <c r="H10">
-        <v>1.001990773915516</v>
+        <v>0.9154783362598728</v>
       </c>
       <c r="I10">
-        <v>0.9975493227540195</v>
+        <v>1.103051598958964</v>
       </c>
       <c r="J10">
-        <v>0.9991317512354265</v>
+        <v>1.038217706650692</v>
       </c>
       <c r="K10">
-        <v>0.9991317512354265</v>
+        <v>1.038217706650692</v>
       </c>
       <c r="L10">
-        <v>0.9990811746467734</v>
+        <v>1.038360354130601</v>
       </c>
       <c r="M10">
-        <v>1.001344403606537</v>
+        <v>0.9427438927730603</v>
       </c>
       <c r="N10">
-        <v>1.001344403606537</v>
+        <v>0.9427438927730603</v>
       </c>
       <c r="O10">
-        <v>1.001559860376197</v>
+        <v>0.9336553739353312</v>
       </c>
       <c r="P10">
-        <v>1.000606852816167</v>
+        <v>0.9745684973989374</v>
       </c>
       <c r="Q10">
-        <v>1.000606852816167</v>
+        <v>0.9745684973989374</v>
       </c>
       <c r="R10">
-        <v>1.000238077420982</v>
+        <v>0.9904807997118761</v>
       </c>
       <c r="S10">
-        <v>1.000238077420982</v>
+        <v>0.9904807997118761</v>
       </c>
       <c r="T10">
-        <v>1.000076095572867</v>
+        <v>0.9967590309694333</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1122,58 +1179,58 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>1.00561799013218</v>
+        <v>1.008283847900709</v>
       </c>
       <c r="D11">
-        <v>0.9987736669553302</v>
+        <v>0.9982160093222855</v>
       </c>
       <c r="E11">
-        <v>1.00561799013218</v>
+        <v>1.008283847900709</v>
       </c>
       <c r="F11">
-        <v>0.9985009399727625</v>
+        <v>0.9977694851446021</v>
       </c>
       <c r="G11">
-        <v>0.9985804512571164</v>
+        <v>0.9978996639339872</v>
       </c>
       <c r="H11">
-        <v>1.003140303581234</v>
+        <v>1.004659821797435</v>
       </c>
       <c r="I11">
-        <v>0.9959732421331577</v>
+        <v>0.9939662440501307</v>
       </c>
       <c r="J11">
-        <v>0.9987736669553302</v>
+        <v>0.9982160093222855</v>
       </c>
       <c r="K11">
-        <v>0.9987736669553302</v>
+        <v>0.9982160093222855</v>
       </c>
       <c r="L11">
-        <v>0.9985009399727625</v>
+        <v>0.9977694851446021</v>
       </c>
       <c r="M11">
-        <v>1.002059465052471</v>
+        <v>1.003026666522655</v>
       </c>
       <c r="N11">
-        <v>1.002059465052471</v>
+        <v>1.003026666522655</v>
       </c>
       <c r="O11">
-        <v>1.002419744562059</v>
+        <v>1.003571051614249</v>
       </c>
       <c r="P11">
-        <v>1.000964199020091</v>
+        <v>1.001423114122532</v>
       </c>
       <c r="Q11">
-        <v>1.000964199020091</v>
+        <v>1.001423114122532</v>
       </c>
       <c r="R11">
-        <v>1.000416566003901</v>
+        <v>1.000621337922471</v>
       </c>
       <c r="S11">
-        <v>1.000416566003901</v>
+        <v>1.000621337922471</v>
       </c>
       <c r="T11">
-        <v>1.000097765671964</v>
+        <v>1.000132512024858</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1184,58 +1241,58 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>0.9599247910191417</v>
+        <v>1.003253634316145</v>
       </c>
       <c r="D12">
-        <v>1.024822124234009</v>
+        <v>0.9992644716059025</v>
       </c>
       <c r="E12">
-        <v>0.9599247910191417</v>
+        <v>1.003253634316145</v>
       </c>
       <c r="F12">
-        <v>1.001801925666435</v>
+        <v>0.9991443244351216</v>
       </c>
       <c r="G12">
-        <v>1.008513345175049</v>
+        <v>0.9991793497342563</v>
       </c>
       <c r="H12">
-        <v>0.9832654825769027</v>
+        <v>1.001814434712105</v>
       </c>
       <c r="I12">
-        <v>1.00045725893741</v>
+        <v>0.9977004306722366</v>
       </c>
       <c r="J12">
-        <v>1.024822124234009</v>
+        <v>0.9992644716059025</v>
       </c>
       <c r="K12">
-        <v>1.024822124234009</v>
+        <v>0.9992644716059025</v>
       </c>
       <c r="L12">
-        <v>1.001801925666435</v>
+        <v>0.9991443244351216</v>
       </c>
       <c r="M12">
-        <v>0.9808633583427885</v>
+        <v>1.001198979375633</v>
       </c>
       <c r="N12">
-        <v>0.9808633583427885</v>
+        <v>1.001198979375633</v>
       </c>
       <c r="O12">
-        <v>0.9816640664208265</v>
+        <v>1.001404131154457</v>
       </c>
       <c r="P12">
-        <v>0.9955162803065286</v>
+        <v>1.00055414345239</v>
       </c>
       <c r="Q12">
-        <v>0.9955162803065286</v>
+        <v>1.00055414345239</v>
       </c>
       <c r="R12">
-        <v>1.002842741288399</v>
+        <v>1.000231725490768</v>
       </c>
       <c r="S12">
-        <v>1.002842741288399</v>
+        <v>1.000231725490768</v>
       </c>
       <c r="T12">
-        <v>0.9964641546014912</v>
+        <v>1.000059440912628</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1246,58 +1303,58 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>0.9970022412372574</v>
+        <v>1.010266037449507</v>
       </c>
       <c r="D13">
-        <v>0.9945144354984666</v>
+        <v>0.9977206870334099</v>
       </c>
       <c r="E13">
-        <v>0.9970022412372574</v>
+        <v>1.010266037449507</v>
       </c>
       <c r="F13">
-        <v>1.00420463466407</v>
+        <v>0.9972790164932244</v>
       </c>
       <c r="G13">
-        <v>1.001379500856453</v>
+        <v>0.9974077797194072</v>
       </c>
       <c r="H13">
-        <v>0.9961336832803341</v>
+        <v>1.005733921714253</v>
       </c>
       <c r="I13">
-        <v>1.013013387683863</v>
+        <v>0.9926860124799316</v>
       </c>
       <c r="J13">
-        <v>0.9945144354984666</v>
+        <v>0.9977206870334099</v>
       </c>
       <c r="K13">
-        <v>0.9945144354984666</v>
+        <v>0.9977206870334099</v>
       </c>
       <c r="L13">
-        <v>1.00420463466407</v>
+        <v>0.9972790164932244</v>
       </c>
       <c r="M13">
-        <v>1.000603437950664</v>
+        <v>1.003772526971366</v>
       </c>
       <c r="N13">
-        <v>1.000603437950664</v>
+        <v>1.003772526971366</v>
       </c>
       <c r="O13">
-        <v>0.9991135197272206</v>
+        <v>1.004426325218995</v>
       </c>
       <c r="P13">
-        <v>0.9985737704665981</v>
+        <v>1.001755246992047</v>
       </c>
       <c r="Q13">
-        <v>0.9985737704665981</v>
+        <v>1.001755246992047</v>
       </c>
       <c r="R13">
-        <v>0.9975589367245653</v>
+        <v>1.000746607002388</v>
       </c>
       <c r="S13">
-        <v>0.9975589367245653</v>
+        <v>1.000746607002388</v>
       </c>
       <c r="T13">
-        <v>1.001041313870074</v>
+        <v>1.000182242481622</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1308,58 +1365,58 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <v>0.9700302987427654</v>
+        <v>1.023351553600517</v>
       </c>
       <c r="D14">
-        <v>0.9864277544158573</v>
+        <v>0.9946493455463581</v>
       </c>
       <c r="E14">
-        <v>0.9700302987427654</v>
+        <v>1.023351553600517</v>
       </c>
       <c r="F14">
-        <v>1.019192854047593</v>
+        <v>0.9938911241739979</v>
       </c>
       <c r="G14">
-        <v>1.009640330591291</v>
+        <v>0.9941121765805138</v>
       </c>
       <c r="H14">
-        <v>0.9759401366091729</v>
+        <v>1.013019717469506</v>
       </c>
       <c r="I14">
-        <v>1.057410745746827</v>
+        <v>0.9835636399841569</v>
       </c>
       <c r="J14">
-        <v>0.9864277544158573</v>
+        <v>0.9946493455463581</v>
       </c>
       <c r="K14">
-        <v>0.9864277544158573</v>
+        <v>0.9946493455463581</v>
       </c>
       <c r="L14">
-        <v>1.019192854047593</v>
+        <v>0.9938911241739979</v>
       </c>
       <c r="M14">
-        <v>0.9946115763951792</v>
+        <v>1.008621338887258</v>
       </c>
       <c r="N14">
-        <v>0.9946115763951792</v>
+        <v>1.008621338887258</v>
       </c>
       <c r="O14">
-        <v>0.9883877631331771</v>
+        <v>1.01008746508134</v>
       </c>
       <c r="P14">
-        <v>0.9918836357354053</v>
+        <v>1.003964007773624</v>
       </c>
       <c r="Q14">
-        <v>0.9918836357354053</v>
+        <v>1.003964007773624</v>
       </c>
       <c r="R14">
-        <v>0.9905196654055183</v>
+        <v>1.001635342216808</v>
       </c>
       <c r="S14">
-        <v>0.9905196654055183</v>
+        <v>1.001635342216808</v>
       </c>
       <c r="T14">
-        <v>1.003107020025584</v>
+        <v>1.000431259559175</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1370,58 +1427,58 @@
         <v>13</v>
       </c>
       <c r="C15">
-        <v>0.9825145013590952</v>
+        <v>1.008386975987148</v>
       </c>
       <c r="D15">
-        <v>1.013054072656479</v>
+        <v>0.9980962656429758</v>
       </c>
       <c r="E15">
-        <v>0.9825145013590952</v>
+        <v>1.008386975987148</v>
       </c>
       <c r="F15">
-        <v>0.9995533493921123</v>
+        <v>0.997795887522625</v>
       </c>
       <c r="G15">
-        <v>1.003489414092796</v>
+        <v>0.9978834580553518</v>
       </c>
       <c r="H15">
-        <v>0.993491053930485</v>
+        <v>1.004682768220944</v>
       </c>
       <c r="I15">
-        <v>0.9962665858300779</v>
+        <v>0.9940644007378312</v>
       </c>
       <c r="J15">
-        <v>1.013054072656479</v>
+        <v>0.9980962656429758</v>
       </c>
       <c r="K15">
-        <v>1.013054072656479</v>
+        <v>0.9980962656429758</v>
       </c>
       <c r="L15">
-        <v>0.9995533493921123</v>
+        <v>0.997795887522625</v>
       </c>
       <c r="M15">
-        <v>0.9910339253756038</v>
+        <v>1.003091431754886</v>
       </c>
       <c r="N15">
-        <v>0.9910339253756038</v>
+        <v>1.003091431754886</v>
       </c>
       <c r="O15">
-        <v>0.9918529682272309</v>
+        <v>1.003621877243572</v>
       </c>
       <c r="P15">
-        <v>0.9983739744692288</v>
+        <v>1.00142637638425</v>
       </c>
       <c r="Q15">
-        <v>0.9983739744692288</v>
+        <v>1.00142637638425</v>
       </c>
       <c r="R15">
-        <v>1.002043999016041</v>
+        <v>1.000593848698931</v>
       </c>
       <c r="S15">
-        <v>1.002043999016041</v>
+        <v>1.000593848698931</v>
       </c>
       <c r="T15">
-        <v>0.9980614962101741</v>
+        <v>1.000151626027813</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1432,58 +1489,58 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>1.163906667096092</v>
+        <v>1.016187275119469</v>
       </c>
       <c r="D16">
-        <v>0.9623013669341572</v>
+        <v>0.9963308609201554</v>
       </c>
       <c r="E16">
-        <v>1.163906667096092</v>
+        <v>1.016187275119469</v>
       </c>
       <c r="F16">
-        <v>0.9571997664758103</v>
+        <v>0.9957430860309134</v>
       </c>
       <c r="G16">
-        <v>0.9586871057155558</v>
+        <v>0.9959144436439981</v>
       </c>
       <c r="H16">
-        <v>1.091336347839424</v>
+        <v>1.009039825702461</v>
       </c>
       <c r="I16">
-        <v>0.884881752292531</v>
+        <v>0.9885348394887286</v>
       </c>
       <c r="J16">
-        <v>0.9623013669341572</v>
+        <v>0.9963308609201554</v>
       </c>
       <c r="K16">
-        <v>0.9623013669341572</v>
+        <v>0.9963308609201554</v>
       </c>
       <c r="L16">
-        <v>0.9571997664758103</v>
+        <v>0.9957430860309134</v>
       </c>
       <c r="M16">
-        <v>1.060553216785951</v>
+        <v>1.005965180575191</v>
       </c>
       <c r="N16">
-        <v>1.060553216785951</v>
+        <v>1.005965180575191</v>
       </c>
       <c r="O16">
-        <v>1.070814260470442</v>
+        <v>1.006990062284281</v>
       </c>
       <c r="P16">
-        <v>1.027802600168686</v>
+        <v>1.002753740690179</v>
       </c>
       <c r="Q16">
-        <v>1.027802600168686</v>
+        <v>1.002753740690179</v>
       </c>
       <c r="R16">
-        <v>1.011427291860054</v>
+        <v>1.001148020747673</v>
       </c>
       <c r="S16">
-        <v>1.011427291860054</v>
+        <v>1.001148020747673</v>
       </c>
       <c r="T16">
-        <v>1.003052167725595</v>
+        <v>1.000291721817621</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1494,58 +1551,58 @@
         <v>15</v>
       </c>
       <c r="C17">
-        <v>1.134726191715441</v>
+        <v>1.031054576361758</v>
       </c>
       <c r="D17">
-        <v>0.9680095964733069</v>
+        <v>0.9929137770560438</v>
       </c>
       <c r="E17">
-        <v>1.134726191715441</v>
+        <v>1.031054576361758</v>
       </c>
       <c r="F17">
-        <v>0.9653772888127421</v>
+        <v>0.9918594754970862</v>
       </c>
       <c r="G17">
-        <v>0.9661447193488729</v>
+        <v>0.9921668459349107</v>
       </c>
       <c r="H17">
-        <v>1.074713323034426</v>
+        <v>1.017325570051867</v>
       </c>
       <c r="I17">
-        <v>0.9071629270153455</v>
+        <v>0.9780883203980437</v>
       </c>
       <c r="J17">
-        <v>0.9680095964733069</v>
+        <v>0.9929137770560438</v>
       </c>
       <c r="K17">
-        <v>0.9680095964733069</v>
+        <v>0.9929137770560438</v>
       </c>
       <c r="L17">
-        <v>0.9653772888127421</v>
+        <v>0.9918594754970862</v>
       </c>
       <c r="M17">
-        <v>1.050051740264091</v>
+        <v>1.011457025929422</v>
       </c>
       <c r="N17">
-        <v>1.050051740264091</v>
+        <v>1.011457025929422</v>
       </c>
       <c r="O17">
-        <v>1.058272267854203</v>
+        <v>1.01341320730357</v>
       </c>
       <c r="P17">
-        <v>1.022704359000497</v>
+        <v>1.005275942971629</v>
       </c>
       <c r="Q17">
-        <v>1.022704359000497</v>
+        <v>1.005275942971629</v>
       </c>
       <c r="R17">
-        <v>1.009030668368699</v>
+        <v>1.002185401492733</v>
       </c>
       <c r="S17">
-        <v>1.009030668368699</v>
+        <v>1.002185401492733</v>
       </c>
       <c r="T17">
-        <v>1.002689007733356</v>
+        <v>1.000568094216618</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1556,58 +1613,58 @@
         <v>16</v>
       </c>
       <c r="C18">
-        <v>1.075763389221832</v>
+        <v>1.045563393992905</v>
       </c>
       <c r="D18">
-        <v>0.9796437027798641</v>
+        <v>0.9895805418991376</v>
       </c>
       <c r="E18">
-        <v>1.075763389221832</v>
+        <v>1.045563393992905</v>
       </c>
       <c r="F18">
-        <v>0.9818459942321943</v>
+        <v>0.98806871800281</v>
       </c>
       <c r="G18">
-        <v>0.981203922654095</v>
+        <v>0.9885094763022511</v>
       </c>
       <c r="H18">
-        <v>1.041158816304402</v>
+        <v>1.025411974737376</v>
       </c>
       <c r="I18">
-        <v>0.952011254942784</v>
+        <v>0.9678913014885043</v>
       </c>
       <c r="J18">
-        <v>0.9796437027798641</v>
+        <v>0.9895805418991376</v>
       </c>
       <c r="K18">
-        <v>0.9796437027798641</v>
+        <v>0.9895805418991376</v>
       </c>
       <c r="L18">
-        <v>0.9818459942321943</v>
+        <v>0.98806871800281</v>
       </c>
       <c r="M18">
-        <v>1.028804691727013</v>
+        <v>1.016816055997858</v>
       </c>
       <c r="N18">
-        <v>1.028804691727013</v>
+        <v>1.016816055997858</v>
       </c>
       <c r="O18">
-        <v>1.032922733252809</v>
+        <v>1.019681362244364</v>
       </c>
       <c r="P18">
-        <v>1.012417695411297</v>
+        <v>1.007737551298284</v>
       </c>
       <c r="Q18">
-        <v>1.012417695411297</v>
+        <v>1.007737551298284</v>
       </c>
       <c r="R18">
-        <v>1.004224197253439</v>
+        <v>1.003198298948498</v>
       </c>
       <c r="S18">
-        <v>1.004224197253439</v>
+        <v>1.003198298948498</v>
       </c>
       <c r="T18">
-        <v>1.001937846689195</v>
+        <v>1.000837567737164</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1618,58 +1675,58 @@
         <v>17</v>
       </c>
       <c r="C19">
-        <v>1.082856629240261</v>
+        <v>1.000554700923606</v>
       </c>
       <c r="D19">
-        <v>0.977005714038612</v>
+        <v>0.9998542399287877</v>
       </c>
       <c r="E19">
-        <v>1.082856629240261</v>
+        <v>1.000554700923606</v>
       </c>
       <c r="F19">
-        <v>0.9805514571121436</v>
+        <v>0.9998653830055104</v>
       </c>
       <c r="G19">
-        <v>0.9795177100363391</v>
+        <v>0.9998621313846108</v>
       </c>
       <c r="H19">
-        <v>1.044753812218916</v>
+        <v>1.000302163463341</v>
       </c>
       <c r="I19">
-        <v>0.9488067811618497</v>
+        <v>0.9996437475702956</v>
       </c>
       <c r="J19">
-        <v>0.977005714038612</v>
+        <v>0.9998542399287877</v>
       </c>
       <c r="K19">
-        <v>0.977005714038612</v>
+        <v>0.9998542399287877</v>
       </c>
       <c r="L19">
-        <v>0.9805514571121436</v>
+        <v>0.9998653830055104</v>
       </c>
       <c r="M19">
-        <v>1.031704043176202</v>
+        <v>1.000210041964558</v>
       </c>
       <c r="N19">
-        <v>1.031704043176202</v>
+        <v>1.000210041964558</v>
       </c>
       <c r="O19">
-        <v>1.03605396619044</v>
+        <v>1.000240749130819</v>
       </c>
       <c r="P19">
-        <v>1.013471266797006</v>
+        <v>1.000091441285968</v>
       </c>
       <c r="Q19">
-        <v>1.013471266797006</v>
+        <v>1.000091441285968</v>
       </c>
       <c r="R19">
-        <v>1.004354878607407</v>
+        <v>1.000032140946673</v>
       </c>
       <c r="S19">
-        <v>1.004354878607407</v>
+        <v>1.000032140946673</v>
       </c>
       <c r="T19">
-        <v>1.00224868396802</v>
+        <v>1.000013727712692</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1680,58 +1737,58 @@
         <v>18</v>
       </c>
       <c r="C20">
-        <v>1.000074598703861</v>
+        <v>1.001236316788594</v>
       </c>
       <c r="D20">
-        <v>0.9999277268812724</v>
+        <v>0.9996909552194725</v>
       </c>
       <c r="E20">
-        <v>1.000074598703861</v>
+        <v>1.001236316788594</v>
       </c>
       <c r="F20">
-        <v>1.000011217276898</v>
+        <v>0.9996914949849508</v>
       </c>
       <c r="G20">
-        <v>0.9999868730001429</v>
+        <v>0.9996913346253671</v>
       </c>
       <c r="H20">
-        <v>1.000021497045691</v>
+        <v>1.000678150066386</v>
       </c>
       <c r="I20">
-        <v>1.000046181721953</v>
+        <v>0.999180449020113</v>
       </c>
       <c r="J20">
-        <v>0.9999277268812724</v>
+        <v>0.9996909552194725</v>
       </c>
       <c r="K20">
-        <v>0.9999277268812724</v>
+        <v>0.9996909552194725</v>
       </c>
       <c r="L20">
-        <v>1.000011217276898</v>
+        <v>0.9996914949849508</v>
       </c>
       <c r="M20">
-        <v>1.00004290799038</v>
+        <v>1.000463905886772</v>
       </c>
       <c r="N20">
-        <v>1.00004290799038</v>
+        <v>1.000463905886772</v>
       </c>
       <c r="O20">
-        <v>1.000035771008817</v>
+        <v>1.00053532061331</v>
       </c>
       <c r="P20">
-        <v>1.000004514287344</v>
+        <v>1.000206255664339</v>
       </c>
       <c r="Q20">
-        <v>1.000004514287344</v>
+        <v>1.000206255664339</v>
       </c>
       <c r="R20">
-        <v>0.9999853174358261</v>
+        <v>1.000077430553122</v>
       </c>
       <c r="S20">
-        <v>0.9999853174358261</v>
+        <v>1.000077430553122</v>
       </c>
       <c r="T20">
-        <v>1.00001134910497</v>
+        <v>1.000028116784147</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1742,58 +1799,58 @@
         <v>19</v>
       </c>
       <c r="C21">
-        <v>1.000707993193457</v>
+        <v>1.001616917591653</v>
       </c>
       <c r="D21">
-        <v>0.999874194202896</v>
+        <v>0.9996329280209784</v>
       </c>
       <c r="E21">
-        <v>1.000707993193457</v>
+        <v>1.001616917591653</v>
       </c>
       <c r="F21">
-        <v>0.9997944562122064</v>
+        <v>0.9995762086825183</v>
       </c>
       <c r="G21">
-        <v>0.9998177005128078</v>
+        <v>0.9995927419575047</v>
       </c>
       <c r="H21">
-        <v>1.00040816290219</v>
+        <v>1.000899327548291</v>
       </c>
       <c r="I21">
-        <v>0.9994361282314621</v>
+        <v>0.9988646209624356</v>
       </c>
       <c r="J21">
-        <v>0.999874194202896</v>
+        <v>0.9996329280209784</v>
       </c>
       <c r="K21">
-        <v>0.999874194202896</v>
+        <v>0.9996329280209784</v>
       </c>
       <c r="L21">
-        <v>0.9997944562122064</v>
+        <v>0.9995762086825183</v>
       </c>
       <c r="M21">
-        <v>1.000251224702832</v>
+        <v>1.000596563137085</v>
       </c>
       <c r="N21">
-        <v>1.000251224702832</v>
+        <v>1.000596563137085</v>
       </c>
       <c r="O21">
-        <v>1.000303537435951</v>
+        <v>1.000697484607487</v>
       </c>
       <c r="P21">
-        <v>1.00012554786952</v>
+        <v>1.000275351431716</v>
       </c>
       <c r="Q21">
-        <v>1.00012554786952</v>
+        <v>1.000275351431716</v>
       </c>
       <c r="R21">
-        <v>1.000062709452864</v>
+        <v>1.000114745579032</v>
       </c>
       <c r="S21">
-        <v>1.000062709452864</v>
+        <v>1.000114745579032</v>
       </c>
       <c r="T21">
-        <v>1.00000643920917</v>
+        <v>1.000030457460563</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1804,58 +1861,58 @@
         <v>20</v>
       </c>
       <c r="C22">
-        <v>1.0026769688307</v>
+        <v>1.003607632566301</v>
       </c>
       <c r="D22">
-        <v>0.999261564253627</v>
+        <v>0.9991317512354265</v>
       </c>
       <c r="E22">
-        <v>1.0026769688307</v>
+        <v>1.003607632566301</v>
       </c>
       <c r="F22">
-        <v>0.999369373032517</v>
+        <v>0.9990811746467734</v>
       </c>
       <c r="G22">
-        <v>0.9993379413566182</v>
+        <v>0.999095918319166</v>
       </c>
       <c r="H22">
-        <v>1.00144688204732</v>
+        <v>1.001990773915516</v>
       </c>
       <c r="I22">
-        <v>0.998339752940678</v>
+        <v>0.9975493227540195</v>
       </c>
       <c r="J22">
-        <v>0.999261564253627</v>
+        <v>0.9991317512354265</v>
       </c>
       <c r="K22">
-        <v>0.999261564253627</v>
+        <v>0.9991317512354265</v>
       </c>
       <c r="L22">
-        <v>0.999369373032517</v>
+        <v>0.9990811746467734</v>
       </c>
       <c r="M22">
-        <v>1.001023170931608</v>
+        <v>1.001344403606537</v>
       </c>
       <c r="N22">
-        <v>1.001023170931608</v>
+        <v>1.001344403606537</v>
       </c>
       <c r="O22">
-        <v>1.001164407970179</v>
+        <v>1.001559860376197</v>
       </c>
       <c r="P22">
-        <v>1.000435968705615</v>
+        <v>1.000606852816167</v>
       </c>
       <c r="Q22">
-        <v>1.000435968705615</v>
+        <v>1.000606852816167</v>
       </c>
       <c r="R22">
-        <v>1.000142367592618</v>
+        <v>1.000238077420982</v>
       </c>
       <c r="S22">
-        <v>1.000142367592618</v>
+        <v>1.000238077420982</v>
       </c>
       <c r="T22">
-        <v>1.000072080410243</v>
+        <v>1.000076095572867</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1866,58 +1923,1236 @@
         <v>21</v>
       </c>
       <c r="C23">
+        <v>1.00561799013218</v>
+      </c>
+      <c r="D23">
+        <v>0.9987736669553302</v>
+      </c>
+      <c r="E23">
+        <v>1.00561799013218</v>
+      </c>
+      <c r="F23">
+        <v>0.9985009399727625</v>
+      </c>
+      <c r="G23">
+        <v>0.9985804512571164</v>
+      </c>
+      <c r="H23">
+        <v>1.003140303581234</v>
+      </c>
+      <c r="I23">
+        <v>0.9959732421331577</v>
+      </c>
+      <c r="J23">
+        <v>0.9987736669553302</v>
+      </c>
+      <c r="K23">
+        <v>0.9987736669553302</v>
+      </c>
+      <c r="L23">
+        <v>0.9985009399727625</v>
+      </c>
+      <c r="M23">
+        <v>1.002059465052471</v>
+      </c>
+      <c r="N23">
+        <v>1.002059465052471</v>
+      </c>
+      <c r="O23">
+        <v>1.002419744562059</v>
+      </c>
+      <c r="P23">
+        <v>1.000964199020091</v>
+      </c>
+      <c r="Q23">
+        <v>1.000964199020091</v>
+      </c>
+      <c r="R23">
+        <v>1.000416566003901</v>
+      </c>
+      <c r="S23">
+        <v>1.000416566003901</v>
+      </c>
+      <c r="T23">
+        <v>1.000097765671964</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" s="1">
+        <v>22</v>
+      </c>
+      <c r="B24" t="s">
+        <v>22</v>
+      </c>
+      <c r="C24">
+        <v>0.9599247910191417</v>
+      </c>
+      <c r="D24">
+        <v>1.024822124234009</v>
+      </c>
+      <c r="E24">
+        <v>0.9599247910191417</v>
+      </c>
+      <c r="F24">
+        <v>1.001801925666435</v>
+      </c>
+      <c r="G24">
+        <v>1.008513345175049</v>
+      </c>
+      <c r="H24">
+        <v>0.9832654825769027</v>
+      </c>
+      <c r="I24">
+        <v>1.00045725893741</v>
+      </c>
+      <c r="J24">
+        <v>1.024822124234009</v>
+      </c>
+      <c r="K24">
+        <v>1.024822124234009</v>
+      </c>
+      <c r="L24">
+        <v>1.001801925666435</v>
+      </c>
+      <c r="M24">
+        <v>0.9808633583427885</v>
+      </c>
+      <c r="N24">
+        <v>0.9808633583427885</v>
+      </c>
+      <c r="O24">
+        <v>0.9816640664208265</v>
+      </c>
+      <c r="P24">
+        <v>0.9955162803065286</v>
+      </c>
+      <c r="Q24">
+        <v>0.9955162803065286</v>
+      </c>
+      <c r="R24">
+        <v>1.002842741288399</v>
+      </c>
+      <c r="S24">
+        <v>1.002842741288399</v>
+      </c>
+      <c r="T24">
+        <v>0.9964641546014912</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" s="1">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>23</v>
+      </c>
+      <c r="C25">
+        <v>0.9970022412372574</v>
+      </c>
+      <c r="D25">
+        <v>0.9945144354984666</v>
+      </c>
+      <c r="E25">
+        <v>0.9970022412372574</v>
+      </c>
+      <c r="F25">
+        <v>1.00420463466407</v>
+      </c>
+      <c r="G25">
+        <v>1.001379500856453</v>
+      </c>
+      <c r="H25">
+        <v>0.9961336832803341</v>
+      </c>
+      <c r="I25">
+        <v>1.013013387683863</v>
+      </c>
+      <c r="J25">
+        <v>0.9945144354984666</v>
+      </c>
+      <c r="K25">
+        <v>0.9945144354984666</v>
+      </c>
+      <c r="L25">
+        <v>1.00420463466407</v>
+      </c>
+      <c r="M25">
+        <v>1.000603437950664</v>
+      </c>
+      <c r="N25">
+        <v>1.000603437950664</v>
+      </c>
+      <c r="O25">
+        <v>0.9991135197272206</v>
+      </c>
+      <c r="P25">
+        <v>0.9985737704665981</v>
+      </c>
+      <c r="Q25">
+        <v>0.9985737704665981</v>
+      </c>
+      <c r="R25">
+        <v>0.9975589367245653</v>
+      </c>
+      <c r="S25">
+        <v>0.9975589367245653</v>
+      </c>
+      <c r="T25">
+        <v>1.001041313870074</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" s="1">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>24</v>
+      </c>
+      <c r="C26">
+        <v>0.9700302987427654</v>
+      </c>
+      <c r="D26">
+        <v>0.9864277544158573</v>
+      </c>
+      <c r="E26">
+        <v>0.9700302987427654</v>
+      </c>
+      <c r="F26">
+        <v>1.019192854047593</v>
+      </c>
+      <c r="G26">
+        <v>1.009640330591291</v>
+      </c>
+      <c r="H26">
+        <v>0.9759401366091729</v>
+      </c>
+      <c r="I26">
+        <v>1.057410745746827</v>
+      </c>
+      <c r="J26">
+        <v>0.9864277544158573</v>
+      </c>
+      <c r="K26">
+        <v>0.9864277544158573</v>
+      </c>
+      <c r="L26">
+        <v>1.019192854047593</v>
+      </c>
+      <c r="M26">
+        <v>0.9946115763951792</v>
+      </c>
+      <c r="N26">
+        <v>0.9946115763951792</v>
+      </c>
+      <c r="O26">
+        <v>0.9883877631331771</v>
+      </c>
+      <c r="P26">
+        <v>0.9918836357354053</v>
+      </c>
+      <c r="Q26">
+        <v>0.9918836357354053</v>
+      </c>
+      <c r="R26">
+        <v>0.9905196654055183</v>
+      </c>
+      <c r="S26">
+        <v>0.9905196654055183</v>
+      </c>
+      <c r="T26">
+        <v>1.003107020025584</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20">
+      <c r="A27" s="1">
+        <v>25</v>
+      </c>
+      <c r="B27" t="s">
+        <v>25</v>
+      </c>
+      <c r="C27">
+        <v>0.9825145013590952</v>
+      </c>
+      <c r="D27">
+        <v>1.013054072656479</v>
+      </c>
+      <c r="E27">
+        <v>0.9825145013590952</v>
+      </c>
+      <c r="F27">
+        <v>0.9995533493921123</v>
+      </c>
+      <c r="G27">
+        <v>1.003489414092796</v>
+      </c>
+      <c r="H27">
+        <v>0.993491053930485</v>
+      </c>
+      <c r="I27">
+        <v>0.9962665858300779</v>
+      </c>
+      <c r="J27">
+        <v>1.013054072656479</v>
+      </c>
+      <c r="K27">
+        <v>1.013054072656479</v>
+      </c>
+      <c r="L27">
+        <v>0.9995533493921123</v>
+      </c>
+      <c r="M27">
+        <v>0.9910339253756038</v>
+      </c>
+      <c r="N27">
+        <v>0.9910339253756038</v>
+      </c>
+      <c r="O27">
+        <v>0.9918529682272309</v>
+      </c>
+      <c r="P27">
+        <v>0.9983739744692288</v>
+      </c>
+      <c r="Q27">
+        <v>0.9983739744692288</v>
+      </c>
+      <c r="R27">
+        <v>1.002043999016041</v>
+      </c>
+      <c r="S27">
+        <v>1.002043999016041</v>
+      </c>
+      <c r="T27">
+        <v>0.9980614962101741</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20">
+      <c r="A28" s="1">
+        <v>26</v>
+      </c>
+      <c r="B28" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28">
+        <v>1.163906667096092</v>
+      </c>
+      <c r="D28">
+        <v>0.9623013669341572</v>
+      </c>
+      <c r="E28">
+        <v>1.163906667096092</v>
+      </c>
+      <c r="F28">
+        <v>0.9571997664758103</v>
+      </c>
+      <c r="G28">
+        <v>0.9586871057155558</v>
+      </c>
+      <c r="H28">
+        <v>1.091336347839424</v>
+      </c>
+      <c r="I28">
+        <v>0.884881752292531</v>
+      </c>
+      <c r="J28">
+        <v>0.9623013669341572</v>
+      </c>
+      <c r="K28">
+        <v>0.9623013669341572</v>
+      </c>
+      <c r="L28">
+        <v>0.9571997664758103</v>
+      </c>
+      <c r="M28">
+        <v>1.060553216785951</v>
+      </c>
+      <c r="N28">
+        <v>1.060553216785951</v>
+      </c>
+      <c r="O28">
+        <v>1.070814260470442</v>
+      </c>
+      <c r="P28">
+        <v>1.027802600168686</v>
+      </c>
+      <c r="Q28">
+        <v>1.027802600168686</v>
+      </c>
+      <c r="R28">
+        <v>1.011427291860054</v>
+      </c>
+      <c r="S28">
+        <v>1.011427291860054</v>
+      </c>
+      <c r="T28">
+        <v>1.003052167725595</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20">
+      <c r="A29" s="1">
+        <v>27</v>
+      </c>
+      <c r="B29" t="s">
+        <v>27</v>
+      </c>
+      <c r="C29">
+        <v>1.134726191715441</v>
+      </c>
+      <c r="D29">
+        <v>0.9680095964733069</v>
+      </c>
+      <c r="E29">
+        <v>1.134726191715441</v>
+      </c>
+      <c r="F29">
+        <v>0.9653772888127421</v>
+      </c>
+      <c r="G29">
+        <v>0.9661447193488729</v>
+      </c>
+      <c r="H29">
+        <v>1.074713323034426</v>
+      </c>
+      <c r="I29">
+        <v>0.9071629270153455</v>
+      </c>
+      <c r="J29">
+        <v>0.9680095964733069</v>
+      </c>
+      <c r="K29">
+        <v>0.9680095964733069</v>
+      </c>
+      <c r="L29">
+        <v>0.9653772888127421</v>
+      </c>
+      <c r="M29">
+        <v>1.050051740264091</v>
+      </c>
+      <c r="N29">
+        <v>1.050051740264091</v>
+      </c>
+      <c r="O29">
+        <v>1.058272267854203</v>
+      </c>
+      <c r="P29">
+        <v>1.022704359000497</v>
+      </c>
+      <c r="Q29">
+        <v>1.022704359000497</v>
+      </c>
+      <c r="R29">
+        <v>1.009030668368699</v>
+      </c>
+      <c r="S29">
+        <v>1.009030668368699</v>
+      </c>
+      <c r="T29">
+        <v>1.002689007733356</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20">
+      <c r="A30" s="1">
+        <v>28</v>
+      </c>
+      <c r="B30" t="s">
+        <v>28</v>
+      </c>
+      <c r="C30">
+        <v>1.075763389221832</v>
+      </c>
+      <c r="D30">
+        <v>0.9796437027798641</v>
+      </c>
+      <c r="E30">
+        <v>1.075763389221832</v>
+      </c>
+      <c r="F30">
+        <v>0.9818459942321943</v>
+      </c>
+      <c r="G30">
+        <v>0.981203922654095</v>
+      </c>
+      <c r="H30">
+        <v>1.041158816304402</v>
+      </c>
+      <c r="I30">
+        <v>0.952011254942784</v>
+      </c>
+      <c r="J30">
+        <v>0.9796437027798641</v>
+      </c>
+      <c r="K30">
+        <v>0.9796437027798641</v>
+      </c>
+      <c r="L30">
+        <v>0.9818459942321943</v>
+      </c>
+      <c r="M30">
+        <v>1.028804691727013</v>
+      </c>
+      <c r="N30">
+        <v>1.028804691727013</v>
+      </c>
+      <c r="O30">
+        <v>1.032922733252809</v>
+      </c>
+      <c r="P30">
+        <v>1.012417695411297</v>
+      </c>
+      <c r="Q30">
+        <v>1.012417695411297</v>
+      </c>
+      <c r="R30">
+        <v>1.004224197253439</v>
+      </c>
+      <c r="S30">
+        <v>1.004224197253439</v>
+      </c>
+      <c r="T30">
+        <v>1.001937846689195</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20">
+      <c r="A31" s="1">
+        <v>29</v>
+      </c>
+      <c r="B31" t="s">
+        <v>29</v>
+      </c>
+      <c r="C31">
+        <v>1.082856629240261</v>
+      </c>
+      <c r="D31">
+        <v>0.977005714038612</v>
+      </c>
+      <c r="E31">
+        <v>1.082856629240261</v>
+      </c>
+      <c r="F31">
+        <v>0.9805514571121436</v>
+      </c>
+      <c r="G31">
+        <v>0.9795177100363391</v>
+      </c>
+      <c r="H31">
+        <v>1.044753812218916</v>
+      </c>
+      <c r="I31">
+        <v>0.9488067811618497</v>
+      </c>
+      <c r="J31">
+        <v>0.977005714038612</v>
+      </c>
+      <c r="K31">
+        <v>0.977005714038612</v>
+      </c>
+      <c r="L31">
+        <v>0.9805514571121436</v>
+      </c>
+      <c r="M31">
+        <v>1.031704043176202</v>
+      </c>
+      <c r="N31">
+        <v>1.031704043176202</v>
+      </c>
+      <c r="O31">
+        <v>1.03605396619044</v>
+      </c>
+      <c r="P31">
+        <v>1.013471266797006</v>
+      </c>
+      <c r="Q31">
+        <v>1.013471266797006</v>
+      </c>
+      <c r="R31">
+        <v>1.004354878607407</v>
+      </c>
+      <c r="S31">
+        <v>1.004354878607407</v>
+      </c>
+      <c r="T31">
+        <v>1.00224868396802</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20">
+      <c r="A32" s="1">
+        <v>30</v>
+      </c>
+      <c r="B32" t="s">
+        <v>30</v>
+      </c>
+      <c r="C32">
+        <v>1.18728414739726</v>
+      </c>
+      <c r="D32">
+        <v>0.9588558205479455</v>
+      </c>
+      <c r="E32">
+        <v>1.18728414739726</v>
+      </c>
+      <c r="F32">
+        <v>0.9500341912328767</v>
+      </c>
+      <c r="G32">
+        <v>0.9526060854794524</v>
+      </c>
+      <c r="H32">
+        <v>1.105021846575342</v>
+      </c>
+      <c r="I32">
+        <v>0.8651239890410956</v>
+      </c>
+      <c r="J32">
+        <v>0.9588558205479455</v>
+      </c>
+      <c r="K32">
+        <v>0.9588558205479455</v>
+      </c>
+      <c r="L32">
+        <v>0.9500341912328767</v>
+      </c>
+      <c r="M32">
+        <v>1.068659169315068</v>
+      </c>
+      <c r="N32">
+        <v>1.068659169315068</v>
+      </c>
+      <c r="O32">
+        <v>1.08078006173516</v>
+      </c>
+      <c r="P32">
+        <v>1.032058053059361</v>
+      </c>
+      <c r="Q32">
+        <v>1.032058053059361</v>
+      </c>
+      <c r="R32">
+        <v>1.013757494931507</v>
+      </c>
+      <c r="S32">
+        <v>1.013757494931507</v>
+      </c>
+      <c r="T32">
+        <v>1.003154346712329</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20">
+      <c r="A33" s="1">
+        <v>31</v>
+      </c>
+      <c r="B33" t="s">
+        <v>31</v>
+      </c>
+      <c r="C33">
+        <v>0.9475528578947369</v>
+      </c>
+      <c r="D33">
+        <v>0.9952692626315791</v>
+      </c>
+      <c r="E33">
+        <v>0.9475528578947369</v>
+      </c>
+      <c r="F33">
+        <v>1.023263932105263</v>
+      </c>
+      <c r="G33">
+        <v>1.015102218947368</v>
+      </c>
+      <c r="H33">
+        <v>0.963985404736842</v>
+      </c>
+      <c r="I33">
+        <v>1.068601898421053</v>
+      </c>
+      <c r="J33">
+        <v>0.9952692626315791</v>
+      </c>
+      <c r="K33">
+        <v>0.9952692626315791</v>
+      </c>
+      <c r="L33">
+        <v>1.023263932105263</v>
+      </c>
+      <c r="M33">
+        <v>0.9854083950000001</v>
+      </c>
+      <c r="N33">
+        <v>0.9854083950000001</v>
+      </c>
+      <c r="O33">
+        <v>0.978267398245614</v>
+      </c>
+      <c r="P33">
+        <v>0.9886953508771931</v>
+      </c>
+      <c r="Q33">
+        <v>0.9886953508771931</v>
+      </c>
+      <c r="R33">
+        <v>0.9903388288157896</v>
+      </c>
+      <c r="S33">
+        <v>0.9903388288157896</v>
+      </c>
+      <c r="T33">
+        <v>1.002295929122807</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20">
+      <c r="A34" s="1">
+        <v>32</v>
+      </c>
+      <c r="B34" t="s">
+        <v>32</v>
+      </c>
+      <c r="C34">
+        <v>0.8902969368421051</v>
+      </c>
+      <c r="D34">
+        <v>1.027473054210526</v>
+      </c>
+      <c r="E34">
+        <v>0.8902969368421051</v>
+      </c>
+      <c r="F34">
+        <v>1.027537886315789</v>
+      </c>
+      <c r="G34">
+        <v>1.027518977894737</v>
+      </c>
+      <c r="H34">
+        <v>0.9392498763157894</v>
+      </c>
+      <c r="I34">
+        <v>1.07415846</v>
+      </c>
+      <c r="J34">
+        <v>1.027473054210526</v>
+      </c>
+      <c r="K34">
+        <v>1.027473054210526</v>
+      </c>
+      <c r="L34">
+        <v>1.027537886315789</v>
+      </c>
+      <c r="M34">
+        <v>0.9589174115789472</v>
+      </c>
+      <c r="N34">
+        <v>0.9589174115789472</v>
+      </c>
+      <c r="O34">
+        <v>0.9523615664912279</v>
+      </c>
+      <c r="P34">
+        <v>0.9817692924561402</v>
+      </c>
+      <c r="Q34">
+        <v>0.9817692924561402</v>
+      </c>
+      <c r="R34">
+        <v>0.9931952328947368</v>
+      </c>
+      <c r="S34">
+        <v>0.9931952328947368</v>
+      </c>
+      <c r="T34">
+        <v>0.9977058652631579</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20">
+      <c r="A35" s="1">
+        <v>33</v>
+      </c>
+      <c r="B35" t="s">
+        <v>33</v>
+      </c>
+      <c r="C35">
+        <v>1.305542244752868</v>
+      </c>
+      <c r="D35">
+        <v>0.9150337284625897</v>
+      </c>
+      <c r="E35">
+        <v>1.305542244752868</v>
+      </c>
+      <c r="F35">
+        <v>0.9283754666418781</v>
+      </c>
+      <c r="G35">
+        <v>0.9244857447829345</v>
+      </c>
+      <c r="H35">
+        <v>1.164977978600851</v>
+      </c>
+      <c r="I35">
+        <v>0.8115114657590696</v>
+      </c>
+      <c r="J35">
+        <v>0.9150337284625897</v>
+      </c>
+      <c r="K35">
+        <v>0.9150337284625897</v>
+      </c>
+      <c r="L35">
+        <v>0.9283754666418781</v>
+      </c>
+      <c r="M35">
+        <v>1.116958855697373</v>
+      </c>
+      <c r="N35">
+        <v>1.116958855697373</v>
+      </c>
+      <c r="O35">
+        <v>1.132965229998532</v>
+      </c>
+      <c r="P35">
+        <v>1.049650479952445</v>
+      </c>
+      <c r="Q35">
+        <v>1.049650479952445</v>
+      </c>
+      <c r="R35">
+        <v>1.015996292079981</v>
+      </c>
+      <c r="S35">
+        <v>1.015996292079981</v>
+      </c>
+      <c r="T35">
+        <v>1.008321104833365</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20">
+      <c r="A36" s="1">
+        <v>34</v>
+      </c>
+      <c r="B36" t="s">
+        <v>34</v>
+      </c>
+      <c r="C36">
+        <v>1.000074598703861</v>
+      </c>
+      <c r="D36">
+        <v>0.9999277268812724</v>
+      </c>
+      <c r="E36">
+        <v>1.000074598703861</v>
+      </c>
+      <c r="F36">
+        <v>1.000011217276898</v>
+      </c>
+      <c r="G36">
+        <v>0.9999868730001429</v>
+      </c>
+      <c r="H36">
+        <v>1.000021497045691</v>
+      </c>
+      <c r="I36">
+        <v>1.000046181721953</v>
+      </c>
+      <c r="J36">
+        <v>0.9999277268812724</v>
+      </c>
+      <c r="K36">
+        <v>0.9999277268812724</v>
+      </c>
+      <c r="L36">
+        <v>1.000011217276898</v>
+      </c>
+      <c r="M36">
+        <v>1.00004290799038</v>
+      </c>
+      <c r="N36">
+        <v>1.00004290799038</v>
+      </c>
+      <c r="O36">
+        <v>1.000035771008817</v>
+      </c>
+      <c r="P36">
+        <v>1.000004514287344</v>
+      </c>
+      <c r="Q36">
+        <v>1.000004514287344</v>
+      </c>
+      <c r="R36">
+        <v>0.9999853174358261</v>
+      </c>
+      <c r="S36">
+        <v>0.9999853174358261</v>
+      </c>
+      <c r="T36">
+        <v>1.00001134910497</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20">
+      <c r="A37" s="1">
+        <v>35</v>
+      </c>
+      <c r="B37" t="s">
+        <v>35</v>
+      </c>
+      <c r="C37">
+        <v>1.000707993193457</v>
+      </c>
+      <c r="D37">
+        <v>0.999874194202896</v>
+      </c>
+      <c r="E37">
+        <v>1.000707993193457</v>
+      </c>
+      <c r="F37">
+        <v>0.9997944562122064</v>
+      </c>
+      <c r="G37">
+        <v>0.9998177005128078</v>
+      </c>
+      <c r="H37">
+        <v>1.00040816290219</v>
+      </c>
+      <c r="I37">
+        <v>0.9994361282314621</v>
+      </c>
+      <c r="J37">
+        <v>0.999874194202896</v>
+      </c>
+      <c r="K37">
+        <v>0.999874194202896</v>
+      </c>
+      <c r="L37">
+        <v>0.9997944562122064</v>
+      </c>
+      <c r="M37">
+        <v>1.000251224702832</v>
+      </c>
+      <c r="N37">
+        <v>1.000251224702832</v>
+      </c>
+      <c r="O37">
+        <v>1.000303537435951</v>
+      </c>
+      <c r="P37">
+        <v>1.00012554786952</v>
+      </c>
+      <c r="Q37">
+        <v>1.00012554786952</v>
+      </c>
+      <c r="R37">
+        <v>1.000062709452864</v>
+      </c>
+      <c r="S37">
+        <v>1.000062709452864</v>
+      </c>
+      <c r="T37">
+        <v>1.00000643920917</v>
+      </c>
+    </row>
+    <row r="38" spans="1:20">
+      <c r="A38" s="1">
+        <v>36</v>
+      </c>
+      <c r="B38" t="s">
+        <v>36</v>
+      </c>
+      <c r="C38">
+        <v>1.0026769688307</v>
+      </c>
+      <c r="D38">
+        <v>0.999261564253627</v>
+      </c>
+      <c r="E38">
+        <v>1.0026769688307</v>
+      </c>
+      <c r="F38">
+        <v>0.999369373032517</v>
+      </c>
+      <c r="G38">
+        <v>0.9993379413566182</v>
+      </c>
+      <c r="H38">
+        <v>1.00144688204732</v>
+      </c>
+      <c r="I38">
+        <v>0.998339752940678</v>
+      </c>
+      <c r="J38">
+        <v>0.999261564253627</v>
+      </c>
+      <c r="K38">
+        <v>0.999261564253627</v>
+      </c>
+      <c r="L38">
+        <v>0.999369373032517</v>
+      </c>
+      <c r="M38">
+        <v>1.001023170931608</v>
+      </c>
+      <c r="N38">
+        <v>1.001023170931608</v>
+      </c>
+      <c r="O38">
+        <v>1.001164407970179</v>
+      </c>
+      <c r="P38">
+        <v>1.000435968705615</v>
+      </c>
+      <c r="Q38">
+        <v>1.000435968705615</v>
+      </c>
+      <c r="R38">
+        <v>1.000142367592618</v>
+      </c>
+      <c r="S38">
+        <v>1.000142367592618</v>
+      </c>
+      <c r="T38">
+        <v>1.000072080410243</v>
+      </c>
+    </row>
+    <row r="39" spans="1:20">
+      <c r="A39" s="1">
+        <v>37</v>
+      </c>
+      <c r="B39" t="s">
+        <v>37</v>
+      </c>
+      <c r="C39">
         <v>1.006364294873917</v>
       </c>
-      <c r="D23">
+      <c r="D39">
         <v>0.9981220168318269</v>
       </c>
-      <c r="E23">
+      <c r="E39">
         <v>1.006364294873917</v>
       </c>
-      <c r="F23">
+      <c r="F39">
         <v>0.9985691457185338</v>
       </c>
-      <c r="G23">
+      <c r="G39">
         <v>0.9984387823900861</v>
       </c>
-      <c r="H23">
+      <c r="H39">
         <v>1.003394524773729</v>
       </c>
-      <c r="I23">
+      <c r="I39">
         <v>0.9962737519097526</v>
       </c>
-      <c r="J23">
+      <c r="J39">
         <v>0.9981220168318269</v>
       </c>
-      <c r="K23">
+      <c r="K39">
         <v>0.9981220168318269</v>
       </c>
-      <c r="L23">
+      <c r="L39">
         <v>0.9985691457185338</v>
       </c>
-      <c r="M23">
+      <c r="M39">
         <v>1.002466720296225</v>
       </c>
-      <c r="N23">
+      <c r="N39">
         <v>1.002466720296225</v>
       </c>
-      <c r="O23">
+      <c r="O39">
         <v>1.002775988455393</v>
       </c>
-      <c r="P23">
+      <c r="P39">
         <v>1.001018485808092</v>
       </c>
-      <c r="Q23">
+      <c r="Q39">
         <v>1.001018485808092</v>
       </c>
-      <c r="R23">
+      <c r="R39">
         <v>1.000294368564026</v>
       </c>
-      <c r="S23">
+      <c r="S39">
         <v>1.000294368564026</v>
       </c>
-      <c r="T23">
+      <c r="T39">
         <v>1.000193752749641</v>
+      </c>
+    </row>
+    <row r="40" spans="1:20">
+      <c r="A40" s="1">
+        <v>38</v>
+      </c>
+      <c r="B40" t="s">
+        <v>38</v>
+      </c>
+      <c r="C40">
+        <v>0.9541580471561663</v>
+      </c>
+      <c r="D40">
+        <v>1.01151024105149</v>
+      </c>
+      <c r="E40">
+        <v>0.9541580471561663</v>
+      </c>
+      <c r="F40">
+        <v>1.011466890529823</v>
+      </c>
+      <c r="G40">
+        <v>1.011479525616632</v>
+      </c>
+      <c r="H40">
+        <v>0.9746989615391178</v>
+      </c>
+      <c r="I40">
+        <v>1.030745168606555</v>
+      </c>
+      <c r="J40">
+        <v>1.01151024105149</v>
+      </c>
+      <c r="K40">
+        <v>1.01151024105149</v>
+      </c>
+      <c r="L40">
+        <v>1.011466890529823</v>
+      </c>
+      <c r="M40">
+        <v>0.9828124688429947</v>
+      </c>
+      <c r="N40">
+        <v>0.9828124688429947</v>
+      </c>
+      <c r="O40">
+        <v>0.9801079664083691</v>
+      </c>
+      <c r="P40">
+        <v>0.9923783929124932</v>
+      </c>
+      <c r="Q40">
+        <v>0.9923783929124932</v>
+      </c>
+      <c r="R40">
+        <v>0.9971613549472425</v>
+      </c>
+      <c r="S40">
+        <v>0.9971613549472425</v>
+      </c>
+      <c r="T40">
+        <v>0.9990098057499641</v>
+      </c>
+    </row>
+    <row r="41" spans="1:20">
+      <c r="A41" s="1">
+        <v>39</v>
+      </c>
+      <c r="B41" t="s">
+        <v>39</v>
+      </c>
+      <c r="C41">
+        <v>1.001870630649299</v>
+      </c>
+      <c r="D41">
+        <v>1.001748883941334</v>
+      </c>
+      <c r="E41">
+        <v>1.001870630649299</v>
+      </c>
+      <c r="F41">
+        <v>0.998290996979782</v>
+      </c>
+      <c r="G41">
+        <v>0.9992991251211935</v>
+      </c>
+      <c r="H41">
+        <v>1.001857709494685</v>
+      </c>
+      <c r="I41">
+        <v>0.9947328973827747</v>
+      </c>
+      <c r="J41">
+        <v>1.001748883941334</v>
+      </c>
+      <c r="K41">
+        <v>1.001748883941334</v>
+      </c>
+      <c r="L41">
+        <v>0.998290996979782</v>
+      </c>
+      <c r="M41">
+        <v>1.000080813814541</v>
+      </c>
+      <c r="N41">
+        <v>1.000080813814541</v>
+      </c>
+      <c r="O41">
+        <v>1.000673112374589</v>
+      </c>
+      <c r="P41">
+        <v>1.000636837190138</v>
+      </c>
+      <c r="Q41">
+        <v>1.000636837190138</v>
+      </c>
+      <c r="R41">
+        <v>1.000914848877937</v>
+      </c>
+      <c r="S41">
+        <v>1.000914848877937</v>
+      </c>
+      <c r="T41">
+        <v>0.999633373928178</v>
+      </c>
+    </row>
+    <row r="42" spans="1:20">
+      <c r="A42" s="1">
+        <v>40</v>
+      </c>
+      <c r="B42" t="s">
+        <v>40</v>
+      </c>
+      <c r="C42">
+        <v>1.095846597806891</v>
+      </c>
+      <c r="D42">
+        <v>0.973599479758628</v>
+      </c>
+      <c r="E42">
+        <v>1.095846597806891</v>
+      </c>
+      <c r="F42">
+        <v>0.9773343568484902</v>
+      </c>
+      <c r="G42">
+        <v>0.9762454696271126</v>
+      </c>
+      <c r="H42">
+        <v>1.052020910302666</v>
+      </c>
+      <c r="I42">
+        <v>0.9399666461456251</v>
+      </c>
+      <c r="J42">
+        <v>0.973599479758628</v>
+      </c>
+      <c r="K42">
+        <v>0.973599479758628</v>
+      </c>
+      <c r="L42">
+        <v>0.9773343568484902</v>
+      </c>
+      <c r="M42">
+        <v>1.036590477327691</v>
+      </c>
+      <c r="N42">
+        <v>1.036590477327691</v>
+      </c>
+      <c r="O42">
+        <v>1.041733954986016</v>
+      </c>
+      <c r="P42">
+        <v>1.015593478138003</v>
+      </c>
+      <c r="Q42">
+        <v>1.015593478138003</v>
+      </c>
+      <c r="R42">
+        <v>1.005094978543159</v>
+      </c>
+      <c r="S42">
+        <v>1.005094978543159</v>
+      </c>
+      <c r="T42">
+        <v>1.002502243414902</v>
       </c>
     </row>
   </sheetData>

--- a/JupyterNotebooks/AvgHW/Alpha1F-HW30.xlsx
+++ b/JupyterNotebooks/AvgHW/Alpha1F-HW30.xlsx
@@ -14,36 +14,69 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="46">
   <si>
     <t>HKL</t>
   </si>
   <si>
-    <t>BT8Hex_2.5</t>
-  </si>
-  <si>
-    <t>BT8Hex_5</t>
-  </si>
-  <si>
-    <t>BT8Hex_10</t>
-  </si>
-  <si>
-    <t>BT8Hex_15</t>
-  </si>
-  <si>
-    <t>Spiral2.5</t>
-  </si>
-  <si>
     <t>Spiral5</t>
   </si>
   <si>
-    <t>Spiral7.5</t>
-  </si>
-  <si>
-    <t>Spiral10</t>
-  </si>
-  <si>
-    <t>Spiral15</t>
+    <t>RotRing OmegaMax-90</t>
+  </si>
+  <si>
+    <t>Equal Angle</t>
+  </si>
+  <si>
+    <t>Tilt Rotate</t>
+  </si>
+  <si>
+    <t>CLR</t>
+  </si>
+  <si>
+    <t>Rizzie Hex</t>
+  </si>
+  <si>
+    <t>Thomas Hex</t>
+  </si>
+  <si>
+    <t>Tilt Rotate_Partial</t>
+  </si>
+  <si>
+    <t>RotRing OmegaMax-60</t>
+  </si>
+  <si>
+    <t>Equal Angle_Partial</t>
+  </si>
+  <si>
+    <t>Rizzie Hex_Partial</t>
+  </si>
+  <si>
+    <t>ND Single</t>
+  </si>
+  <si>
+    <t>RD Single</t>
+  </si>
+  <si>
+    <t>TD Single</t>
+  </si>
+  <si>
+    <t>Morris Single</t>
+  </si>
+  <si>
+    <t>Ring Perpendicular to ND</t>
+  </si>
+  <si>
+    <t>Ring Perpendicular to RD</t>
+  </si>
+  <si>
+    <t>Ring Perpendicular to TD</t>
+  </si>
+  <si>
+    <t>OffsetFTD</t>
+  </si>
+  <si>
+    <t>OffsetATD</t>
   </si>
   <si>
     <t>OffsetF45</t>
@@ -52,46 +85,43 @@
     <t>OffsetA45</t>
   </si>
   <si>
-    <t>OffsetFTD</t>
-  </si>
-  <si>
-    <t>OffsetATD</t>
-  </si>
-  <si>
-    <t>HexGrid-90degTilt2.5degRes</t>
-  </si>
-  <si>
-    <t>HexGrid-90degTilt5degRes</t>
-  </si>
-  <si>
-    <t>HexGrid-90degTilt10degRes</t>
-  </si>
-  <si>
-    <t>HexGrid-90degTilt15degRes</t>
+    <t>OffsetFRD</t>
+  </si>
+  <si>
+    <t>OffsetARD</t>
+  </si>
+  <si>
+    <t>Gaussian Quadrature</t>
+  </si>
+  <si>
+    <t>Michael-CCHex</t>
+  </si>
+  <si>
+    <t>Michael-SNHex</t>
+  </si>
+  <si>
+    <t>[2, 0, 0]</t>
+  </si>
+  <si>
+    <t>[2, 2, 0]</t>
+  </si>
+  <si>
+    <t>[4, 0, 0]</t>
+  </si>
+  <si>
+    <t>[2, 1, 1]</t>
+  </si>
+  <si>
+    <t>[3, 2, 1]</t>
+  </si>
+  <si>
+    <t>[3, 1, 0]</t>
+  </si>
+  <si>
+    <t>[2, 2, 2]</t>
   </si>
   <si>
     <t>[1, 1, 0]</t>
-  </si>
-  <si>
-    <t>[2, 0, 0]</t>
-  </si>
-  <si>
-    <t>[2, 1, 1]</t>
-  </si>
-  <si>
-    <t>[2, 2, 0]</t>
-  </si>
-  <si>
-    <t>[2, 2, 2]</t>
-  </si>
-  <si>
-    <t>[3, 1, 0]</t>
-  </si>
-  <si>
-    <t>[3, 2, 1]</t>
-  </si>
-  <si>
-    <t>[4, 0, 0]</t>
   </si>
   <si>
     <t>1Pair-A</t>
@@ -479,13 +509,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AD19"/>
+  <dimension ref="A1:T29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:30">
+    <row r="1" spans="1:20">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -543,38 +573,8 @@
       <c r="T1" s="1">
         <v>18</v>
       </c>
-      <c r="U1" s="1">
-        <v>19</v>
-      </c>
-      <c r="V1" s="1">
-        <v>20</v>
-      </c>
-      <c r="W1" s="1">
-        <v>21</v>
-      </c>
-      <c r="X1" s="1">
-        <v>22</v>
-      </c>
-      <c r="Y1" s="1">
-        <v>23</v>
-      </c>
-      <c r="Z1" s="1">
-        <v>24</v>
-      </c>
-      <c r="AA1" s="1">
-        <v>25</v>
-      </c>
-      <c r="AB1" s="1">
-        <v>26</v>
-      </c>
-      <c r="AC1" s="1">
-        <v>27</v>
-      </c>
-      <c r="AD1" s="1">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="2" spans="1:30">
+    </row>
+    <row r="2" spans="1:20">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -582,91 +582,61 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="D2" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="E2" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="F2" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="G2" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="H2" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="I2" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="J2" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="K2" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="L2" t="s">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="M2" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="N2" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="O2" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="P2" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="Q2" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="R2" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="S2" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="T2" t="s">
-        <v>35</v>
-      </c>
-      <c r="U2" t="s">
-        <v>26</v>
-      </c>
-      <c r="V2" t="s">
-        <v>27</v>
-      </c>
-      <c r="W2" t="s">
-        <v>28</v>
-      </c>
-      <c r="X2" t="s">
-        <v>29</v>
-      </c>
-      <c r="Y2" t="s">
-        <v>30</v>
-      </c>
-      <c r="Z2" t="s">
-        <v>31</v>
-      </c>
-      <c r="AA2" t="s">
-        <v>32</v>
-      </c>
-      <c r="AB2" t="s">
-        <v>33</v>
-      </c>
-      <c r="AC2" t="s">
-        <v>34</v>
-      </c>
-      <c r="AD2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="3" spans="1:30">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -674,61 +644,61 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>0.9980962656429758</v>
+        <v>1.001236316788594</v>
       </c>
       <c r="D3">
-        <v>1.008386975987148</v>
+        <v>0.9996909552194725</v>
       </c>
       <c r="E3">
-        <v>0.997795887522625</v>
+        <v>1.001236316788594</v>
       </c>
       <c r="F3">
-        <v>0.9980962656429758</v>
+        <v>0.9996914949849508</v>
       </c>
       <c r="G3">
-        <v>0.9940644007378312</v>
+        <v>0.9996913346253671</v>
       </c>
       <c r="H3">
-        <v>1.004682768220944</v>
+        <v>1.000678150066386</v>
       </c>
       <c r="I3">
-        <v>0.9978834580553518</v>
+        <v>0.999180449020113</v>
       </c>
       <c r="J3">
-        <v>1.008386975987148</v>
+        <v>0.9996909552194725</v>
       </c>
       <c r="K3">
-        <v>0.9980962656429758</v>
+        <v>0.9996909552194725</v>
       </c>
       <c r="L3">
-        <v>0.997795887522625</v>
+        <v>0.9996914949849508</v>
       </c>
       <c r="M3">
-        <v>1.003091431754886</v>
+        <v>1.000463905886772</v>
       </c>
       <c r="N3">
-        <v>1.003091431754886</v>
+        <v>1.000463905886772</v>
       </c>
       <c r="O3">
-        <v>1.003621877243572</v>
+        <v>1.00053532061331</v>
       </c>
       <c r="P3">
-        <v>1.00142637638425</v>
+        <v>1.000206255664339</v>
       </c>
       <c r="Q3">
-        <v>1.00142637638425</v>
+        <v>1.000206255664339</v>
       </c>
       <c r="R3">
-        <v>1.000593848698931</v>
+        <v>1.000077430553122</v>
       </c>
       <c r="S3">
-        <v>1.000593848698931</v>
+        <v>1.000077430553122</v>
       </c>
       <c r="T3">
-        <v>1.000151626027813</v>
-      </c>
-    </row>
-    <row r="4" spans="1:30">
+        <v>1.000028116784147</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -736,61 +706,61 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <v>0.9963308609201554</v>
+        <v>0.9541580471561663</v>
       </c>
       <c r="D4">
-        <v>1.016187275119469</v>
+        <v>1.01151024105149</v>
       </c>
       <c r="E4">
-        <v>0.9957430860309134</v>
+        <v>0.9541580471561663</v>
       </c>
       <c r="F4">
-        <v>0.9963308609201554</v>
+        <v>1.011466890529823</v>
       </c>
       <c r="G4">
-        <v>0.9885348394887286</v>
+        <v>1.011479525616632</v>
       </c>
       <c r="H4">
-        <v>1.009039825702461</v>
+        <v>0.9746989615391178</v>
       </c>
       <c r="I4">
-        <v>0.9959144436439981</v>
+        <v>1.030745168606555</v>
       </c>
       <c r="J4">
-        <v>1.016187275119469</v>
+        <v>1.01151024105149</v>
       </c>
       <c r="K4">
-        <v>0.9963308609201554</v>
+        <v>1.01151024105149</v>
       </c>
       <c r="L4">
-        <v>0.9957430860309134</v>
+        <v>1.011466890529823</v>
       </c>
       <c r="M4">
-        <v>1.005965180575191</v>
+        <v>0.9828124688429947</v>
       </c>
       <c r="N4">
-        <v>1.005965180575191</v>
+        <v>0.9828124688429947</v>
       </c>
       <c r="O4">
-        <v>1.006990062284281</v>
+        <v>0.9801079664083691</v>
       </c>
       <c r="P4">
-        <v>1.002753740690179</v>
+        <v>0.9923783929124932</v>
       </c>
       <c r="Q4">
-        <v>1.002753740690179</v>
+        <v>0.9923783929124932</v>
       </c>
       <c r="R4">
-        <v>1.001148020747673</v>
+        <v>0.9971613549472425</v>
       </c>
       <c r="S4">
-        <v>1.001148020747673</v>
+        <v>0.9971613549472425</v>
       </c>
       <c r="T4">
-        <v>1.000291721817621</v>
-      </c>
-    </row>
-    <row r="5" spans="1:30">
+        <v>0.9990098057499641</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -798,61 +768,61 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>0.9929137770560438</v>
+        <v>1.087753613270896</v>
       </c>
       <c r="D5">
-        <v>1.031054576361758</v>
+        <v>0.9763467314193082</v>
       </c>
       <c r="E5">
-        <v>0.9918594754970862</v>
+        <v>1.087753613270896</v>
       </c>
       <c r="F5">
-        <v>0.9929137770560438</v>
+        <v>0.9790150322046075</v>
       </c>
       <c r="G5">
-        <v>0.9780883203980439</v>
+        <v>0.9782370990994205</v>
       </c>
       <c r="H5">
-        <v>1.017325570051867</v>
+        <v>1.047644866880408</v>
       </c>
       <c r="I5">
-        <v>0.9921668459349107</v>
+        <v>0.9445520795172929</v>
       </c>
       <c r="J5">
-        <v>1.031054576361758</v>
+        <v>0.9763467314193082</v>
       </c>
       <c r="K5">
-        <v>0.9929137770560438</v>
+        <v>0.9763467314193082</v>
       </c>
       <c r="L5">
-        <v>0.9918594754970862</v>
+        <v>0.9790150322046075</v>
       </c>
       <c r="M5">
-        <v>1.011457025929422</v>
+        <v>1.033384322737751</v>
       </c>
       <c r="N5">
-        <v>1.011457025929422</v>
+        <v>1.033384322737751</v>
       </c>
       <c r="O5">
-        <v>1.01341320730357</v>
+        <v>1.038137837451971</v>
       </c>
       <c r="P5">
-        <v>1.005275942971629</v>
+        <v>1.01437179229827</v>
       </c>
       <c r="Q5">
-        <v>1.005275942971629</v>
+        <v>1.01437179229827</v>
       </c>
       <c r="R5">
-        <v>1.002185401492733</v>
+        <v>1.00486552707853</v>
       </c>
       <c r="S5">
-        <v>1.002185401492733</v>
+        <v>1.00486552707853</v>
       </c>
       <c r="T5">
-        <v>1.000568094216618</v>
-      </c>
-    </row>
-    <row r="6" spans="1:30">
+        <v>1.002258237065322</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -860,61 +830,61 @@
         <v>4</v>
       </c>
       <c r="C6">
-        <v>0.9895805418991376</v>
+        <v>1.305542244752868</v>
       </c>
       <c r="D6">
-        <v>1.045563393992905</v>
+        <v>0.9150337284625897</v>
       </c>
       <c r="E6">
-        <v>0.98806871800281</v>
+        <v>1.305542244752868</v>
       </c>
       <c r="F6">
-        <v>0.9895805418991376</v>
+        <v>0.9283754666418781</v>
       </c>
       <c r="G6">
-        <v>0.9678913014885043</v>
+        <v>0.9244857447829345</v>
       </c>
       <c r="H6">
-        <v>1.025411974737376</v>
+        <v>1.164977978600851</v>
       </c>
       <c r="I6">
-        <v>0.9885094763022511</v>
+        <v>0.8115114657590696</v>
       </c>
       <c r="J6">
-        <v>1.045563393992905</v>
+        <v>0.9150337284625897</v>
       </c>
       <c r="K6">
-        <v>0.9895805418991376</v>
+        <v>0.9150337284625897</v>
       </c>
       <c r="L6">
-        <v>0.98806871800281</v>
+        <v>0.9283754666418781</v>
       </c>
       <c r="M6">
-        <v>1.016816055997858</v>
+        <v>1.116958855697373</v>
       </c>
       <c r="N6">
-        <v>1.016816055997858</v>
+        <v>1.116958855697373</v>
       </c>
       <c r="O6">
-        <v>1.019681362244364</v>
+        <v>1.132965229998532</v>
       </c>
       <c r="P6">
-        <v>1.007737551298284</v>
+        <v>1.049650479952445</v>
       </c>
       <c r="Q6">
-        <v>1.007737551298284</v>
+        <v>1.049650479952445</v>
       </c>
       <c r="R6">
-        <v>1.003198298948498</v>
+        <v>1.015996292079981</v>
       </c>
       <c r="S6">
-        <v>1.003198298948498</v>
+        <v>1.015996292079981</v>
       </c>
       <c r="T6">
-        <v>1.000837567737164</v>
-      </c>
-    </row>
-    <row r="7" spans="1:30">
+        <v>1.008321104833365</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -922,61 +892,61 @@
         <v>5</v>
       </c>
       <c r="C7">
-        <v>0.9998542399287877</v>
+        <v>1.008283847900709</v>
       </c>
       <c r="D7">
-        <v>1.000554700923606</v>
+        <v>0.9982160093222855</v>
       </c>
       <c r="E7">
-        <v>0.9998653830055104</v>
+        <v>1.008283847900709</v>
       </c>
       <c r="F7">
-        <v>0.9998542399287877</v>
+        <v>0.9977694851446021</v>
       </c>
       <c r="G7">
-        <v>0.9996437475702954</v>
+        <v>0.9978996639339872</v>
       </c>
       <c r="H7">
-        <v>1.000302163463341</v>
+        <v>1.004659821797435</v>
       </c>
       <c r="I7">
-        <v>0.9998621313846106</v>
+        <v>0.9939662440501307</v>
       </c>
       <c r="J7">
-        <v>1.000554700923606</v>
+        <v>0.9982160093222855</v>
       </c>
       <c r="K7">
-        <v>0.9998542399287877</v>
+        <v>0.9982160093222855</v>
       </c>
       <c r="L7">
-        <v>0.9998653830055104</v>
+        <v>0.9977694851446021</v>
       </c>
       <c r="M7">
-        <v>1.000210041964558</v>
+        <v>1.003026666522655</v>
       </c>
       <c r="N7">
-        <v>1.000210041964558</v>
+        <v>1.003026666522655</v>
       </c>
       <c r="O7">
-        <v>1.000240749130819</v>
+        <v>1.003571051614249</v>
       </c>
       <c r="P7">
-        <v>1.000091441285968</v>
+        <v>1.001423114122532</v>
       </c>
       <c r="Q7">
-        <v>1.000091441285968</v>
+        <v>1.001423114122532</v>
       </c>
       <c r="R7">
-        <v>1.000032140946673</v>
+        <v>1.000621337922471</v>
       </c>
       <c r="S7">
-        <v>1.000032140946673</v>
+        <v>1.000621337922471</v>
       </c>
       <c r="T7">
-        <v>1.000013727712692</v>
-      </c>
-    </row>
-    <row r="8" spans="1:30">
+        <v>1.000132512024858</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -984,61 +954,61 @@
         <v>6</v>
       </c>
       <c r="C8">
-        <v>0.9996909552194728</v>
+        <v>1.000707993193457</v>
       </c>
       <c r="D8">
-        <v>1.001236316788594</v>
+        <v>0.999874194202896</v>
       </c>
       <c r="E8">
-        <v>0.9996914949849508</v>
+        <v>1.000707993193457</v>
       </c>
       <c r="F8">
-        <v>0.9996909552194728</v>
+        <v>0.9997944562122064</v>
       </c>
       <c r="G8">
-        <v>0.9991804490201133</v>
+        <v>0.9998177005128078</v>
       </c>
       <c r="H8">
-        <v>1.000678150066386</v>
+        <v>1.00040816290219</v>
       </c>
       <c r="I8">
-        <v>0.9996913346253671</v>
+        <v>0.9994361282314621</v>
       </c>
       <c r="J8">
-        <v>1.001236316788594</v>
+        <v>0.999874194202896</v>
       </c>
       <c r="K8">
-        <v>0.9996909552194728</v>
+        <v>0.999874194202896</v>
       </c>
       <c r="L8">
-        <v>0.9996914949849508</v>
+        <v>0.9997944562122064</v>
       </c>
       <c r="M8">
-        <v>1.000463905886772</v>
+        <v>1.000251224702832</v>
       </c>
       <c r="N8">
-        <v>1.000463905886772</v>
+        <v>1.000251224702832</v>
       </c>
       <c r="O8">
-        <v>1.00053532061331</v>
+        <v>1.000303537435951</v>
       </c>
       <c r="P8">
-        <v>1.000206255664339</v>
+        <v>1.00012554786952</v>
       </c>
       <c r="Q8">
-        <v>1.000206255664339</v>
+        <v>1.00012554786952</v>
       </c>
       <c r="R8">
-        <v>1.000077430553123</v>
+        <v>1.000062709452864</v>
       </c>
       <c r="S8">
-        <v>1.000077430553123</v>
+        <v>1.000062709452864</v>
       </c>
       <c r="T8">
-        <v>1.000028116784147</v>
-      </c>
-    </row>
-    <row r="9" spans="1:30">
+        <v>1.00000643920917</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -1046,61 +1016,61 @@
         <v>7</v>
       </c>
       <c r="C9">
-        <v>0.9996329280209784</v>
+        <v>1.016187275119469</v>
       </c>
       <c r="D9">
-        <v>1.001616917591653</v>
+        <v>0.9963308609201554</v>
       </c>
       <c r="E9">
-        <v>0.9995762086825183</v>
+        <v>1.016187275119469</v>
       </c>
       <c r="F9">
-        <v>0.9996329280209784</v>
+        <v>0.9957430860309134</v>
       </c>
       <c r="G9">
-        <v>0.9988646209624356</v>
+        <v>0.9959144436439981</v>
       </c>
       <c r="H9">
-        <v>1.000899327548291</v>
+        <v>1.009039825702461</v>
       </c>
       <c r="I9">
-        <v>0.9995927419575047</v>
+        <v>0.9885348394887286</v>
       </c>
       <c r="J9">
-        <v>1.001616917591653</v>
+        <v>0.9963308609201554</v>
       </c>
       <c r="K9">
-        <v>0.9996329280209784</v>
+        <v>0.9963308609201554</v>
       </c>
       <c r="L9">
-        <v>0.9995762086825183</v>
+        <v>0.9957430860309134</v>
       </c>
       <c r="M9">
-        <v>1.000596563137085</v>
+        <v>1.005965180575191</v>
       </c>
       <c r="N9">
-        <v>1.000596563137085</v>
+        <v>1.005965180575191</v>
       </c>
       <c r="O9">
-        <v>1.000697484607487</v>
+        <v>1.006990062284281</v>
       </c>
       <c r="P9">
-        <v>1.000275351431716</v>
+        <v>1.002753740690179</v>
       </c>
       <c r="Q9">
-        <v>1.000275351431716</v>
+        <v>1.002753740690179</v>
       </c>
       <c r="R9">
-        <v>1.000114745579032</v>
+        <v>1.001148020747673</v>
       </c>
       <c r="S9">
-        <v>1.000114745579032</v>
+        <v>1.001148020747673</v>
       </c>
       <c r="T9">
-        <v>1.000030457460563</v>
-      </c>
-    </row>
-    <row r="10" spans="1:30">
+        <v>1.000291721817621</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -1108,61 +1078,61 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>0.9991317512354265</v>
+        <v>1.310196708754675</v>
       </c>
       <c r="D10">
-        <v>1.003607632566301</v>
+        <v>0.9136014208682736</v>
       </c>
       <c r="E10">
-        <v>0.9990811746467734</v>
+        <v>1.310196708754675</v>
       </c>
       <c r="F10">
-        <v>0.9991317512354265</v>
+        <v>0.9273607395060881</v>
       </c>
       <c r="G10">
-        <v>0.9975493227540198</v>
+        <v>0.923349273992338</v>
       </c>
       <c r="H10">
-        <v>1.001990773915516</v>
+        <v>1.167442400596209</v>
       </c>
       <c r="I10">
-        <v>0.999095918319166</v>
+        <v>0.8088830884345124</v>
       </c>
       <c r="J10">
-        <v>1.003607632566301</v>
+        <v>0.9136014208682736</v>
       </c>
       <c r="K10">
-        <v>0.9991317512354265</v>
+        <v>0.9136014208682736</v>
       </c>
       <c r="L10">
-        <v>0.9990811746467734</v>
+        <v>0.9273607395060881</v>
       </c>
       <c r="M10">
-        <v>1.001344403606537</v>
+        <v>1.118778724130382</v>
       </c>
       <c r="N10">
-        <v>1.001344403606537</v>
+        <v>1.118778724130382</v>
       </c>
       <c r="O10">
-        <v>1.001559860376197</v>
+        <v>1.134999949618991</v>
       </c>
       <c r="P10">
-        <v>1.000606852816167</v>
+        <v>1.050386289709679</v>
       </c>
       <c r="Q10">
-        <v>1.000606852816167</v>
+        <v>1.050386289709679</v>
       </c>
       <c r="R10">
-        <v>1.000238077420982</v>
+        <v>1.016190072499328</v>
       </c>
       <c r="S10">
-        <v>1.000238077420982</v>
+        <v>1.016190072499328</v>
       </c>
       <c r="T10">
-        <v>1.000076095572867</v>
-      </c>
-    </row>
-    <row r="11" spans="1:30">
+        <v>1.008472272025349</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -1170,61 +1140,61 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>0.9987736669553302</v>
+        <v>0.979417782586029</v>
       </c>
       <c r="D11">
-        <v>1.00561799013218</v>
+        <v>1.007796829230654</v>
       </c>
       <c r="E11">
-        <v>0.9985009399727625</v>
+        <v>0.979417782586029</v>
       </c>
       <c r="F11">
-        <v>0.9987736669553302</v>
+        <v>1.003665828863865</v>
       </c>
       <c r="G11">
-        <v>0.9959732421331577</v>
+        <v>1.0048701992827</v>
       </c>
       <c r="H11">
-        <v>1.003140303581234</v>
+        <v>0.9896553864249871</v>
       </c>
       <c r="I11">
-        <v>0.9985804512571164</v>
+        <v>1.008953710857798</v>
       </c>
       <c r="J11">
-        <v>1.00561799013218</v>
+        <v>1.007796829230654</v>
       </c>
       <c r="K11">
-        <v>0.9987736669553302</v>
+        <v>1.007796829230654</v>
       </c>
       <c r="L11">
-        <v>0.9985009399727625</v>
+        <v>1.003665828863865</v>
       </c>
       <c r="M11">
-        <v>1.002059465052471</v>
+        <v>0.9915418057249468</v>
       </c>
       <c r="N11">
-        <v>1.002059465052471</v>
+        <v>0.9915418057249468</v>
       </c>
       <c r="O11">
-        <v>1.002419744562059</v>
+        <v>0.9909129992916269</v>
       </c>
       <c r="P11">
-        <v>1.000964199020091</v>
+        <v>0.996960146893516</v>
       </c>
       <c r="Q11">
-        <v>1.000964199020091</v>
+        <v>0.996960146893516</v>
       </c>
       <c r="R11">
-        <v>1.000416566003901</v>
+        <v>0.9996693174778004</v>
       </c>
       <c r="S11">
-        <v>1.000416566003901</v>
+        <v>0.9996693174778004</v>
       </c>
       <c r="T11">
-        <v>1.000097765671964</v>
-      </c>
-    </row>
-    <row r="12" spans="1:30">
+        <v>0.9990599562076721</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -1232,61 +1202,61 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>1.024822124234009</v>
+        <v>1.091556774778948</v>
       </c>
       <c r="D12">
-        <v>0.9599247910191417</v>
+        <v>0.9743052244736859</v>
       </c>
       <c r="E12">
-        <v>1.001801925666435</v>
+        <v>1.091556774778948</v>
       </c>
       <c r="F12">
-        <v>1.024822124234009</v>
+        <v>0.9786672138105234</v>
       </c>
       <c r="G12">
-        <v>1.00045725893741</v>
+        <v>0.977395494199998</v>
       </c>
       <c r="H12">
-        <v>0.9832654825769027</v>
+        <v>1.049353225242107</v>
       </c>
       <c r="I12">
-        <v>1.008513345175049</v>
+        <v>0.9439318308736846</v>
       </c>
       <c r="J12">
-        <v>0.9599247910191417</v>
+        <v>0.9743052244736859</v>
       </c>
       <c r="K12">
-        <v>1.024822124234009</v>
+        <v>0.9743052244736859</v>
       </c>
       <c r="L12">
-        <v>1.001801925666435</v>
+        <v>0.9786672138105234</v>
       </c>
       <c r="M12">
-        <v>0.9808633583427885</v>
+        <v>1.035111994294736</v>
       </c>
       <c r="N12">
-        <v>0.9808633583427885</v>
+        <v>1.035111994294736</v>
       </c>
       <c r="O12">
-        <v>0.9816640664208265</v>
+        <v>1.039859071277193</v>
       </c>
       <c r="P12">
-        <v>0.9955162803065286</v>
+        <v>1.014843071021053</v>
       </c>
       <c r="Q12">
-        <v>0.9955162803065286</v>
+        <v>1.014843071021053</v>
       </c>
       <c r="R12">
-        <v>1.002842741288399</v>
+        <v>1.004708609384211</v>
       </c>
       <c r="S12">
-        <v>1.002842741288399</v>
+        <v>1.004708609384211</v>
       </c>
       <c r="T12">
-        <v>0.9964641546014912</v>
-      </c>
-    </row>
-    <row r="13" spans="1:30">
+        <v>1.002534960563158</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1294,61 +1264,61 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>0.9945144354984666</v>
+        <v>0.9400766669191642</v>
       </c>
       <c r="D13">
-        <v>0.9970022412372574</v>
+        <v>1.015214035980532</v>
       </c>
       <c r="E13">
-        <v>1.00420463466407</v>
+        <v>0.9400766669191642</v>
       </c>
       <c r="F13">
-        <v>0.9945144354984666</v>
+        <v>1.014850281958769</v>
       </c>
       <c r="G13">
-        <v>1.013013387683863</v>
+        <v>1.014956329649233</v>
       </c>
       <c r="H13">
-        <v>0.9961336832803341</v>
+        <v>0.9671292284602357</v>
       </c>
       <c r="I13">
-        <v>1.001379500856453</v>
+        <v>1.039526312979367</v>
       </c>
       <c r="J13">
-        <v>0.9970022412372574</v>
+        <v>1.015214035980532</v>
       </c>
       <c r="K13">
-        <v>0.9945144354984666</v>
+        <v>1.015214035980532</v>
       </c>
       <c r="L13">
-        <v>1.00420463466407</v>
+        <v>1.014850281958769</v>
       </c>
       <c r="M13">
-        <v>1.000603437950664</v>
+        <v>0.9774634744389668</v>
       </c>
       <c r="N13">
-        <v>1.000603437950664</v>
+        <v>0.9774634744389668</v>
       </c>
       <c r="O13">
-        <v>0.9991135197272206</v>
+        <v>0.9740187257793899</v>
       </c>
       <c r="P13">
-        <v>0.9985737704665981</v>
+        <v>0.9900469949528219</v>
       </c>
       <c r="Q13">
-        <v>0.9985737704665981</v>
+        <v>0.9900469949528219</v>
       </c>
       <c r="R13">
-        <v>0.9975589367245653</v>
+        <v>0.9963387552097496</v>
       </c>
       <c r="S13">
-        <v>0.9975589367245653</v>
+        <v>0.9963387552097496</v>
       </c>
       <c r="T13">
-        <v>1.001041313870074</v>
-      </c>
-    </row>
-    <row r="14" spans="1:30">
+        <v>0.9986254759912168</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1356,61 +1326,61 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <v>0.9864277544158572</v>
+        <v>1.536180099999999</v>
       </c>
       <c r="D14">
-        <v>0.9700302987427654</v>
+        <v>0.8503200600000009</v>
       </c>
       <c r="E14">
-        <v>1.019192854047593</v>
+        <v>1.536180099999999</v>
       </c>
       <c r="F14">
-        <v>0.9864277544158572</v>
+        <v>0.8746298000000006</v>
       </c>
       <c r="G14">
-        <v>1.057410745746827</v>
+        <v>0.8675424099999991</v>
       </c>
       <c r="H14">
-        <v>0.9759401366091729</v>
+        <v>1.289305499999998</v>
       </c>
       <c r="I14">
-        <v>1.009640330591291</v>
+        <v>0.6702520500000003</v>
       </c>
       <c r="J14">
-        <v>0.9700302987427654</v>
+        <v>0.8503200600000009</v>
       </c>
       <c r="K14">
-        <v>0.9864277544158572</v>
+        <v>0.8503200600000009</v>
       </c>
       <c r="L14">
-        <v>1.019192854047593</v>
+        <v>0.8746298000000006</v>
       </c>
       <c r="M14">
-        <v>0.9946115763951791</v>
+        <v>1.20540495</v>
       </c>
       <c r="N14">
-        <v>0.9946115763951791</v>
+        <v>1.20540495</v>
       </c>
       <c r="O14">
-        <v>0.988387763133177</v>
+        <v>1.233371799999999</v>
       </c>
       <c r="P14">
-        <v>0.9918836357354052</v>
+        <v>1.08704332</v>
       </c>
       <c r="Q14">
-        <v>0.9918836357354049</v>
+        <v>1.08704332</v>
       </c>
       <c r="R14">
-        <v>0.9905196654055181</v>
+        <v>1.027862505</v>
       </c>
       <c r="S14">
-        <v>0.9905196654055181</v>
+        <v>1.027862505</v>
       </c>
       <c r="T14">
-        <v>1.003107020025584</v>
-      </c>
-    </row>
-    <row r="15" spans="1:30">
+        <v>1.014704986666666</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1418,61 +1388,61 @@
         <v>13</v>
       </c>
       <c r="C15">
-        <v>1.013054072656479</v>
+        <v>0.7563714999999999</v>
       </c>
       <c r="D15">
-        <v>0.9825145013590952</v>
+        <v>1.1248129</v>
       </c>
       <c r="E15">
-        <v>0.9995533493921123</v>
+        <v>0.7563714999999999</v>
       </c>
       <c r="F15">
-        <v>1.013054072656479</v>
+        <v>1.0262848</v>
       </c>
       <c r="G15">
-        <v>0.9962665858300779</v>
+        <v>1.0550102</v>
       </c>
       <c r="H15">
-        <v>0.993491053930485</v>
+        <v>0.88627042</v>
       </c>
       <c r="I15">
-        <v>1.003489414092796</v>
+        <v>1.055856</v>
       </c>
       <c r="J15">
-        <v>0.9825145013590952</v>
+        <v>1.1248129</v>
       </c>
       <c r="K15">
-        <v>1.013054072656479</v>
+        <v>1.1248129</v>
       </c>
       <c r="L15">
-        <v>0.9995533493921123</v>
+        <v>1.0262848</v>
       </c>
       <c r="M15">
-        <v>0.9910339253756038</v>
+        <v>0.8913281499999999</v>
       </c>
       <c r="N15">
-        <v>0.9910339253756038</v>
+        <v>0.8913281499999999</v>
       </c>
       <c r="O15">
-        <v>0.9918529682272309</v>
+        <v>0.88964224</v>
       </c>
       <c r="P15">
-        <v>0.9983739744692288</v>
+        <v>0.9691563999999998</v>
       </c>
       <c r="Q15">
-        <v>0.9983739744692288</v>
+        <v>0.9691564</v>
       </c>
       <c r="R15">
-        <v>1.002043999016041</v>
+        <v>1.008070525</v>
       </c>
       <c r="S15">
-        <v>1.002043999016041</v>
+        <v>1.008070525</v>
       </c>
       <c r="T15">
-        <v>0.9980614962101741</v>
-      </c>
-    </row>
-    <row r="16" spans="1:30">
+        <v>0.9841009700000001</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1480,58 +1450,58 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>0.9999277268812724</v>
+        <v>0.66302443</v>
       </c>
       <c r="D16">
-        <v>1.000074598703861</v>
+        <v>1.0906323</v>
       </c>
       <c r="E16">
-        <v>1.000011217276898</v>
+        <v>0.66302443</v>
       </c>
       <c r="F16">
-        <v>0.9999277268812724</v>
+        <v>1.0811407</v>
       </c>
       <c r="G16">
-        <v>1.000046181721953</v>
+        <v>1.0839079</v>
       </c>
       <c r="H16">
-        <v>1.000021497045691</v>
+        <v>0.81557631</v>
       </c>
       <c r="I16">
-        <v>0.9999868730001432</v>
+        <v>1.2168605</v>
       </c>
       <c r="J16">
-        <v>1.000074598703861</v>
+        <v>1.0906323</v>
       </c>
       <c r="K16">
-        <v>0.9999277268812724</v>
+        <v>1.0906323</v>
       </c>
       <c r="L16">
-        <v>1.000011217276898</v>
+        <v>1.0811407</v>
       </c>
       <c r="M16">
-        <v>1.000042907990379</v>
+        <v>0.8720825649999999</v>
       </c>
       <c r="N16">
-        <v>1.000042907990379</v>
+        <v>0.8720825649999999</v>
       </c>
       <c r="O16">
-        <v>1.000035771008817</v>
+        <v>0.8532471466666666</v>
       </c>
       <c r="P16">
-        <v>1.000004514287344</v>
+        <v>0.9449324766666667</v>
       </c>
       <c r="Q16">
-        <v>1.000004514287344</v>
+        <v>0.9449324766666667</v>
       </c>
       <c r="R16">
-        <v>0.999985317435826</v>
+        <v>0.9813574325000001</v>
       </c>
       <c r="S16">
-        <v>0.999985317435826</v>
+        <v>0.9813574325000001</v>
       </c>
       <c r="T16">
-        <v>1.00001134910497</v>
+        <v>0.9918570233333334</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1542,58 +1512,58 @@
         <v>15</v>
       </c>
       <c r="C17">
-        <v>0.999874194202896</v>
+        <v>0.63724602</v>
       </c>
       <c r="D17">
-        <v>1.000707993193457</v>
+        <v>1.0747053</v>
       </c>
       <c r="E17">
-        <v>0.9997944562122064</v>
+        <v>0.63724602</v>
       </c>
       <c r="F17">
-        <v>0.999874194202896</v>
+        <v>1.0998657</v>
       </c>
       <c r="G17">
-        <v>0.999436128231462</v>
+        <v>1.0925303</v>
       </c>
       <c r="H17">
-        <v>1.00040816290219</v>
+        <v>0.79380554</v>
       </c>
       <c r="I17">
-        <v>0.9998177005128078</v>
+        <v>1.2726318</v>
       </c>
       <c r="J17">
-        <v>1.000707993193457</v>
+        <v>1.0747053</v>
       </c>
       <c r="K17">
-        <v>0.999874194202896</v>
+        <v>1.0747053</v>
       </c>
       <c r="L17">
-        <v>0.9997944562122064</v>
+        <v>1.0998657</v>
       </c>
       <c r="M17">
-        <v>1.000251224702832</v>
+        <v>0.8685558600000001</v>
       </c>
       <c r="N17">
-        <v>1.000251224702832</v>
+        <v>0.8685558600000001</v>
       </c>
       <c r="O17">
-        <v>1.000303537435951</v>
+        <v>0.8436390866666668</v>
       </c>
       <c r="P17">
-        <v>1.00012554786952</v>
+        <v>0.9372723400000001</v>
       </c>
       <c r="Q17">
-        <v>1.00012554786952</v>
+        <v>0.9372723399999999</v>
       </c>
       <c r="R17">
-        <v>1.000062709452864</v>
+        <v>0.97163058</v>
       </c>
       <c r="S17">
-        <v>1.000062709452864</v>
+        <v>0.97163058</v>
       </c>
       <c r="T17">
-        <v>1.00000643920917</v>
+        <v>0.9951307766666666</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1604,58 +1574,58 @@
         <v>16</v>
       </c>
       <c r="C18">
-        <v>0.999261564253627</v>
+        <v>1.18728414739726</v>
       </c>
       <c r="D18">
-        <v>1.0026769688307</v>
+        <v>0.9588558205479455</v>
       </c>
       <c r="E18">
-        <v>0.9993693730325173</v>
+        <v>1.18728414739726</v>
       </c>
       <c r="F18">
-        <v>0.999261564253627</v>
+        <v>0.9500341912328767</v>
       </c>
       <c r="G18">
-        <v>0.998339752940678</v>
+        <v>0.9526060854794524</v>
       </c>
       <c r="H18">
-        <v>1.00144688204732</v>
+        <v>1.105021846575342</v>
       </c>
       <c r="I18">
-        <v>0.9993379413566184</v>
+        <v>0.8651239890410956</v>
       </c>
       <c r="J18">
-        <v>1.0026769688307</v>
+        <v>0.9588558205479455</v>
       </c>
       <c r="K18">
-        <v>0.999261564253627</v>
+        <v>0.9588558205479455</v>
       </c>
       <c r="L18">
-        <v>0.9993693730325173</v>
+        <v>0.9500341912328767</v>
       </c>
       <c r="M18">
-        <v>1.001023170931608</v>
+        <v>1.068659169315068</v>
       </c>
       <c r="N18">
-        <v>1.001023170931608</v>
+        <v>1.068659169315068</v>
       </c>
       <c r="O18">
-        <v>1.001164407970179</v>
+        <v>1.08078006173516</v>
       </c>
       <c r="P18">
-        <v>1.000435968705615</v>
+        <v>1.032058053059361</v>
       </c>
       <c r="Q18">
-        <v>1.000435968705615</v>
+        <v>1.032058053059361</v>
       </c>
       <c r="R18">
-        <v>1.000142367592618</v>
+        <v>1.013757494931507</v>
       </c>
       <c r="S18">
-        <v>1.000142367592618</v>
+        <v>1.013757494931507</v>
       </c>
       <c r="T18">
-        <v>1.000072080410243</v>
+        <v>1.003154346712329</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1666,58 +1636,678 @@
         <v>17</v>
       </c>
       <c r="C19">
-        <v>0.9981220168318269</v>
+        <v>0.9475528578947369</v>
       </c>
       <c r="D19">
-        <v>1.006364294873917</v>
+        <v>0.9952692626315791</v>
       </c>
       <c r="E19">
-        <v>0.9985691457185338</v>
+        <v>0.9475528578947369</v>
       </c>
       <c r="F19">
-        <v>0.9981220168318269</v>
+        <v>1.023263932105263</v>
       </c>
       <c r="G19">
-        <v>0.9962737519097526</v>
+        <v>1.015102218947368</v>
       </c>
       <c r="H19">
-        <v>1.003394524773729</v>
+        <v>0.963985404736842</v>
       </c>
       <c r="I19">
-        <v>0.9984387823900861</v>
+        <v>1.068601898421053</v>
       </c>
       <c r="J19">
-        <v>1.006364294873917</v>
+        <v>0.9952692626315791</v>
       </c>
       <c r="K19">
-        <v>0.9981220168318269</v>
+        <v>0.9952692626315791</v>
       </c>
       <c r="L19">
-        <v>0.9985691457185338</v>
+        <v>1.023263932105263</v>
       </c>
       <c r="M19">
-        <v>1.002466720296225</v>
+        <v>0.9854083950000001</v>
       </c>
       <c r="N19">
-        <v>1.002466720296225</v>
+        <v>0.9854083950000001</v>
       </c>
       <c r="O19">
-        <v>1.002775988455393</v>
+        <v>0.978267398245614</v>
       </c>
       <c r="P19">
-        <v>1.001018485808092</v>
+        <v>0.9886953508771931</v>
       </c>
       <c r="Q19">
-        <v>1.001018485808092</v>
+        <v>0.9886953508771931</v>
       </c>
       <c r="R19">
-        <v>1.000294368564026</v>
+        <v>0.9903388288157896</v>
       </c>
       <c r="S19">
-        <v>1.000294368564026</v>
+        <v>0.9903388288157896</v>
       </c>
       <c r="T19">
-        <v>1.000193752749641</v>
+        <v>1.002295929122807</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
+        <v>18</v>
+      </c>
+      <c r="C20">
+        <v>0.8902969368421051</v>
+      </c>
+      <c r="D20">
+        <v>1.027473054210526</v>
+      </c>
+      <c r="E20">
+        <v>0.8902969368421051</v>
+      </c>
+      <c r="F20">
+        <v>1.027537886315789</v>
+      </c>
+      <c r="G20">
+        <v>1.027518977894737</v>
+      </c>
+      <c r="H20">
+        <v>0.9392498763157894</v>
+      </c>
+      <c r="I20">
+        <v>1.07415846</v>
+      </c>
+      <c r="J20">
+        <v>1.027473054210526</v>
+      </c>
+      <c r="K20">
+        <v>1.027473054210526</v>
+      </c>
+      <c r="L20">
+        <v>1.027537886315789</v>
+      </c>
+      <c r="M20">
+        <v>0.9589174115789472</v>
+      </c>
+      <c r="N20">
+        <v>0.9589174115789472</v>
+      </c>
+      <c r="O20">
+        <v>0.9523615664912279</v>
+      </c>
+      <c r="P20">
+        <v>0.9817692924561402</v>
+      </c>
+      <c r="Q20">
+        <v>0.9817692924561402</v>
+      </c>
+      <c r="R20">
+        <v>0.9931952328947368</v>
+      </c>
+      <c r="S20">
+        <v>0.9931952328947368</v>
+      </c>
+      <c r="T20">
+        <v>0.9977058652631579</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
+        <v>19</v>
+      </c>
+      <c r="C21">
+        <v>0.9700302987427654</v>
+      </c>
+      <c r="D21">
+        <v>0.9864277544158573</v>
+      </c>
+      <c r="E21">
+        <v>0.9700302987427654</v>
+      </c>
+      <c r="F21">
+        <v>1.019192854047593</v>
+      </c>
+      <c r="G21">
+        <v>1.009640330591291</v>
+      </c>
+      <c r="H21">
+        <v>0.9759401366091729</v>
+      </c>
+      <c r="I21">
+        <v>1.057410745746827</v>
+      </c>
+      <c r="J21">
+        <v>0.9864277544158573</v>
+      </c>
+      <c r="K21">
+        <v>0.9864277544158573</v>
+      </c>
+      <c r="L21">
+        <v>1.019192854047593</v>
+      </c>
+      <c r="M21">
+        <v>0.9946115763951792</v>
+      </c>
+      <c r="N21">
+        <v>0.9946115763951792</v>
+      </c>
+      <c r="O21">
+        <v>0.9883877631331771</v>
+      </c>
+      <c r="P21">
+        <v>0.9918836357354053</v>
+      </c>
+      <c r="Q21">
+        <v>0.9918836357354053</v>
+      </c>
+      <c r="R21">
+        <v>0.9905196654055183</v>
+      </c>
+      <c r="S21">
+        <v>0.9905196654055183</v>
+      </c>
+      <c r="T21">
+        <v>1.003107020025584</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" s="1">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
+        <v>20</v>
+      </c>
+      <c r="C22">
+        <v>0.9825145013590952</v>
+      </c>
+      <c r="D22">
+        <v>1.013054072656479</v>
+      </c>
+      <c r="E22">
+        <v>0.9825145013590952</v>
+      </c>
+      <c r="F22">
+        <v>0.9995533493921123</v>
+      </c>
+      <c r="G22">
+        <v>1.003489414092796</v>
+      </c>
+      <c r="H22">
+        <v>0.993491053930485</v>
+      </c>
+      <c r="I22">
+        <v>0.9962665858300779</v>
+      </c>
+      <c r="J22">
+        <v>1.013054072656479</v>
+      </c>
+      <c r="K22">
+        <v>1.013054072656479</v>
+      </c>
+      <c r="L22">
+        <v>0.9995533493921123</v>
+      </c>
+      <c r="M22">
+        <v>0.9910339253756038</v>
+      </c>
+      <c r="N22">
+        <v>0.9910339253756038</v>
+      </c>
+      <c r="O22">
+        <v>0.9918529682272309</v>
+      </c>
+      <c r="P22">
+        <v>0.9983739744692288</v>
+      </c>
+      <c r="Q22">
+        <v>0.9983739744692288</v>
+      </c>
+      <c r="R22">
+        <v>1.002043999016041</v>
+      </c>
+      <c r="S22">
+        <v>1.002043999016041</v>
+      </c>
+      <c r="T22">
+        <v>0.9980614962101741</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" s="1">
+        <v>21</v>
+      </c>
+      <c r="B23" t="s">
+        <v>21</v>
+      </c>
+      <c r="C23">
+        <v>0.9599247910191417</v>
+      </c>
+      <c r="D23">
+        <v>1.024822124234009</v>
+      </c>
+      <c r="E23">
+        <v>0.9599247910191417</v>
+      </c>
+      <c r="F23">
+        <v>1.001801925666435</v>
+      </c>
+      <c r="G23">
+        <v>1.008513345175049</v>
+      </c>
+      <c r="H23">
+        <v>0.9832654825769027</v>
+      </c>
+      <c r="I23">
+        <v>1.00045725893741</v>
+      </c>
+      <c r="J23">
+        <v>1.024822124234009</v>
+      </c>
+      <c r="K23">
+        <v>1.024822124234009</v>
+      </c>
+      <c r="L23">
+        <v>1.001801925666435</v>
+      </c>
+      <c r="M23">
+        <v>0.9808633583427885</v>
+      </c>
+      <c r="N23">
+        <v>0.9808633583427885</v>
+      </c>
+      <c r="O23">
+        <v>0.9816640664208265</v>
+      </c>
+      <c r="P23">
+        <v>0.9955162803065286</v>
+      </c>
+      <c r="Q23">
+        <v>0.9955162803065286</v>
+      </c>
+      <c r="R23">
+        <v>1.002842741288399</v>
+      </c>
+      <c r="S23">
+        <v>1.002842741288399</v>
+      </c>
+      <c r="T23">
+        <v>0.9964641546014912</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" s="1">
+        <v>22</v>
+      </c>
+      <c r="B24" t="s">
+        <v>22</v>
+      </c>
+      <c r="C24">
+        <v>0.9970022412372574</v>
+      </c>
+      <c r="D24">
+        <v>0.9945144354984666</v>
+      </c>
+      <c r="E24">
+        <v>0.9970022412372574</v>
+      </c>
+      <c r="F24">
+        <v>1.00420463466407</v>
+      </c>
+      <c r="G24">
+        <v>1.001379500856453</v>
+      </c>
+      <c r="H24">
+        <v>0.9961336832803341</v>
+      </c>
+      <c r="I24">
+        <v>1.013013387683863</v>
+      </c>
+      <c r="J24">
+        <v>0.9945144354984666</v>
+      </c>
+      <c r="K24">
+        <v>0.9945144354984666</v>
+      </c>
+      <c r="L24">
+        <v>1.00420463466407</v>
+      </c>
+      <c r="M24">
+        <v>1.000603437950664</v>
+      </c>
+      <c r="N24">
+        <v>1.000603437950664</v>
+      </c>
+      <c r="O24">
+        <v>0.9991135197272206</v>
+      </c>
+      <c r="P24">
+        <v>0.9985737704665981</v>
+      </c>
+      <c r="Q24">
+        <v>0.9985737704665981</v>
+      </c>
+      <c r="R24">
+        <v>0.9975589367245653</v>
+      </c>
+      <c r="S24">
+        <v>0.9975589367245653</v>
+      </c>
+      <c r="T24">
+        <v>1.001041313870074</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" s="1">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>23</v>
+      </c>
+      <c r="C25">
+        <v>0.8245571252994573</v>
+      </c>
+      <c r="D25">
+        <v>1.049748903744113</v>
+      </c>
+      <c r="E25">
+        <v>0.8245571252994573</v>
+      </c>
+      <c r="F25">
+        <v>1.040589193293728</v>
+      </c>
+      <c r="G25">
+        <v>1.043259663994474</v>
+      </c>
+      <c r="H25">
+        <v>0.9056271558208652</v>
+      </c>
+      <c r="I25">
+        <v>1.106491479191727</v>
+      </c>
+      <c r="J25">
+        <v>1.049748903744113</v>
+      </c>
+      <c r="K25">
+        <v>1.049748903744113</v>
+      </c>
+      <c r="L25">
+        <v>1.040589193293728</v>
+      </c>
+      <c r="M25">
+        <v>0.9325731592965927</v>
+      </c>
+      <c r="N25">
+        <v>0.9325731592965927</v>
+      </c>
+      <c r="O25">
+        <v>0.9235911581380168</v>
+      </c>
+      <c r="P25">
+        <v>0.9716317407790994</v>
+      </c>
+      <c r="Q25">
+        <v>0.9716317407790994</v>
+      </c>
+      <c r="R25">
+        <v>0.9911610315203527</v>
+      </c>
+      <c r="S25">
+        <v>0.9911610315203527</v>
+      </c>
+      <c r="T25">
+        <v>0.9950455868907273</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" s="1">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>24</v>
+      </c>
+      <c r="C26">
+        <v>0.956869819880765</v>
+      </c>
+      <c r="D26">
+        <v>1.008383564038345</v>
+      </c>
+      <c r="E26">
+        <v>0.956869819880765</v>
+      </c>
+      <c r="F26">
+        <v>1.012112863014643</v>
+      </c>
+      <c r="G26">
+        <v>1.011025604402078</v>
+      </c>
+      <c r="H26">
+        <v>0.9754224008297543</v>
+      </c>
+      <c r="I26">
+        <v>1.032998676017813</v>
+      </c>
+      <c r="J26">
+        <v>1.008383564038345</v>
+      </c>
+      <c r="K26">
+        <v>1.008383564038345</v>
+      </c>
+      <c r="L26">
+        <v>1.012112863014643</v>
+      </c>
+      <c r="M26">
+        <v>0.9844913414477042</v>
+      </c>
+      <c r="N26">
+        <v>0.9844913414477042</v>
+      </c>
+      <c r="O26">
+        <v>0.9814683612417209</v>
+      </c>
+      <c r="P26">
+        <v>0.9924554156445843</v>
+      </c>
+      <c r="Q26">
+        <v>0.9924554156445843</v>
+      </c>
+      <c r="R26">
+        <v>0.9964374527430244</v>
+      </c>
+      <c r="S26">
+        <v>0.9964374527430244</v>
+      </c>
+      <c r="T26">
+        <v>0.9994688213638998</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20">
+      <c r="A27" s="1">
+        <v>25</v>
+      </c>
+      <c r="B27" t="s">
+        <v>25</v>
+      </c>
+      <c r="C27">
+        <v>1.031683241182285</v>
+      </c>
+      <c r="D27">
+        <v>0.9929707721871059</v>
+      </c>
+      <c r="E27">
+        <v>1.031683241182285</v>
+      </c>
+      <c r="F27">
+        <v>0.9917823738842108</v>
+      </c>
+      <c r="G27">
+        <v>0.9921288316962059</v>
+      </c>
+      <c r="H27">
+        <v>1.017129343473248</v>
+      </c>
+      <c r="I27">
+        <v>0.9788808288892682</v>
+      </c>
+      <c r="J27">
+        <v>0.9929707721871059</v>
+      </c>
+      <c r="K27">
+        <v>0.9929707721871059</v>
+      </c>
+      <c r="L27">
+        <v>0.9917823738842108</v>
+      </c>
+      <c r="M27">
+        <v>1.011732807533248</v>
+      </c>
+      <c r="N27">
+        <v>1.011732807533248</v>
+      </c>
+      <c r="O27">
+        <v>1.013531652846581</v>
+      </c>
+      <c r="P27">
+        <v>1.0054787957512</v>
+      </c>
+      <c r="Q27">
+        <v>1.005478795751201</v>
+      </c>
+      <c r="R27">
+        <v>1.002351789860177</v>
+      </c>
+      <c r="S27">
+        <v>1.002351789860177</v>
+      </c>
+      <c r="T27">
+        <v>1.000762565218721</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20">
+      <c r="A28" s="1">
+        <v>26</v>
+      </c>
+      <c r="B28" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28">
+        <v>0.9652678698951229</v>
+      </c>
+      <c r="D28">
+        <v>1.006471411557253</v>
+      </c>
+      <c r="E28">
+        <v>0.9652678698951229</v>
+      </c>
+      <c r="F28">
+        <v>1.009909042879628</v>
+      </c>
+      <c r="G28">
+        <v>1.008906812998071</v>
+      </c>
+      <c r="H28">
+        <v>0.9801094462256198</v>
+      </c>
+      <c r="I28">
+        <v>1.027065160463498</v>
+      </c>
+      <c r="J28">
+        <v>1.006471411557253</v>
+      </c>
+      <c r="K28">
+        <v>1.006471411557253</v>
+      </c>
+      <c r="L28">
+        <v>1.009909042879628</v>
+      </c>
+      <c r="M28">
+        <v>0.9875884563873756</v>
+      </c>
+      <c r="N28">
+        <v>0.9875884563873756</v>
+      </c>
+      <c r="O28">
+        <v>0.9850954530001236</v>
+      </c>
+      <c r="P28">
+        <v>0.9938827747773348</v>
+      </c>
+      <c r="Q28">
+        <v>0.9938827747773348</v>
+      </c>
+      <c r="R28">
+        <v>0.9970299339723143</v>
+      </c>
+      <c r="S28">
+        <v>0.9970299339723143</v>
+      </c>
+      <c r="T28">
+        <v>0.9996216240031989</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20">
+      <c r="A29" s="1">
+        <v>27</v>
+      </c>
+      <c r="B29" t="s">
+        <v>27</v>
+      </c>
+      <c r="C29">
+        <v>0.8692514301182257</v>
+      </c>
+      <c r="D29">
+        <v>1.032316957401619</v>
+      </c>
+      <c r="E29">
+        <v>0.8692514301182257</v>
+      </c>
+      <c r="F29">
+        <v>1.03285998040531</v>
+      </c>
+      <c r="G29">
+        <v>1.032701665465637</v>
+      </c>
+      <c r="H29">
+        <v>0.9280570906823112</v>
+      </c>
+      <c r="I29">
+        <v>1.087561264402947</v>
+      </c>
+      <c r="J29">
+        <v>1.032316957401619</v>
+      </c>
+      <c r="K29">
+        <v>1.032316957401619</v>
+      </c>
+      <c r="L29">
+        <v>1.03285998040531</v>
+      </c>
+      <c r="M29">
+        <v>0.9510557052617677</v>
+      </c>
+      <c r="N29">
+        <v>0.9510557052617677</v>
+      </c>
+      <c r="O29">
+        <v>0.9433895004019489</v>
+      </c>
+      <c r="P29">
+        <v>0.9781427893083849</v>
+      </c>
+      <c r="Q29">
+        <v>0.9781427893083849</v>
+      </c>
+      <c r="R29">
+        <v>0.9916863313316935</v>
+      </c>
+      <c r="S29">
+        <v>0.9916863313316935</v>
+      </c>
+      <c r="T29">
+        <v>0.9971247314126751</v>
       </c>
     </row>
   </sheetData>

--- a/JupyterNotebooks/AvgHW/Alpha1F-HW30.xlsx
+++ b/JupyterNotebooks/AvgHW/Alpha1F-HW30.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="48">
   <si>
     <t>HKL</t>
   </si>
@@ -22,6 +22,12 @@
     <t>Spiral5</t>
   </si>
   <si>
+    <t>Holden</t>
+  </si>
+  <si>
+    <t>Rizzie Spiral</t>
+  </si>
+  <si>
     <t>RotRing OmegaMax-90</t>
   </si>
   <si>
@@ -37,7 +43,7 @@
     <t>Rizzie Hex</t>
   </si>
   <si>
-    <t>Thomas Hex</t>
+    <t>Matthies Hex</t>
   </si>
   <si>
     <t>Tilt Rotate_Partial</t>
@@ -509,7 +515,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T29"/>
+  <dimension ref="A1:T31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -582,58 +588,58 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="I2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="J2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="K2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="L2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="M2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="N2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="O2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="P2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="Q2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="R2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="S2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="T2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -706,58 +712,58 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <v>0.9541580471561663</v>
+        <v>1.077756374824521</v>
       </c>
       <c r="D4">
-        <v>1.01151024105149</v>
+        <v>0.9787521393534873</v>
       </c>
       <c r="E4">
-        <v>0.9541580471561663</v>
+        <v>1.077756374824521</v>
       </c>
       <c r="F4">
-        <v>1.011466890529823</v>
+        <v>0.9815628076608958</v>
       </c>
       <c r="G4">
-        <v>1.011479525616632</v>
+        <v>0.9807433682582635</v>
       </c>
       <c r="H4">
-        <v>0.9746989615391178</v>
+        <v>1.04212409400725</v>
       </c>
       <c r="I4">
-        <v>1.030745168606555</v>
+        <v>0.9513542277181427</v>
       </c>
       <c r="J4">
-        <v>1.01151024105149</v>
+        <v>0.9787521393534873</v>
       </c>
       <c r="K4">
-        <v>1.01151024105149</v>
+        <v>0.9787521393534873</v>
       </c>
       <c r="L4">
-        <v>1.011466890529823</v>
+        <v>0.9815628076608958</v>
       </c>
       <c r="M4">
-        <v>0.9828124688429947</v>
+        <v>1.029659591242708</v>
       </c>
       <c r="N4">
-        <v>0.9828124688429947</v>
+        <v>1.029659591242708</v>
       </c>
       <c r="O4">
-        <v>0.9801079664083691</v>
+        <v>1.033814425497556</v>
       </c>
       <c r="P4">
-        <v>0.9923783929124932</v>
+        <v>1.012690440612968</v>
       </c>
       <c r="Q4">
-        <v>0.9923783929124932</v>
+        <v>1.012690440612968</v>
       </c>
       <c r="R4">
-        <v>0.9971613549472425</v>
+        <v>1.004205865298098</v>
       </c>
       <c r="S4">
-        <v>0.9971613549472425</v>
+        <v>1.004205865298098</v>
       </c>
       <c r="T4">
-        <v>0.9990098057499641</v>
+        <v>1.00204883530376</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -768,58 +774,58 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>1.087753613270896</v>
+        <v>0.842042086585212</v>
       </c>
       <c r="D5">
-        <v>0.9763467314193082</v>
+        <v>1.039110085013585</v>
       </c>
       <c r="E5">
-        <v>1.087753613270896</v>
+        <v>0.842042086585212</v>
       </c>
       <c r="F5">
-        <v>0.9790150322046075</v>
+        <v>1.039834356056666</v>
       </c>
       <c r="G5">
-        <v>0.9782370990994205</v>
+        <v>1.039623190562565</v>
       </c>
       <c r="H5">
-        <v>1.047644866880408</v>
+        <v>0.9125694395614324</v>
       </c>
       <c r="I5">
-        <v>0.9445520795172929</v>
+        <v>1.107052598873971</v>
       </c>
       <c r="J5">
-        <v>0.9763467314193082</v>
+        <v>1.039110085013585</v>
       </c>
       <c r="K5">
-        <v>0.9763467314193082</v>
+        <v>1.039110085013585</v>
       </c>
       <c r="L5">
-        <v>0.9790150322046075</v>
+        <v>1.039834356056666</v>
       </c>
       <c r="M5">
-        <v>1.033384322737751</v>
+        <v>0.9409382213209392</v>
       </c>
       <c r="N5">
-        <v>1.033384322737751</v>
+        <v>0.9409382213209392</v>
       </c>
       <c r="O5">
-        <v>1.038137837451971</v>
+        <v>0.931481960734437</v>
       </c>
       <c r="P5">
-        <v>1.01437179229827</v>
+        <v>0.9736621758851544</v>
       </c>
       <c r="Q5">
-        <v>1.01437179229827</v>
+        <v>0.9736621758851544</v>
       </c>
       <c r="R5">
-        <v>1.00486552707853</v>
+        <v>0.9900241531672619</v>
       </c>
       <c r="S5">
-        <v>1.00486552707853</v>
+        <v>0.9900241531672619</v>
       </c>
       <c r="T5">
-        <v>1.002258237065322</v>
+        <v>0.9967052927755718</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -830,58 +836,58 @@
         <v>4</v>
       </c>
       <c r="C6">
-        <v>1.305542244752868</v>
+        <v>0.9541580471561663</v>
       </c>
       <c r="D6">
-        <v>0.9150337284625897</v>
+        <v>1.01151024105149</v>
       </c>
       <c r="E6">
-        <v>1.305542244752868</v>
+        <v>0.9541580471561663</v>
       </c>
       <c r="F6">
-        <v>0.9283754666418781</v>
+        <v>1.011466890529823</v>
       </c>
       <c r="G6">
-        <v>0.9244857447829345</v>
+        <v>1.011479525616632</v>
       </c>
       <c r="H6">
-        <v>1.164977978600851</v>
+        <v>0.9746989615391178</v>
       </c>
       <c r="I6">
-        <v>0.8115114657590696</v>
+        <v>1.030745168606555</v>
       </c>
       <c r="J6">
-        <v>0.9150337284625897</v>
+        <v>1.01151024105149</v>
       </c>
       <c r="K6">
-        <v>0.9150337284625897</v>
+        <v>1.01151024105149</v>
       </c>
       <c r="L6">
-        <v>0.9283754666418781</v>
+        <v>1.011466890529823</v>
       </c>
       <c r="M6">
-        <v>1.116958855697373</v>
+        <v>0.9828124688429947</v>
       </c>
       <c r="N6">
-        <v>1.116958855697373</v>
+        <v>0.9828124688429947</v>
       </c>
       <c r="O6">
-        <v>1.132965229998532</v>
+        <v>0.9801079664083691</v>
       </c>
       <c r="P6">
-        <v>1.049650479952445</v>
+        <v>0.9923783929124932</v>
       </c>
       <c r="Q6">
-        <v>1.049650479952445</v>
+        <v>0.9923783929124932</v>
       </c>
       <c r="R6">
-        <v>1.015996292079981</v>
+        <v>0.9971613549472425</v>
       </c>
       <c r="S6">
-        <v>1.015996292079981</v>
+        <v>0.9971613549472425</v>
       </c>
       <c r="T6">
-        <v>1.008321104833365</v>
+        <v>0.9990098057499641</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -892,58 +898,58 @@
         <v>5</v>
       </c>
       <c r="C7">
-        <v>1.008283847900709</v>
+        <v>1.087753613270896</v>
       </c>
       <c r="D7">
-        <v>0.9982160093222855</v>
+        <v>0.9763467314193082</v>
       </c>
       <c r="E7">
-        <v>1.008283847900709</v>
+        <v>1.087753613270896</v>
       </c>
       <c r="F7">
-        <v>0.9977694851446021</v>
+        <v>0.9790150322046075</v>
       </c>
       <c r="G7">
-        <v>0.9978996639339872</v>
+        <v>0.9782370990994205</v>
       </c>
       <c r="H7">
-        <v>1.004659821797435</v>
+        <v>1.047644866880408</v>
       </c>
       <c r="I7">
-        <v>0.9939662440501307</v>
+        <v>0.9445520795172929</v>
       </c>
       <c r="J7">
-        <v>0.9982160093222855</v>
+        <v>0.9763467314193082</v>
       </c>
       <c r="K7">
-        <v>0.9982160093222855</v>
+        <v>0.9763467314193082</v>
       </c>
       <c r="L7">
-        <v>0.9977694851446021</v>
+        <v>0.9790150322046075</v>
       </c>
       <c r="M7">
-        <v>1.003026666522655</v>
+        <v>1.033384322737751</v>
       </c>
       <c r="N7">
-        <v>1.003026666522655</v>
+        <v>1.033384322737751</v>
       </c>
       <c r="O7">
-        <v>1.003571051614249</v>
+        <v>1.038137837451971</v>
       </c>
       <c r="P7">
-        <v>1.001423114122532</v>
+        <v>1.01437179229827</v>
       </c>
       <c r="Q7">
-        <v>1.001423114122532</v>
+        <v>1.01437179229827</v>
       </c>
       <c r="R7">
-        <v>1.000621337922471</v>
+        <v>1.00486552707853</v>
       </c>
       <c r="S7">
-        <v>1.000621337922471</v>
+        <v>1.00486552707853</v>
       </c>
       <c r="T7">
-        <v>1.000132512024858</v>
+        <v>1.002258237065322</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -954,58 +960,58 @@
         <v>6</v>
       </c>
       <c r="C8">
-        <v>1.000707993193457</v>
+        <v>1.305542244752868</v>
       </c>
       <c r="D8">
-        <v>0.999874194202896</v>
+        <v>0.9150337284625897</v>
       </c>
       <c r="E8">
-        <v>1.000707993193457</v>
+        <v>1.305542244752868</v>
       </c>
       <c r="F8">
-        <v>0.9997944562122064</v>
+        <v>0.9283754666418781</v>
       </c>
       <c r="G8">
-        <v>0.9998177005128078</v>
+        <v>0.9244857447829345</v>
       </c>
       <c r="H8">
-        <v>1.00040816290219</v>
+        <v>1.164977978600851</v>
       </c>
       <c r="I8">
-        <v>0.9994361282314621</v>
+        <v>0.8115114657590696</v>
       </c>
       <c r="J8">
-        <v>0.999874194202896</v>
+        <v>0.9150337284625897</v>
       </c>
       <c r="K8">
-        <v>0.999874194202896</v>
+        <v>0.9150337284625897</v>
       </c>
       <c r="L8">
-        <v>0.9997944562122064</v>
+        <v>0.9283754666418781</v>
       </c>
       <c r="M8">
-        <v>1.000251224702832</v>
+        <v>1.116958855697373</v>
       </c>
       <c r="N8">
-        <v>1.000251224702832</v>
+        <v>1.116958855697373</v>
       </c>
       <c r="O8">
-        <v>1.000303537435951</v>
+        <v>1.132965229998532</v>
       </c>
       <c r="P8">
-        <v>1.00012554786952</v>
+        <v>1.049650479952445</v>
       </c>
       <c r="Q8">
-        <v>1.00012554786952</v>
+        <v>1.049650479952445</v>
       </c>
       <c r="R8">
-        <v>1.000062709452864</v>
+        <v>1.015996292079981</v>
       </c>
       <c r="S8">
-        <v>1.000062709452864</v>
+        <v>1.015996292079981</v>
       </c>
       <c r="T8">
-        <v>1.00000643920917</v>
+        <v>1.008321104833365</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -1016,58 +1022,58 @@
         <v>7</v>
       </c>
       <c r="C9">
-        <v>1.016187275119469</v>
+        <v>1.008283847900709</v>
       </c>
       <c r="D9">
-        <v>0.9963308609201554</v>
+        <v>0.9982160093222855</v>
       </c>
       <c r="E9">
-        <v>1.016187275119469</v>
+        <v>1.008283847900709</v>
       </c>
       <c r="F9">
-        <v>0.9957430860309134</v>
+        <v>0.9977694851446021</v>
       </c>
       <c r="G9">
-        <v>0.9959144436439981</v>
+        <v>0.9978996639339872</v>
       </c>
       <c r="H9">
-        <v>1.009039825702461</v>
+        <v>1.004659821797435</v>
       </c>
       <c r="I9">
-        <v>0.9885348394887286</v>
+        <v>0.9939662440501307</v>
       </c>
       <c r="J9">
-        <v>0.9963308609201554</v>
+        <v>0.9982160093222855</v>
       </c>
       <c r="K9">
-        <v>0.9963308609201554</v>
+        <v>0.9982160093222855</v>
       </c>
       <c r="L9">
-        <v>0.9957430860309134</v>
+        <v>0.9977694851446021</v>
       </c>
       <c r="M9">
-        <v>1.005965180575191</v>
+        <v>1.003026666522655</v>
       </c>
       <c r="N9">
-        <v>1.005965180575191</v>
+        <v>1.003026666522655</v>
       </c>
       <c r="O9">
-        <v>1.006990062284281</v>
+        <v>1.003571051614249</v>
       </c>
       <c r="P9">
-        <v>1.002753740690179</v>
+        <v>1.001423114122532</v>
       </c>
       <c r="Q9">
-        <v>1.002753740690179</v>
+        <v>1.001423114122532</v>
       </c>
       <c r="R9">
-        <v>1.001148020747673</v>
+        <v>1.000621337922471</v>
       </c>
       <c r="S9">
-        <v>1.001148020747673</v>
+        <v>1.000621337922471</v>
       </c>
       <c r="T9">
-        <v>1.000291721817621</v>
+        <v>1.000132512024858</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1078,58 +1084,58 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>1.310196708754675</v>
+        <v>1.000707993193457</v>
       </c>
       <c r="D10">
-        <v>0.9136014208682736</v>
+        <v>0.999874194202896</v>
       </c>
       <c r="E10">
-        <v>1.310196708754675</v>
+        <v>1.000707993193457</v>
       </c>
       <c r="F10">
-        <v>0.9273607395060881</v>
+        <v>0.9997944562122064</v>
       </c>
       <c r="G10">
-        <v>0.923349273992338</v>
+        <v>0.9998177005128078</v>
       </c>
       <c r="H10">
-        <v>1.167442400596209</v>
+        <v>1.00040816290219</v>
       </c>
       <c r="I10">
-        <v>0.8088830884345124</v>
+        <v>0.9994361282314621</v>
       </c>
       <c r="J10">
-        <v>0.9136014208682736</v>
+        <v>0.999874194202896</v>
       </c>
       <c r="K10">
-        <v>0.9136014208682736</v>
+        <v>0.999874194202896</v>
       </c>
       <c r="L10">
-        <v>0.9273607395060881</v>
+        <v>0.9997944562122064</v>
       </c>
       <c r="M10">
-        <v>1.118778724130382</v>
+        <v>1.000251224702832</v>
       </c>
       <c r="N10">
-        <v>1.118778724130382</v>
+        <v>1.000251224702832</v>
       </c>
       <c r="O10">
-        <v>1.134999949618991</v>
+        <v>1.000303537435951</v>
       </c>
       <c r="P10">
-        <v>1.050386289709679</v>
+        <v>1.00012554786952</v>
       </c>
       <c r="Q10">
-        <v>1.050386289709679</v>
+        <v>1.00012554786952</v>
       </c>
       <c r="R10">
-        <v>1.016190072499328</v>
+        <v>1.000062709452864</v>
       </c>
       <c r="S10">
-        <v>1.016190072499328</v>
+        <v>1.000062709452864</v>
       </c>
       <c r="T10">
-        <v>1.008472272025349</v>
+        <v>1.00000643920917</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1140,58 +1146,58 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>0.979417782586029</v>
+        <v>1.016187275119469</v>
       </c>
       <c r="D11">
-        <v>1.007796829230654</v>
+        <v>0.9963308609201554</v>
       </c>
       <c r="E11">
-        <v>0.979417782586029</v>
+        <v>1.016187275119469</v>
       </c>
       <c r="F11">
-        <v>1.003665828863865</v>
+        <v>0.9957430860309134</v>
       </c>
       <c r="G11">
-        <v>1.0048701992827</v>
+        <v>0.9959144436439981</v>
       </c>
       <c r="H11">
-        <v>0.9896553864249871</v>
+        <v>1.009039825702461</v>
       </c>
       <c r="I11">
-        <v>1.008953710857798</v>
+        <v>0.9885348394887286</v>
       </c>
       <c r="J11">
-        <v>1.007796829230654</v>
+        <v>0.9963308609201554</v>
       </c>
       <c r="K11">
-        <v>1.007796829230654</v>
+        <v>0.9963308609201554</v>
       </c>
       <c r="L11">
-        <v>1.003665828863865</v>
+        <v>0.9957430860309134</v>
       </c>
       <c r="M11">
-        <v>0.9915418057249468</v>
+        <v>1.005965180575191</v>
       </c>
       <c r="N11">
-        <v>0.9915418057249468</v>
+        <v>1.005965180575191</v>
       </c>
       <c r="O11">
-        <v>0.9909129992916269</v>
+        <v>1.006990062284281</v>
       </c>
       <c r="P11">
-        <v>0.996960146893516</v>
+        <v>1.002753740690179</v>
       </c>
       <c r="Q11">
-        <v>0.996960146893516</v>
+        <v>1.002753740690179</v>
       </c>
       <c r="R11">
-        <v>0.9996693174778004</v>
+        <v>1.001148020747673</v>
       </c>
       <c r="S11">
-        <v>0.9996693174778004</v>
+        <v>1.001148020747673</v>
       </c>
       <c r="T11">
-        <v>0.9990599562076721</v>
+        <v>1.000291721817621</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1202,58 +1208,58 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>1.091556774778948</v>
+        <v>1.310196708754675</v>
       </c>
       <c r="D12">
-        <v>0.9743052244736859</v>
+        <v>0.9136014208682736</v>
       </c>
       <c r="E12">
-        <v>1.091556774778948</v>
+        <v>1.310196708754675</v>
       </c>
       <c r="F12">
-        <v>0.9786672138105234</v>
+        <v>0.9273607395060881</v>
       </c>
       <c r="G12">
-        <v>0.977395494199998</v>
+        <v>0.923349273992338</v>
       </c>
       <c r="H12">
-        <v>1.049353225242107</v>
+        <v>1.167442400596209</v>
       </c>
       <c r="I12">
-        <v>0.9439318308736846</v>
+        <v>0.8088830884345124</v>
       </c>
       <c r="J12">
-        <v>0.9743052244736859</v>
+        <v>0.9136014208682736</v>
       </c>
       <c r="K12">
-        <v>0.9743052244736859</v>
+        <v>0.9136014208682736</v>
       </c>
       <c r="L12">
-        <v>0.9786672138105234</v>
+        <v>0.9273607395060881</v>
       </c>
       <c r="M12">
-        <v>1.035111994294736</v>
+        <v>1.118778724130382</v>
       </c>
       <c r="N12">
-        <v>1.035111994294736</v>
+        <v>1.118778724130382</v>
       </c>
       <c r="O12">
-        <v>1.039859071277193</v>
+        <v>1.134999949618991</v>
       </c>
       <c r="P12">
-        <v>1.014843071021053</v>
+        <v>1.050386289709679</v>
       </c>
       <c r="Q12">
-        <v>1.014843071021053</v>
+        <v>1.050386289709679</v>
       </c>
       <c r="R12">
-        <v>1.004708609384211</v>
+        <v>1.016190072499328</v>
       </c>
       <c r="S12">
-        <v>1.004708609384211</v>
+        <v>1.016190072499328</v>
       </c>
       <c r="T12">
-        <v>1.002534960563158</v>
+        <v>1.008472272025349</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1264,58 +1270,58 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>0.9400766669191642</v>
+        <v>0.979417782586029</v>
       </c>
       <c r="D13">
-        <v>1.015214035980532</v>
+        <v>1.007796829230654</v>
       </c>
       <c r="E13">
-        <v>0.9400766669191642</v>
+        <v>0.979417782586029</v>
       </c>
       <c r="F13">
-        <v>1.014850281958769</v>
+        <v>1.003665828863865</v>
       </c>
       <c r="G13">
-        <v>1.014956329649233</v>
+        <v>1.0048701992827</v>
       </c>
       <c r="H13">
-        <v>0.9671292284602357</v>
+        <v>0.9896553864249871</v>
       </c>
       <c r="I13">
-        <v>1.039526312979367</v>
+        <v>1.008953710857798</v>
       </c>
       <c r="J13">
-        <v>1.015214035980532</v>
+        <v>1.007796829230654</v>
       </c>
       <c r="K13">
-        <v>1.015214035980532</v>
+        <v>1.007796829230654</v>
       </c>
       <c r="L13">
-        <v>1.014850281958769</v>
+        <v>1.003665828863865</v>
       </c>
       <c r="M13">
-        <v>0.9774634744389668</v>
+        <v>0.9915418057249468</v>
       </c>
       <c r="N13">
-        <v>0.9774634744389668</v>
+        <v>0.9915418057249468</v>
       </c>
       <c r="O13">
-        <v>0.9740187257793899</v>
+        <v>0.9909129992916269</v>
       </c>
       <c r="P13">
-        <v>0.9900469949528219</v>
+        <v>0.996960146893516</v>
       </c>
       <c r="Q13">
-        <v>0.9900469949528219</v>
+        <v>0.996960146893516</v>
       </c>
       <c r="R13">
-        <v>0.9963387552097496</v>
+        <v>0.9996693174778004</v>
       </c>
       <c r="S13">
-        <v>0.9963387552097496</v>
+        <v>0.9996693174778004</v>
       </c>
       <c r="T13">
-        <v>0.9986254759912168</v>
+        <v>0.9990599562076721</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1326,58 +1332,58 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <v>1.536180099999999</v>
+        <v>1.091556774778948</v>
       </c>
       <c r="D14">
-        <v>0.8503200600000009</v>
+        <v>0.9743052244736859</v>
       </c>
       <c r="E14">
-        <v>1.536180099999999</v>
+        <v>1.091556774778948</v>
       </c>
       <c r="F14">
-        <v>0.8746298000000006</v>
+        <v>0.9786672138105234</v>
       </c>
       <c r="G14">
-        <v>0.8675424099999991</v>
+        <v>0.977395494199998</v>
       </c>
       <c r="H14">
-        <v>1.289305499999998</v>
+        <v>1.049353225242107</v>
       </c>
       <c r="I14">
-        <v>0.6702520500000003</v>
+        <v>0.9439318308736846</v>
       </c>
       <c r="J14">
-        <v>0.8503200600000009</v>
+        <v>0.9743052244736859</v>
       </c>
       <c r="K14">
-        <v>0.8503200600000009</v>
+        <v>0.9743052244736859</v>
       </c>
       <c r="L14">
-        <v>0.8746298000000006</v>
+        <v>0.9786672138105234</v>
       </c>
       <c r="M14">
-        <v>1.20540495</v>
+        <v>1.035111994294736</v>
       </c>
       <c r="N14">
-        <v>1.20540495</v>
+        <v>1.035111994294736</v>
       </c>
       <c r="O14">
-        <v>1.233371799999999</v>
+        <v>1.039859071277193</v>
       </c>
       <c r="P14">
-        <v>1.08704332</v>
+        <v>1.014843071021053</v>
       </c>
       <c r="Q14">
-        <v>1.08704332</v>
+        <v>1.014843071021053</v>
       </c>
       <c r="R14">
-        <v>1.027862505</v>
+        <v>1.004708609384211</v>
       </c>
       <c r="S14">
-        <v>1.027862505</v>
+        <v>1.004708609384211</v>
       </c>
       <c r="T14">
-        <v>1.014704986666666</v>
+        <v>1.002534960563158</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1388,58 +1394,58 @@
         <v>13</v>
       </c>
       <c r="C15">
-        <v>0.7563714999999999</v>
+        <v>0.9400766669191642</v>
       </c>
       <c r="D15">
-        <v>1.1248129</v>
+        <v>1.015214035980532</v>
       </c>
       <c r="E15">
-        <v>0.7563714999999999</v>
+        <v>0.9400766669191642</v>
       </c>
       <c r="F15">
-        <v>1.0262848</v>
+        <v>1.014850281958769</v>
       </c>
       <c r="G15">
-        <v>1.0550102</v>
+        <v>1.014956329649233</v>
       </c>
       <c r="H15">
-        <v>0.88627042</v>
+        <v>0.9671292284602357</v>
       </c>
       <c r="I15">
-        <v>1.055856</v>
+        <v>1.039526312979367</v>
       </c>
       <c r="J15">
-        <v>1.1248129</v>
+        <v>1.015214035980532</v>
       </c>
       <c r="K15">
-        <v>1.1248129</v>
+        <v>1.015214035980532</v>
       </c>
       <c r="L15">
-        <v>1.0262848</v>
+        <v>1.014850281958769</v>
       </c>
       <c r="M15">
-        <v>0.8913281499999999</v>
+        <v>0.9774634744389668</v>
       </c>
       <c r="N15">
-        <v>0.8913281499999999</v>
+        <v>0.9774634744389668</v>
       </c>
       <c r="O15">
-        <v>0.88964224</v>
+        <v>0.9740187257793899</v>
       </c>
       <c r="P15">
-        <v>0.9691563999999998</v>
+        <v>0.9900469949528219</v>
       </c>
       <c r="Q15">
-        <v>0.9691564</v>
+        <v>0.9900469949528219</v>
       </c>
       <c r="R15">
-        <v>1.008070525</v>
+        <v>0.9963387552097496</v>
       </c>
       <c r="S15">
-        <v>1.008070525</v>
+        <v>0.9963387552097496</v>
       </c>
       <c r="T15">
-        <v>0.9841009700000001</v>
+        <v>0.9986254759912168</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1450,58 +1456,58 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>0.66302443</v>
+        <v>1.536180099999999</v>
       </c>
       <c r="D16">
-        <v>1.0906323</v>
+        <v>0.8503200600000009</v>
       </c>
       <c r="E16">
-        <v>0.66302443</v>
+        <v>1.536180099999999</v>
       </c>
       <c r="F16">
-        <v>1.0811407</v>
+        <v>0.8746298000000006</v>
       </c>
       <c r="G16">
-        <v>1.0839079</v>
+        <v>0.8675424099999991</v>
       </c>
       <c r="H16">
-        <v>0.81557631</v>
+        <v>1.289305499999998</v>
       </c>
       <c r="I16">
-        <v>1.2168605</v>
+        <v>0.6702520500000003</v>
       </c>
       <c r="J16">
-        <v>1.0906323</v>
+        <v>0.8503200600000009</v>
       </c>
       <c r="K16">
-        <v>1.0906323</v>
+        <v>0.8503200600000009</v>
       </c>
       <c r="L16">
-        <v>1.0811407</v>
+        <v>0.8746298000000006</v>
       </c>
       <c r="M16">
-        <v>0.8720825649999999</v>
+        <v>1.20540495</v>
       </c>
       <c r="N16">
-        <v>0.8720825649999999</v>
+        <v>1.20540495</v>
       </c>
       <c r="O16">
-        <v>0.8532471466666666</v>
+        <v>1.233371799999999</v>
       </c>
       <c r="P16">
-        <v>0.9449324766666667</v>
+        <v>1.08704332</v>
       </c>
       <c r="Q16">
-        <v>0.9449324766666667</v>
+        <v>1.08704332</v>
       </c>
       <c r="R16">
-        <v>0.9813574325000001</v>
+        <v>1.027862505</v>
       </c>
       <c r="S16">
-        <v>0.9813574325000001</v>
+        <v>1.027862505</v>
       </c>
       <c r="T16">
-        <v>0.9918570233333334</v>
+        <v>1.014704986666666</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1512,58 +1518,58 @@
         <v>15</v>
       </c>
       <c r="C17">
-        <v>0.63724602</v>
+        <v>0.7563714999999999</v>
       </c>
       <c r="D17">
-        <v>1.0747053</v>
+        <v>1.1248129</v>
       </c>
       <c r="E17">
-        <v>0.63724602</v>
+        <v>0.7563714999999999</v>
       </c>
       <c r="F17">
-        <v>1.0998657</v>
+        <v>1.0262848</v>
       </c>
       <c r="G17">
-        <v>1.0925303</v>
+        <v>1.0550102</v>
       </c>
       <c r="H17">
-        <v>0.79380554</v>
+        <v>0.88627042</v>
       </c>
       <c r="I17">
-        <v>1.2726318</v>
+        <v>1.055856</v>
       </c>
       <c r="J17">
-        <v>1.0747053</v>
+        <v>1.1248129</v>
       </c>
       <c r="K17">
-        <v>1.0747053</v>
+        <v>1.1248129</v>
       </c>
       <c r="L17">
-        <v>1.0998657</v>
+        <v>1.0262848</v>
       </c>
       <c r="M17">
-        <v>0.8685558600000001</v>
+        <v>0.8913281499999999</v>
       </c>
       <c r="N17">
-        <v>0.8685558600000001</v>
+        <v>0.8913281499999999</v>
       </c>
       <c r="O17">
-        <v>0.8436390866666668</v>
+        <v>0.88964224</v>
       </c>
       <c r="P17">
-        <v>0.9372723400000001</v>
+        <v>0.9691563999999998</v>
       </c>
       <c r="Q17">
-        <v>0.9372723399999999</v>
+        <v>0.9691564</v>
       </c>
       <c r="R17">
-        <v>0.97163058</v>
+        <v>1.008070525</v>
       </c>
       <c r="S17">
-        <v>0.97163058</v>
+        <v>1.008070525</v>
       </c>
       <c r="T17">
-        <v>0.9951307766666666</v>
+        <v>0.9841009700000001</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1574,58 +1580,58 @@
         <v>16</v>
       </c>
       <c r="C18">
-        <v>1.18728414739726</v>
+        <v>0.66302443</v>
       </c>
       <c r="D18">
-        <v>0.9588558205479455</v>
+        <v>1.0906323</v>
       </c>
       <c r="E18">
-        <v>1.18728414739726</v>
+        <v>0.66302443</v>
       </c>
       <c r="F18">
-        <v>0.9500341912328767</v>
+        <v>1.0811407</v>
       </c>
       <c r="G18">
-        <v>0.9526060854794524</v>
+        <v>1.0839079</v>
       </c>
       <c r="H18">
-        <v>1.105021846575342</v>
+        <v>0.81557631</v>
       </c>
       <c r="I18">
-        <v>0.8651239890410956</v>
+        <v>1.2168605</v>
       </c>
       <c r="J18">
-        <v>0.9588558205479455</v>
+        <v>1.0906323</v>
       </c>
       <c r="K18">
-        <v>0.9588558205479455</v>
+        <v>1.0906323</v>
       </c>
       <c r="L18">
-        <v>0.9500341912328767</v>
+        <v>1.0811407</v>
       </c>
       <c r="M18">
-        <v>1.068659169315068</v>
+        <v>0.8720825649999999</v>
       </c>
       <c r="N18">
-        <v>1.068659169315068</v>
+        <v>0.8720825649999999</v>
       </c>
       <c r="O18">
-        <v>1.08078006173516</v>
+        <v>0.8532471466666666</v>
       </c>
       <c r="P18">
-        <v>1.032058053059361</v>
+        <v>0.9449324766666667</v>
       </c>
       <c r="Q18">
-        <v>1.032058053059361</v>
+        <v>0.9449324766666667</v>
       </c>
       <c r="R18">
-        <v>1.013757494931507</v>
+        <v>0.9813574325000001</v>
       </c>
       <c r="S18">
-        <v>1.013757494931507</v>
+        <v>0.9813574325000001</v>
       </c>
       <c r="T18">
-        <v>1.003154346712329</v>
+        <v>0.9918570233333334</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1636,58 +1642,58 @@
         <v>17</v>
       </c>
       <c r="C19">
-        <v>0.9475528578947369</v>
+        <v>0.63724602</v>
       </c>
       <c r="D19">
-        <v>0.9952692626315791</v>
+        <v>1.0747053</v>
       </c>
       <c r="E19">
-        <v>0.9475528578947369</v>
+        <v>0.63724602</v>
       </c>
       <c r="F19">
-        <v>1.023263932105263</v>
+        <v>1.0998657</v>
       </c>
       <c r="G19">
-        <v>1.015102218947368</v>
+        <v>1.0925303</v>
       </c>
       <c r="H19">
-        <v>0.963985404736842</v>
+        <v>0.79380554</v>
       </c>
       <c r="I19">
-        <v>1.068601898421053</v>
+        <v>1.2726318</v>
       </c>
       <c r="J19">
-        <v>0.9952692626315791</v>
+        <v>1.0747053</v>
       </c>
       <c r="K19">
-        <v>0.9952692626315791</v>
+        <v>1.0747053</v>
       </c>
       <c r="L19">
-        <v>1.023263932105263</v>
+        <v>1.0998657</v>
       </c>
       <c r="M19">
-        <v>0.9854083950000001</v>
+        <v>0.8685558600000001</v>
       </c>
       <c r="N19">
-        <v>0.9854083950000001</v>
+        <v>0.8685558600000001</v>
       </c>
       <c r="O19">
-        <v>0.978267398245614</v>
+        <v>0.8436390866666668</v>
       </c>
       <c r="P19">
-        <v>0.9886953508771931</v>
+        <v>0.9372723400000001</v>
       </c>
       <c r="Q19">
-        <v>0.9886953508771931</v>
+        <v>0.9372723399999999</v>
       </c>
       <c r="R19">
-        <v>0.9903388288157896</v>
+        <v>0.97163058</v>
       </c>
       <c r="S19">
-        <v>0.9903388288157896</v>
+        <v>0.97163058</v>
       </c>
       <c r="T19">
-        <v>1.002295929122807</v>
+        <v>0.9951307766666666</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1698,58 +1704,58 @@
         <v>18</v>
       </c>
       <c r="C20">
-        <v>0.8902969368421051</v>
+        <v>1.18728414739726</v>
       </c>
       <c r="D20">
-        <v>1.027473054210526</v>
+        <v>0.9588558205479455</v>
       </c>
       <c r="E20">
-        <v>0.8902969368421051</v>
+        <v>1.18728414739726</v>
       </c>
       <c r="F20">
-        <v>1.027537886315789</v>
+        <v>0.9500341912328767</v>
       </c>
       <c r="G20">
-        <v>1.027518977894737</v>
+        <v>0.9526060854794524</v>
       </c>
       <c r="H20">
-        <v>0.9392498763157894</v>
+        <v>1.105021846575342</v>
       </c>
       <c r="I20">
-        <v>1.07415846</v>
+        <v>0.8651239890410956</v>
       </c>
       <c r="J20">
-        <v>1.027473054210526</v>
+        <v>0.9588558205479455</v>
       </c>
       <c r="K20">
-        <v>1.027473054210526</v>
+        <v>0.9588558205479455</v>
       </c>
       <c r="L20">
-        <v>1.027537886315789</v>
+        <v>0.9500341912328767</v>
       </c>
       <c r="M20">
-        <v>0.9589174115789472</v>
+        <v>1.068659169315068</v>
       </c>
       <c r="N20">
-        <v>0.9589174115789472</v>
+        <v>1.068659169315068</v>
       </c>
       <c r="O20">
-        <v>0.9523615664912279</v>
+        <v>1.08078006173516</v>
       </c>
       <c r="P20">
-        <v>0.9817692924561402</v>
+        <v>1.032058053059361</v>
       </c>
       <c r="Q20">
-        <v>0.9817692924561402</v>
+        <v>1.032058053059361</v>
       </c>
       <c r="R20">
-        <v>0.9931952328947368</v>
+        <v>1.013757494931507</v>
       </c>
       <c r="S20">
-        <v>0.9931952328947368</v>
+        <v>1.013757494931507</v>
       </c>
       <c r="T20">
-        <v>0.9977058652631579</v>
+        <v>1.003154346712329</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1760,58 +1766,58 @@
         <v>19</v>
       </c>
       <c r="C21">
-        <v>0.9700302987427654</v>
+        <v>0.9475528578947369</v>
       </c>
       <c r="D21">
-        <v>0.9864277544158573</v>
+        <v>0.9952692626315791</v>
       </c>
       <c r="E21">
-        <v>0.9700302987427654</v>
+        <v>0.9475528578947369</v>
       </c>
       <c r="F21">
-        <v>1.019192854047593</v>
+        <v>1.023263932105263</v>
       </c>
       <c r="G21">
-        <v>1.009640330591291</v>
+        <v>1.015102218947368</v>
       </c>
       <c r="H21">
-        <v>0.9759401366091729</v>
+        <v>0.963985404736842</v>
       </c>
       <c r="I21">
-        <v>1.057410745746827</v>
+        <v>1.068601898421053</v>
       </c>
       <c r="J21">
-        <v>0.9864277544158573</v>
+        <v>0.9952692626315791</v>
       </c>
       <c r="K21">
-        <v>0.9864277544158573</v>
+        <v>0.9952692626315791</v>
       </c>
       <c r="L21">
-        <v>1.019192854047593</v>
+        <v>1.023263932105263</v>
       </c>
       <c r="M21">
-        <v>0.9946115763951792</v>
+        <v>0.9854083950000001</v>
       </c>
       <c r="N21">
-        <v>0.9946115763951792</v>
+        <v>0.9854083950000001</v>
       </c>
       <c r="O21">
-        <v>0.9883877631331771</v>
+        <v>0.978267398245614</v>
       </c>
       <c r="P21">
-        <v>0.9918836357354053</v>
+        <v>0.9886953508771931</v>
       </c>
       <c r="Q21">
-        <v>0.9918836357354053</v>
+        <v>0.9886953508771931</v>
       </c>
       <c r="R21">
-        <v>0.9905196654055183</v>
+        <v>0.9903388288157896</v>
       </c>
       <c r="S21">
-        <v>0.9905196654055183</v>
+        <v>0.9903388288157896</v>
       </c>
       <c r="T21">
-        <v>1.003107020025584</v>
+        <v>1.002295929122807</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1822,58 +1828,58 @@
         <v>20</v>
       </c>
       <c r="C22">
-        <v>0.9825145013590952</v>
+        <v>0.8902969368421051</v>
       </c>
       <c r="D22">
-        <v>1.013054072656479</v>
+        <v>1.027473054210526</v>
       </c>
       <c r="E22">
-        <v>0.9825145013590952</v>
+        <v>0.8902969368421051</v>
       </c>
       <c r="F22">
-        <v>0.9995533493921123</v>
+        <v>1.027537886315789</v>
       </c>
       <c r="G22">
-        <v>1.003489414092796</v>
+        <v>1.027518977894737</v>
       </c>
       <c r="H22">
-        <v>0.993491053930485</v>
+        <v>0.9392498763157894</v>
       </c>
       <c r="I22">
-        <v>0.9962665858300779</v>
+        <v>1.07415846</v>
       </c>
       <c r="J22">
-        <v>1.013054072656479</v>
+        <v>1.027473054210526</v>
       </c>
       <c r="K22">
-        <v>1.013054072656479</v>
+        <v>1.027473054210526</v>
       </c>
       <c r="L22">
-        <v>0.9995533493921123</v>
+        <v>1.027537886315789</v>
       </c>
       <c r="M22">
-        <v>0.9910339253756038</v>
+        <v>0.9589174115789472</v>
       </c>
       <c r="N22">
-        <v>0.9910339253756038</v>
+        <v>0.9589174115789472</v>
       </c>
       <c r="O22">
-        <v>0.9918529682272309</v>
+        <v>0.9523615664912279</v>
       </c>
       <c r="P22">
-        <v>0.9983739744692288</v>
+        <v>0.9817692924561402</v>
       </c>
       <c r="Q22">
-        <v>0.9983739744692288</v>
+        <v>0.9817692924561402</v>
       </c>
       <c r="R22">
-        <v>1.002043999016041</v>
+        <v>0.9931952328947368</v>
       </c>
       <c r="S22">
-        <v>1.002043999016041</v>
+        <v>0.9931952328947368</v>
       </c>
       <c r="T22">
-        <v>0.9980614962101741</v>
+        <v>0.9977058652631579</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1884,58 +1890,58 @@
         <v>21</v>
       </c>
       <c r="C23">
-        <v>0.9599247910191417</v>
+        <v>0.9700302987427654</v>
       </c>
       <c r="D23">
-        <v>1.024822124234009</v>
+        <v>0.9864277544158573</v>
       </c>
       <c r="E23">
-        <v>0.9599247910191417</v>
+        <v>0.9700302987427654</v>
       </c>
       <c r="F23">
-        <v>1.001801925666435</v>
+        <v>1.019192854047593</v>
       </c>
       <c r="G23">
-        <v>1.008513345175049</v>
+        <v>1.009640330591291</v>
       </c>
       <c r="H23">
-        <v>0.9832654825769027</v>
+        <v>0.9759401366091729</v>
       </c>
       <c r="I23">
-        <v>1.00045725893741</v>
+        <v>1.057410745746827</v>
       </c>
       <c r="J23">
-        <v>1.024822124234009</v>
+        <v>0.9864277544158573</v>
       </c>
       <c r="K23">
-        <v>1.024822124234009</v>
+        <v>0.9864277544158573</v>
       </c>
       <c r="L23">
-        <v>1.001801925666435</v>
+        <v>1.019192854047593</v>
       </c>
       <c r="M23">
-        <v>0.9808633583427885</v>
+        <v>0.9946115763951792</v>
       </c>
       <c r="N23">
-        <v>0.9808633583427885</v>
+        <v>0.9946115763951792</v>
       </c>
       <c r="O23">
-        <v>0.9816640664208265</v>
+        <v>0.9883877631331771</v>
       </c>
       <c r="P23">
-        <v>0.9955162803065286</v>
+        <v>0.9918836357354053</v>
       </c>
       <c r="Q23">
-        <v>0.9955162803065286</v>
+        <v>0.9918836357354053</v>
       </c>
       <c r="R23">
-        <v>1.002842741288399</v>
+        <v>0.9905196654055183</v>
       </c>
       <c r="S23">
-        <v>1.002842741288399</v>
+        <v>0.9905196654055183</v>
       </c>
       <c r="T23">
-        <v>0.9964641546014912</v>
+        <v>1.003107020025584</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1946,58 +1952,58 @@
         <v>22</v>
       </c>
       <c r="C24">
-        <v>0.9970022412372574</v>
+        <v>0.9825145013590952</v>
       </c>
       <c r="D24">
-        <v>0.9945144354984666</v>
+        <v>1.013054072656479</v>
       </c>
       <c r="E24">
-        <v>0.9970022412372574</v>
+        <v>0.9825145013590952</v>
       </c>
       <c r="F24">
-        <v>1.00420463466407</v>
+        <v>0.9995533493921123</v>
       </c>
       <c r="G24">
-        <v>1.001379500856453</v>
+        <v>1.003489414092796</v>
       </c>
       <c r="H24">
-        <v>0.9961336832803341</v>
+        <v>0.993491053930485</v>
       </c>
       <c r="I24">
-        <v>1.013013387683863</v>
+        <v>0.9962665858300779</v>
       </c>
       <c r="J24">
-        <v>0.9945144354984666</v>
+        <v>1.013054072656479</v>
       </c>
       <c r="K24">
-        <v>0.9945144354984666</v>
+        <v>1.013054072656479</v>
       </c>
       <c r="L24">
-        <v>1.00420463466407</v>
+        <v>0.9995533493921123</v>
       </c>
       <c r="M24">
-        <v>1.000603437950664</v>
+        <v>0.9910339253756038</v>
       </c>
       <c r="N24">
-        <v>1.000603437950664</v>
+        <v>0.9910339253756038</v>
       </c>
       <c r="O24">
-        <v>0.9991135197272206</v>
+        <v>0.9918529682272309</v>
       </c>
       <c r="P24">
-        <v>0.9985737704665981</v>
+        <v>0.9983739744692288</v>
       </c>
       <c r="Q24">
-        <v>0.9985737704665981</v>
+        <v>0.9983739744692288</v>
       </c>
       <c r="R24">
-        <v>0.9975589367245653</v>
+        <v>1.002043999016041</v>
       </c>
       <c r="S24">
-        <v>0.9975589367245653</v>
+        <v>1.002043999016041</v>
       </c>
       <c r="T24">
-        <v>1.001041313870074</v>
+        <v>0.9980614962101741</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -2008,58 +2014,58 @@
         <v>23</v>
       </c>
       <c r="C25">
-        <v>0.8245571252994573</v>
+        <v>0.9599247910191417</v>
       </c>
       <c r="D25">
-        <v>1.049748903744113</v>
+        <v>1.024822124234009</v>
       </c>
       <c r="E25">
-        <v>0.8245571252994573</v>
+        <v>0.9599247910191417</v>
       </c>
       <c r="F25">
-        <v>1.040589193293728</v>
+        <v>1.001801925666435</v>
       </c>
       <c r="G25">
-        <v>1.043259663994474</v>
+        <v>1.008513345175049</v>
       </c>
       <c r="H25">
-        <v>0.9056271558208652</v>
+        <v>0.9832654825769027</v>
       </c>
       <c r="I25">
-        <v>1.106491479191727</v>
+        <v>1.00045725893741</v>
       </c>
       <c r="J25">
-        <v>1.049748903744113</v>
+        <v>1.024822124234009</v>
       </c>
       <c r="K25">
-        <v>1.049748903744113</v>
+        <v>1.024822124234009</v>
       </c>
       <c r="L25">
-        <v>1.040589193293728</v>
+        <v>1.001801925666435</v>
       </c>
       <c r="M25">
-        <v>0.9325731592965927</v>
+        <v>0.9808633583427885</v>
       </c>
       <c r="N25">
-        <v>0.9325731592965927</v>
+        <v>0.9808633583427885</v>
       </c>
       <c r="O25">
-        <v>0.9235911581380168</v>
+        <v>0.9816640664208265</v>
       </c>
       <c r="P25">
-        <v>0.9716317407790994</v>
+        <v>0.9955162803065286</v>
       </c>
       <c r="Q25">
-        <v>0.9716317407790994</v>
+        <v>0.9955162803065286</v>
       </c>
       <c r="R25">
-        <v>0.9911610315203527</v>
+        <v>1.002842741288399</v>
       </c>
       <c r="S25">
-        <v>0.9911610315203527</v>
+        <v>1.002842741288399</v>
       </c>
       <c r="T25">
-        <v>0.9950455868907273</v>
+        <v>0.9964641546014912</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2070,58 +2076,58 @@
         <v>24</v>
       </c>
       <c r="C26">
-        <v>0.956869819880765</v>
+        <v>0.9970022412372574</v>
       </c>
       <c r="D26">
-        <v>1.008383564038345</v>
+        <v>0.9945144354984666</v>
       </c>
       <c r="E26">
-        <v>0.956869819880765</v>
+        <v>0.9970022412372574</v>
       </c>
       <c r="F26">
-        <v>1.012112863014643</v>
+        <v>1.00420463466407</v>
       </c>
       <c r="G26">
-        <v>1.011025604402078</v>
+        <v>1.001379500856453</v>
       </c>
       <c r="H26">
-        <v>0.9754224008297543</v>
+        <v>0.9961336832803341</v>
       </c>
       <c r="I26">
-        <v>1.032998676017813</v>
+        <v>1.013013387683863</v>
       </c>
       <c r="J26">
-        <v>1.008383564038345</v>
+        <v>0.9945144354984666</v>
       </c>
       <c r="K26">
-        <v>1.008383564038345</v>
+        <v>0.9945144354984666</v>
       </c>
       <c r="L26">
-        <v>1.012112863014643</v>
+        <v>1.00420463466407</v>
       </c>
       <c r="M26">
-        <v>0.9844913414477042</v>
+        <v>1.000603437950664</v>
       </c>
       <c r="N26">
-        <v>0.9844913414477042</v>
+        <v>1.000603437950664</v>
       </c>
       <c r="O26">
-        <v>0.9814683612417209</v>
+        <v>0.9991135197272206</v>
       </c>
       <c r="P26">
-        <v>0.9924554156445843</v>
+        <v>0.9985737704665981</v>
       </c>
       <c r="Q26">
-        <v>0.9924554156445843</v>
+        <v>0.9985737704665981</v>
       </c>
       <c r="R26">
-        <v>0.9964374527430244</v>
+        <v>0.9975589367245653</v>
       </c>
       <c r="S26">
-        <v>0.9964374527430244</v>
+        <v>0.9975589367245653</v>
       </c>
       <c r="T26">
-        <v>0.9994688213638998</v>
+        <v>1.001041313870074</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2132,58 +2138,58 @@
         <v>25</v>
       </c>
       <c r="C27">
-        <v>1.031683241182285</v>
+        <v>0.8245571252994573</v>
       </c>
       <c r="D27">
-        <v>0.9929707721871059</v>
+        <v>1.049748903744113</v>
       </c>
       <c r="E27">
-        <v>1.031683241182285</v>
+        <v>0.8245571252994573</v>
       </c>
       <c r="F27">
-        <v>0.9917823738842108</v>
+        <v>1.040589193293728</v>
       </c>
       <c r="G27">
-        <v>0.9921288316962059</v>
+        <v>1.043259663994474</v>
       </c>
       <c r="H27">
-        <v>1.017129343473248</v>
+        <v>0.9056271558208652</v>
       </c>
       <c r="I27">
-        <v>0.9788808288892682</v>
+        <v>1.106491479191727</v>
       </c>
       <c r="J27">
-        <v>0.9929707721871059</v>
+        <v>1.049748903744113</v>
       </c>
       <c r="K27">
-        <v>0.9929707721871059</v>
+        <v>1.049748903744113</v>
       </c>
       <c r="L27">
-        <v>0.9917823738842108</v>
+        <v>1.040589193293728</v>
       </c>
       <c r="M27">
-        <v>1.011732807533248</v>
+        <v>0.9325731592965927</v>
       </c>
       <c r="N27">
-        <v>1.011732807533248</v>
+        <v>0.9325731592965927</v>
       </c>
       <c r="O27">
-        <v>1.013531652846581</v>
+        <v>0.9235911581380168</v>
       </c>
       <c r="P27">
-        <v>1.0054787957512</v>
+        <v>0.9716317407790994</v>
       </c>
       <c r="Q27">
-        <v>1.005478795751201</v>
+        <v>0.9716317407790994</v>
       </c>
       <c r="R27">
-        <v>1.002351789860177</v>
+        <v>0.9911610315203527</v>
       </c>
       <c r="S27">
-        <v>1.002351789860177</v>
+        <v>0.9911610315203527</v>
       </c>
       <c r="T27">
-        <v>1.000762565218721</v>
+        <v>0.9950455868907273</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2194,58 +2200,58 @@
         <v>26</v>
       </c>
       <c r="C28">
-        <v>0.9652678698951229</v>
+        <v>0.956869819880765</v>
       </c>
       <c r="D28">
-        <v>1.006471411557253</v>
+        <v>1.008383564038345</v>
       </c>
       <c r="E28">
-        <v>0.9652678698951229</v>
+        <v>0.956869819880765</v>
       </c>
       <c r="F28">
-        <v>1.009909042879628</v>
+        <v>1.012112863014643</v>
       </c>
       <c r="G28">
-        <v>1.008906812998071</v>
+        <v>1.011025604402078</v>
       </c>
       <c r="H28">
-        <v>0.9801094462256198</v>
+        <v>0.9754224008297543</v>
       </c>
       <c r="I28">
-        <v>1.027065160463498</v>
+        <v>1.032998676017813</v>
       </c>
       <c r="J28">
-        <v>1.006471411557253</v>
+        <v>1.008383564038345</v>
       </c>
       <c r="K28">
-        <v>1.006471411557253</v>
+        <v>1.008383564038345</v>
       </c>
       <c r="L28">
-        <v>1.009909042879628</v>
+        <v>1.012112863014643</v>
       </c>
       <c r="M28">
-        <v>0.9875884563873756</v>
+        <v>0.9844913414477042</v>
       </c>
       <c r="N28">
-        <v>0.9875884563873756</v>
+        <v>0.9844913414477042</v>
       </c>
       <c r="O28">
-        <v>0.9850954530001236</v>
+        <v>0.9814683612417209</v>
       </c>
       <c r="P28">
-        <v>0.9938827747773348</v>
+        <v>0.9924554156445843</v>
       </c>
       <c r="Q28">
-        <v>0.9938827747773348</v>
+        <v>0.9924554156445843</v>
       </c>
       <c r="R28">
-        <v>0.9970299339723143</v>
+        <v>0.9964374527430244</v>
       </c>
       <c r="S28">
-        <v>0.9970299339723143</v>
+        <v>0.9964374527430244</v>
       </c>
       <c r="T28">
-        <v>0.9996216240031989</v>
+        <v>0.9994688213638998</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2256,57 +2262,181 @@
         <v>27</v>
       </c>
       <c r="C29">
+        <v>1.031683241182285</v>
+      </c>
+      <c r="D29">
+        <v>0.9929707721871059</v>
+      </c>
+      <c r="E29">
+        <v>1.031683241182285</v>
+      </c>
+      <c r="F29">
+        <v>0.9917823738842108</v>
+      </c>
+      <c r="G29">
+        <v>0.9921288316962059</v>
+      </c>
+      <c r="H29">
+        <v>1.017129343473248</v>
+      </c>
+      <c r="I29">
+        <v>0.9788808288892682</v>
+      </c>
+      <c r="J29">
+        <v>0.9929707721871059</v>
+      </c>
+      <c r="K29">
+        <v>0.9929707721871059</v>
+      </c>
+      <c r="L29">
+        <v>0.9917823738842108</v>
+      </c>
+      <c r="M29">
+        <v>1.011732807533248</v>
+      </c>
+      <c r="N29">
+        <v>1.011732807533248</v>
+      </c>
+      <c r="O29">
+        <v>1.013531652846581</v>
+      </c>
+      <c r="P29">
+        <v>1.0054787957512</v>
+      </c>
+      <c r="Q29">
+        <v>1.005478795751201</v>
+      </c>
+      <c r="R29">
+        <v>1.002351789860177</v>
+      </c>
+      <c r="S29">
+        <v>1.002351789860177</v>
+      </c>
+      <c r="T29">
+        <v>1.000762565218721</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20">
+      <c r="A30" s="1">
+        <v>28</v>
+      </c>
+      <c r="B30" t="s">
+        <v>28</v>
+      </c>
+      <c r="C30">
+        <v>0.9652678698951229</v>
+      </c>
+      <c r="D30">
+        <v>1.006471411557253</v>
+      </c>
+      <c r="E30">
+        <v>0.9652678698951229</v>
+      </c>
+      <c r="F30">
+        <v>1.009909042879628</v>
+      </c>
+      <c r="G30">
+        <v>1.008906812998071</v>
+      </c>
+      <c r="H30">
+        <v>0.9801094462256198</v>
+      </c>
+      <c r="I30">
+        <v>1.027065160463498</v>
+      </c>
+      <c r="J30">
+        <v>1.006471411557253</v>
+      </c>
+      <c r="K30">
+        <v>1.006471411557253</v>
+      </c>
+      <c r="L30">
+        <v>1.009909042879628</v>
+      </c>
+      <c r="M30">
+        <v>0.9875884563873756</v>
+      </c>
+      <c r="N30">
+        <v>0.9875884563873756</v>
+      </c>
+      <c r="O30">
+        <v>0.9850954530001236</v>
+      </c>
+      <c r="P30">
+        <v>0.9938827747773348</v>
+      </c>
+      <c r="Q30">
+        <v>0.9938827747773348</v>
+      </c>
+      <c r="R30">
+        <v>0.9970299339723143</v>
+      </c>
+      <c r="S30">
+        <v>0.9970299339723143</v>
+      </c>
+      <c r="T30">
+        <v>0.9996216240031989</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20">
+      <c r="A31" s="1">
+        <v>29</v>
+      </c>
+      <c r="B31" t="s">
+        <v>29</v>
+      </c>
+      <c r="C31">
         <v>0.8692514301182257</v>
       </c>
-      <c r="D29">
+      <c r="D31">
         <v>1.032316957401619</v>
       </c>
-      <c r="E29">
+      <c r="E31">
         <v>0.8692514301182257</v>
       </c>
-      <c r="F29">
+      <c r="F31">
         <v>1.03285998040531</v>
       </c>
-      <c r="G29">
+      <c r="G31">
         <v>1.032701665465637</v>
       </c>
-      <c r="H29">
+      <c r="H31">
         <v>0.9280570906823112</v>
       </c>
-      <c r="I29">
+      <c r="I31">
         <v>1.087561264402947</v>
       </c>
-      <c r="J29">
+      <c r="J31">
         <v>1.032316957401619</v>
       </c>
-      <c r="K29">
+      <c r="K31">
         <v>1.032316957401619</v>
       </c>
-      <c r="L29">
+      <c r="L31">
         <v>1.03285998040531</v>
       </c>
-      <c r="M29">
+      <c r="M31">
         <v>0.9510557052617677</v>
       </c>
-      <c r="N29">
+      <c r="N31">
         <v>0.9510557052617677</v>
       </c>
-      <c r="O29">
+      <c r="O31">
         <v>0.9433895004019489</v>
       </c>
-      <c r="P29">
+      <c r="P31">
         <v>0.9781427893083849</v>
       </c>
-      <c r="Q29">
+      <c r="Q31">
         <v>0.9781427893083849</v>
       </c>
-      <c r="R29">
+      <c r="R31">
         <v>0.9916863313316935</v>
       </c>
-      <c r="S29">
+      <c r="S31">
         <v>0.9916863313316935</v>
       </c>
-      <c r="T29">
+      <c r="T31">
         <v>0.9971247314126751</v>
       </c>
     </row>
